--- a/Wyoming/WaterAllocation/WY_POD_Allocation Schema Mapping to WaDE_QA.xlsx
+++ b/Wyoming/WaterAllocation/WY_POD_Allocation Schema Mapping to WaDE_QA.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rjame\Documents\WSWC Documents\MappingStatesDataToWaDE2.0\Wyoming\WaterAllocation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7798686C-A2F4-4B17-85D5-86B540E2305B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0065BE33-EA45-484F-AF91-B29B84F9FD8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="1692" windowWidth="23256" windowHeight="12576" tabRatio="714" firstSheet="1" activeTab="5" xr2:uid="{10FC1BAB-5472-410C-A2F0-85DCDF5389F8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" tabRatio="714" xr2:uid="{10FC1BAB-5472-410C-A2F0-85DCDF5389F8}"/>
   </bookViews>
   <sheets>
     <sheet name="Mapping Notes" sheetId="10" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1311" uniqueCount="522">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1312" uniqueCount="523">
   <si>
     <t>Name</t>
   </si>
@@ -1632,6 +1632,32 @@
   </si>
   <si>
     <t>WSWC defined owner tag.</t>
+  </si>
+  <si>
+    <r>
+      <t>Use the</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Survey_Type_Survey_Number_Survey_Suffix</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> metadata, and anything with a Z in it also has a beneficial use = Wild and Scenic River</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -3254,10 +3280,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7154D4B-C952-456C-B506-1C3DB2041E3D}">
-  <dimension ref="A1:B19"/>
+  <dimension ref="A1:B20"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3312,6 +3338,11 @@
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
         <v>443</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B20" t="s">
+        <v>522</v>
       </c>
     </row>
   </sheetData>
@@ -4865,8 +4896,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10E7F0DF-14BE-4BB8-BB6C-8815808B0B66}">
   <dimension ref="A1:J23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5558,8 +5589,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B91B1FF-D207-4871-B787-27544A9D3030}">
   <dimension ref="A1:P47"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E47" sqref="E47"/>
+    <sheetView topLeftCell="A22" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A32" sqref="A32:XFD32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Wyoming/WaterAllocation/WY_POD_Allocation Schema Mapping to WaDE_QA.xlsx
+++ b/Wyoming/WaterAllocation/WY_POD_Allocation Schema Mapping to WaDE_QA.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rjame\Documents\WSWC Documents\MappingStatesDataToWaDE2.0\Wyoming\WaterAllocation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0065BE33-EA45-484F-AF91-B29B84F9FD8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29BF6C0A-AF06-4B30-816C-E2B0349F9AA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" tabRatio="714" xr2:uid="{10FC1BAB-5472-410C-A2F0-85DCDF5389F8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" tabRatio="714" activeTab="3" xr2:uid="{10FC1BAB-5472-410C-A2F0-85DCDF5389F8}"/>
   </bookViews>
   <sheets>
     <sheet name="Mapping Notes" sheetId="10" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1312" uniqueCount="523">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1312" uniqueCount="526">
   <si>
     <t>Name</t>
   </si>
@@ -1658,6 +1658,15 @@
       </rPr>
       <t xml:space="preserve"> metadata, and anything with a Z in it also has a beneficial use = Wild and Scenic River</t>
     </r>
+  </si>
+  <si>
+    <t>WYwr_M1</t>
+  </si>
+  <si>
+    <t>WYwr_V1</t>
+  </si>
+  <si>
+    <t>Wywy_O1</t>
   </si>
 </sst>
 </file>
@@ -3282,8 +3291,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7154D4B-C952-456C-B506-1C3DB2041E3D}">
   <dimension ref="A1:B20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3356,7 +3365,7 @@
   <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3459,7 +3468,7 @@
         <v>38</v>
       </c>
       <c r="E4" s="96" t="s">
-        <v>465</v>
+        <v>523</v>
       </c>
       <c r="F4" s="62" t="s">
         <v>38</v>
@@ -3751,7 +3760,7 @@
   <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3848,7 +3857,7 @@
         <v>38</v>
       </c>
       <c r="E4" s="104" t="s">
-        <v>442</v>
+        <v>524</v>
       </c>
       <c r="F4" s="30" t="s">
         <v>38</v>
@@ -4163,8 +4172,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E8BA2FE-2555-4166-A4DF-0203EE1C77D7}">
   <dimension ref="A1:J26"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4267,7 +4276,7 @@
         <v>38</v>
       </c>
       <c r="E4" s="41" t="s">
-        <v>445</v>
+        <v>525</v>
       </c>
       <c r="F4" s="30" t="s">
         <v>38</v>

--- a/Wyoming/WaterAllocation/WY_POD_Allocation Schema Mapping to WaDE_QA.xlsx
+++ b/Wyoming/WaterAllocation/WY_POD_Allocation Schema Mapping to WaDE_QA.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rjame\Documents\WSWC Documents\MappingStatesDataToWaDE2.0\Wyoming\WaterAllocation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29BF6C0A-AF06-4B30-816C-E2B0349F9AA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0065BE33-EA45-484F-AF91-B29B84F9FD8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" tabRatio="714" activeTab="3" xr2:uid="{10FC1BAB-5472-410C-A2F0-85DCDF5389F8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" tabRatio="714" xr2:uid="{10FC1BAB-5472-410C-A2F0-85DCDF5389F8}"/>
   </bookViews>
   <sheets>
     <sheet name="Mapping Notes" sheetId="10" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1312" uniqueCount="526">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1312" uniqueCount="523">
   <si>
     <t>Name</t>
   </si>
@@ -1658,15 +1658,6 @@
       </rPr>
       <t xml:space="preserve"> metadata, and anything with a Z in it also has a beneficial use = Wild and Scenic River</t>
     </r>
-  </si>
-  <si>
-    <t>WYwr_M1</t>
-  </si>
-  <si>
-    <t>WYwr_V1</t>
-  </si>
-  <si>
-    <t>Wywy_O1</t>
   </si>
 </sst>
 </file>
@@ -3291,8 +3282,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7154D4B-C952-456C-B506-1C3DB2041E3D}">
   <dimension ref="A1:B20"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3365,7 +3356,7 @@
   <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3468,7 +3459,7 @@
         <v>38</v>
       </c>
       <c r="E4" s="96" t="s">
-        <v>523</v>
+        <v>465</v>
       </c>
       <c r="F4" s="62" t="s">
         <v>38</v>
@@ -3760,7 +3751,7 @@
   <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3857,7 +3848,7 @@
         <v>38</v>
       </c>
       <c r="E4" s="104" t="s">
-        <v>524</v>
+        <v>442</v>
       </c>
       <c r="F4" s="30" t="s">
         <v>38</v>
@@ -4172,8 +4163,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E8BA2FE-2555-4166-A4DF-0203EE1C77D7}">
   <dimension ref="A1:J26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4276,7 +4267,7 @@
         <v>38</v>
       </c>
       <c r="E4" s="41" t="s">
-        <v>525</v>
+        <v>445</v>
       </c>
       <c r="F4" s="30" t="s">
         <v>38</v>

--- a/Wyoming/WaterAllocation/WY_POD_Allocation Schema Mapping to WaDE_QA.xlsx
+++ b/Wyoming/WaterAllocation/WY_POD_Allocation Schema Mapping to WaDE_QA.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rjame\Documents\WSWC Documents\MappingStatesDataToWaDE2.0\Wyoming\WaterAllocation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0065BE33-EA45-484F-AF91-B29B84F9FD8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3CEAC57-3BCF-473A-B17A-B7C767A9FAB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" tabRatio="714" xr2:uid="{10FC1BAB-5472-410C-A2F0-85DCDF5389F8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" tabRatio="714" activeTab="6" xr2:uid="{10FC1BAB-5472-410C-A2F0-85DCDF5389F8}"/>
   </bookViews>
   <sheets>
     <sheet name="Mapping Notes" sheetId="10" r:id="rId1"/>
@@ -1392,16 +1392,10 @@
     <t>Are these considered consumptive use, withdrawls, delivery, or etc?</t>
   </si>
   <si>
-    <t>WY_Consumptive Use</t>
-  </si>
-  <si>
     <t>Water year or Calender Year?</t>
   </si>
   <si>
     <t>Day</t>
-  </si>
-  <si>
-    <t>WWDO</t>
   </si>
   <si>
     <t>Wyoming Water Development Office</t>
@@ -1461,9 +1455,6 @@
   </si>
   <si>
     <t>SW, GW</t>
-  </si>
-  <si>
-    <t>WY_Water Allocation</t>
   </si>
   <si>
     <t>*get form watersource.csv</t>
@@ -1658,6 +1649,15 @@
       </rPr>
       <t xml:space="preserve"> metadata, and anything with a Z in it also has a beneficial use = Wild and Scenic River</t>
     </r>
+  </si>
+  <si>
+    <t>WYwr_M1</t>
+  </si>
+  <si>
+    <t>WYwr_V1</t>
+  </si>
+  <si>
+    <t>WYwr_O1</t>
   </si>
 </sst>
 </file>
@@ -2842,9 +2842,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2902,6 +2899,9 @@
     </xf>
     <xf numFmtId="0" fontId="44" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="43">
@@ -3282,7 +3282,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7154D4B-C952-456C-B506-1C3DB2041E3D}">
   <dimension ref="A1:B20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
@@ -3305,15 +3305,15 @@
         <v>237</v>
       </c>
       <c r="B2" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="44" t="s">
         <v>238</v>
       </c>
-      <c r="B4" s="108" t="s">
-        <v>477</v>
+      <c r="B4" s="107" t="s">
+        <v>474</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -3337,12 +3337,12 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
     </row>
   </sheetData>
@@ -3459,7 +3459,7 @@
         <v>38</v>
       </c>
       <c r="E4" s="96" t="s">
-        <v>465</v>
+        <v>520</v>
       </c>
       <c r="F4" s="62" t="s">
         <v>38</v>
@@ -3619,7 +3619,7 @@
         <v>38</v>
       </c>
       <c r="E9" s="43" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="F9" s="47" t="s">
         <v>38</v>
@@ -3751,7 +3751,7 @@
   <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3847,8 +3847,8 @@
       <c r="D4" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="E4" s="104" t="s">
-        <v>442</v>
+      <c r="E4" s="96" t="s">
+        <v>521</v>
       </c>
       <c r="F4" s="30" t="s">
         <v>38</v>
@@ -3879,7 +3879,7 @@
       <c r="D5" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E5" s="105">
+      <c r="E5" s="104">
         <v>1</v>
       </c>
       <c r="F5" s="16"/>
@@ -3907,8 +3907,8 @@
       <c r="D6" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="105" t="s">
-        <v>444</v>
+      <c r="E6" s="104" t="s">
+        <v>443</v>
       </c>
       <c r="F6" s="47" t="s">
         <v>38</v>
@@ -3939,7 +3939,7 @@
       <c r="D7" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="E7" s="105" t="s">
+      <c r="E7" s="104" t="s">
         <v>110</v>
       </c>
       <c r="F7" s="47" t="s">
@@ -3971,7 +3971,7 @@
       <c r="D8" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="E8" s="105" t="s">
+      <c r="E8" s="104" t="s">
         <v>113</v>
       </c>
       <c r="F8" s="47" t="s">
@@ -4003,7 +4003,7 @@
       <c r="D9" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="E9" s="105" t="s">
+      <c r="E9" s="104" t="s">
         <v>114</v>
       </c>
       <c r="F9" s="47" t="s">
@@ -4035,7 +4035,7 @@
       <c r="D10" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E10" s="105">
+      <c r="E10" s="104">
         <v>11</v>
       </c>
       <c r="F10" s="47" t="s">
@@ -4067,7 +4067,7 @@
       <c r="D11" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="E11" s="105" t="s">
+      <c r="E11" s="104" t="s">
         <v>112</v>
       </c>
       <c r="F11" s="47" t="s">
@@ -4099,7 +4099,7 @@
       <c r="D12" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="E12" s="105" t="s">
+      <c r="E12" s="104" t="s">
         <v>440</v>
       </c>
       <c r="F12" s="47" t="s">
@@ -4131,7 +4131,7 @@
       <c r="D13" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="E13" s="105" t="s">
+      <c r="E13" s="104" t="s">
         <v>440</v>
       </c>
       <c r="F13" s="47" t="s">
@@ -4164,7 +4164,7 @@
   <dimension ref="A1:J26"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4267,7 +4267,7 @@
         <v>38</v>
       </c>
       <c r="E4" s="41" t="s">
-        <v>445</v>
+        <v>522</v>
       </c>
       <c r="F4" s="30" t="s">
         <v>38</v>
@@ -4298,8 +4298,8 @@
       <c r="D5" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E5" s="109" t="s">
-        <v>450</v>
+      <c r="E5" s="108" t="s">
+        <v>448</v>
       </c>
       <c r="F5" s="16" t="s">
         <v>38</v>
@@ -4331,7 +4331,7 @@
         <v>38</v>
       </c>
       <c r="E6" s="46" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="F6" s="47" t="s">
         <v>38</v>
@@ -4362,8 +4362,8 @@
       <c r="D7" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E7" s="106" t="s">
-        <v>451</v>
+      <c r="E7" s="105" t="s">
+        <v>449</v>
       </c>
       <c r="F7" s="47" t="s">
         <v>38</v>
@@ -4394,8 +4394,8 @@
       <c r="D8" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E8" s="107" t="s">
-        <v>446</v>
+      <c r="E8" s="106" t="s">
+        <v>444</v>
       </c>
       <c r="F8" s="47" t="s">
         <v>38</v>
@@ -4427,7 +4427,7 @@
         <v>38</v>
       </c>
       <c r="E9" s="46" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="F9" s="47" t="s">
         <v>38</v>
@@ -4459,7 +4459,7 @@
         <v>38</v>
       </c>
       <c r="E10" s="46" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="F10" s="47" t="s">
         <v>38</v>
@@ -4490,8 +4490,8 @@
       <c r="D11" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E11" s="109" t="s">
-        <v>447</v>
+      <c r="E11" s="108" t="s">
+        <v>445</v>
       </c>
       <c r="F11" s="47" t="s">
         <v>38</v>
@@ -4523,7 +4523,7 @@
         <v>38</v>
       </c>
       <c r="E12" s="15" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="F12" s="47" t="s">
         <v>38</v>
@@ -4679,7 +4679,7 @@
         <v>38</v>
       </c>
       <c r="E4" s="67" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="F4" s="62" t="s">
         <v>38</v>
@@ -4802,10 +4802,10 @@
         <v>38</v>
       </c>
       <c r="F8" s="43" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="G8" s="49" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="H8" s="85"/>
       <c r="I8" s="78" t="s">
@@ -4829,7 +4829,7 @@
         <v>38</v>
       </c>
       <c r="E9" s="24" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="F9" s="24" t="s">
         <v>38</v>
@@ -4859,7 +4859,7 @@
         <v>20</v>
       </c>
       <c r="E10" s="24" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="F10" s="24" t="s">
         <v>38</v>
@@ -4996,7 +4996,7 @@
         <v>38</v>
       </c>
       <c r="E4" s="67" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="F4" s="62" t="s">
         <v>38</v>
@@ -5026,7 +5026,7 @@
         <v>38</v>
       </c>
       <c r="E5" s="24" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="F5" s="47" t="s">
         <v>38</v>
@@ -5056,7 +5056,7 @@
         <v>20</v>
       </c>
       <c r="E6" s="24" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="F6" s="47" t="s">
         <v>38</v>
@@ -5267,10 +5267,10 @@
         <v>38</v>
       </c>
       <c r="F13" s="43" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="G13" s="48" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="H13" s="87"/>
       <c r="I13" s="82" t="s">
@@ -5297,10 +5297,10 @@
         <v>38</v>
       </c>
       <c r="F14" s="43" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="G14" s="48" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="H14" s="87"/>
       <c r="I14" s="82">
@@ -5413,10 +5413,10 @@
         <v>38</v>
       </c>
       <c r="F18" s="43" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="G18" s="32" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="H18" s="83"/>
       <c r="I18" s="82" t="s">
@@ -5440,7 +5440,7 @@
         <v>38</v>
       </c>
       <c r="E19" s="24" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="F19" s="47" t="s">
         <v>38</v>
@@ -5503,10 +5503,10 @@
         <v>38</v>
       </c>
       <c r="F21" s="43" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="G21" s="32" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="H21" s="83"/>
       <c r="I21" s="82" t="s">
@@ -5530,7 +5530,7 @@
         <v>20</v>
       </c>
       <c r="E22" s="24" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="F22" s="47" t="s">
         <v>38</v>
@@ -5589,8 +5589,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B91B1FF-D207-4871-B787-27544A9D3030}">
   <dimension ref="A1:P47"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32:XFD32"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F40" sqref="F40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5846,8 +5846,8 @@
       <c r="D9" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="E9" s="69" t="s">
-        <v>465</v>
+      <c r="E9" s="126" t="s">
+        <v>520</v>
       </c>
       <c r="F9" s="24" t="s">
         <v>38</v>
@@ -5879,7 +5879,7 @@
         <v>38</v>
       </c>
       <c r="E10" s="70" t="s">
-        <v>445</v>
+        <v>522</v>
       </c>
       <c r="F10" s="24" t="s">
         <v>38</v>
@@ -5911,7 +5911,7 @@
         <v>38</v>
       </c>
       <c r="E11" s="43" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="F11" s="24" t="s">
         <v>38</v>
@@ -5943,7 +5943,7 @@
         <v>38</v>
       </c>
       <c r="E12" s="69" t="s">
-        <v>442</v>
+        <v>521</v>
       </c>
       <c r="F12" s="24" t="s">
         <v>38</v>
@@ -5975,7 +5975,7 @@
         <v>38</v>
       </c>
       <c r="E13" s="71" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="F13" s="62" t="s">
         <v>38</v>
@@ -6266,10 +6266,10 @@
         <v>38</v>
       </c>
       <c r="F22" s="43" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="G22" s="48" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="H22" s="90" t="s">
         <v>38</v>
@@ -6298,10 +6298,10 @@
         <v>38</v>
       </c>
       <c r="F23" s="43" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="G23" s="48" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="H23" s="90" t="s">
         <v>38</v>
@@ -6330,10 +6330,10 @@
         <v>38</v>
       </c>
       <c r="F24" s="43" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="G24" s="49" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="H24" s="90" t="s">
         <v>38</v>
@@ -6359,13 +6359,13 @@
         <v>38</v>
       </c>
       <c r="E25" s="24" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="F25" s="43" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="G25" s="49" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="H25" s="90" t="s">
         <v>38</v>
@@ -6392,10 +6392,10 @@
       </c>
       <c r="E26" s="24"/>
       <c r="F26" s="43" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="G26" s="49" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="H26" s="90" t="s">
         <v>38</v>
@@ -6453,7 +6453,7 @@
         <v>38</v>
       </c>
       <c r="E28" s="24" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="F28" s="24" t="s">
         <v>38</v>
@@ -6485,7 +6485,7 @@
         <v>38</v>
       </c>
       <c r="E29" s="24" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="F29" s="24" t="s">
         <v>38</v>
@@ -6504,26 +6504,26 @@
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A30" s="121" t="s">
+      <c r="A30" s="120" t="s">
         <v>87</v>
       </c>
-      <c r="B30" s="122" t="s">
+      <c r="B30" s="121" t="s">
         <v>34</v>
       </c>
-      <c r="C30" s="122" t="s">
+      <c r="C30" s="121" t="s">
         <v>18</v>
       </c>
-      <c r="D30" s="123" t="s">
+      <c r="D30" s="122" t="s">
         <v>20</v>
       </c>
-      <c r="E30" s="124" t="s">
-        <v>479</v>
-      </c>
-      <c r="F30" s="125" t="s">
-        <v>38</v>
-      </c>
-      <c r="G30" s="126" t="s">
-        <v>473</v>
+      <c r="E30" s="123" t="s">
+        <v>476</v>
+      </c>
+      <c r="F30" s="124" t="s">
+        <v>38</v>
+      </c>
+      <c r="G30" s="125" t="s">
+        <v>470</v>
       </c>
       <c r="H30" s="90" t="s">
         <v>38</v>
@@ -6584,10 +6584,10 @@
         <v>433</v>
       </c>
       <c r="F32" s="43" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="G32" s="48" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="H32" s="90" t="s">
         <v>38</v>
@@ -6709,7 +6709,7 @@
         <v>38</v>
       </c>
       <c r="E36" s="74">
-        <v>44176</v>
+        <v>44644</v>
       </c>
       <c r="F36" s="24" t="s">
         <v>38</v>
@@ -6913,7 +6913,7 @@
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A43" s="5" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="B43" s="6" t="s">
         <v>34</v>
@@ -6926,15 +6926,15 @@
       </c>
       <c r="E43" s="5"/>
       <c r="F43" s="5"/>
-      <c r="G43" s="117"/>
-      <c r="H43" s="118" t="s">
-        <v>38</v>
-      </c>
-      <c r="I43" s="119" t="s">
-        <v>520</v>
-      </c>
-      <c r="J43" s="120" t="s">
-        <v>521</v>
+      <c r="G43" s="116"/>
+      <c r="H43" s="117" t="s">
+        <v>38</v>
+      </c>
+      <c r="I43" s="118" t="s">
+        <v>517</v>
+      </c>
+      <c r="J43" s="119" t="s">
+        <v>518</v>
       </c>
       <c r="K43" s="5"/>
       <c r="L43" s="5"/>
@@ -7021,7 +7021,7 @@
         <v>20</v>
       </c>
       <c r="E46" s="24" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="F46" s="24" t="s">
         <v>38</v>
@@ -7112,10 +7112,10 @@
       <c r="A2" s="100" t="s">
         <v>140</v>
       </c>
-      <c r="B2" s="110" t="s">
+      <c r="B2" s="109" t="s">
         <v>320</v>
       </c>
-      <c r="C2" s="112" t="s">
+      <c r="C2" s="111" t="s">
         <v>320</v>
       </c>
       <c r="F2" s="100" t="s">
@@ -7130,10 +7130,10 @@
       <c r="A3" s="101" t="s">
         <v>332</v>
       </c>
-      <c r="B3" s="111" t="s">
+      <c r="B3" s="110" t="s">
         <v>255</v>
       </c>
-      <c r="C3" s="113" t="str">
+      <c r="C3" s="112" t="str">
         <f>""""&amp;A3&amp;""""&amp;" : "&amp;""""&amp;B3&amp;""""&amp;","</f>
         <v>"AESCNG" : "Coal Bed Natural Gas",</v>
       </c>
@@ -7150,10 +7150,10 @@
       <c r="A4" s="101" t="s">
         <v>351</v>
       </c>
-      <c r="B4" s="111" t="s">
+      <c r="B4" s="110" t="s">
         <v>352</v>
       </c>
-      <c r="C4" s="113" t="str">
+      <c r="C4" s="112" t="str">
         <f t="shared" ref="C4:C42" si="0">""""&amp;A4&amp;""""&amp;" : "&amp;""""&amp;B4&amp;""""&amp;","</f>
         <v>"AESFIS" : "Fish Propagation (Aesthetics)",</v>
       </c>
@@ -7170,10 +7170,10 @@
       <c r="A5" s="101" t="s">
         <v>353</v>
       </c>
-      <c r="B5" s="111" t="s">
-        <v>480</v>
-      </c>
-      <c r="C5" s="113" t="str">
+      <c r="B5" s="110" t="s">
+        <v>477</v>
+      </c>
+      <c r="C5" s="112" t="str">
         <f t="shared" si="0"/>
         <v>"AESGWR" : "Ground Water Recharge (Aesthetics)",</v>
       </c>
@@ -7190,10 +7190,10 @@
       <c r="A6" s="101" t="s">
         <v>379</v>
       </c>
-      <c r="B6" s="111" t="s">
+      <c r="B6" s="110" t="s">
         <v>380</v>
       </c>
-      <c r="C6" s="113" t="str">
+      <c r="C6" s="112" t="str">
         <f t="shared" si="0"/>
         <v>"AESREC" : "Recreation (Aesthetics)",</v>
       </c>
@@ -7210,10 +7210,10 @@
       <c r="A7" s="101" t="s">
         <v>381</v>
       </c>
-      <c r="B7" s="111" t="s">
+      <c r="B7" s="110" t="s">
         <v>382</v>
       </c>
-      <c r="C7" s="113" t="str">
+      <c r="C7" s="112" t="str">
         <f t="shared" si="0"/>
         <v>"AESSTK" : "Stock (Aesthetics)",</v>
       </c>
@@ -7230,10 +7230,10 @@
       <c r="A8" s="101" t="s">
         <v>397</v>
       </c>
-      <c r="B8" s="111" t="s">
+      <c r="B8" s="110" t="s">
         <v>398</v>
       </c>
-      <c r="C8" s="113" t="str">
+      <c r="C8" s="112" t="str">
         <f t="shared" si="0"/>
         <v>"AESWET" : "Wetlands (Aesthetics)",</v>
       </c>
@@ -7250,10 +7250,10 @@
       <c r="A9" s="101" t="s">
         <v>399</v>
       </c>
-      <c r="B9" s="111" t="s">
+      <c r="B9" s="110" t="s">
         <v>400</v>
       </c>
-      <c r="C9" s="113" t="str">
+      <c r="C9" s="112" t="str">
         <f t="shared" si="0"/>
         <v>"AESWIL" : "Wildlife (Aesthetics)",</v>
       </c>
@@ -7270,10 +7270,10 @@
       <c r="A10" s="101" t="s">
         <v>333</v>
       </c>
-      <c r="B10" s="111" t="s">
+      <c r="B10" s="110" t="s">
         <v>334</v>
       </c>
-      <c r="C10" s="113" t="str">
+      <c r="C10" s="112" t="str">
         <f t="shared" si="0"/>
         <v>"AQU" : "Aquaculture",</v>
       </c>
@@ -7290,10 +7290,10 @@
       <c r="A11" s="101" t="s">
         <v>335</v>
       </c>
-      <c r="B11" s="111" t="s">
+      <c r="B11" s="110" t="s">
         <v>336</v>
       </c>
-      <c r="C11" s="113" t="str">
+      <c r="C11" s="112" t="str">
         <f t="shared" si="0"/>
         <v>"BOT" : "Bottling Water",</v>
       </c>
@@ -7310,10 +7310,10 @@
       <c r="A12" s="101" t="s">
         <v>321</v>
       </c>
-      <c r="B12" s="111" t="s">
-        <v>482</v>
-      </c>
-      <c r="C12" s="113" t="str">
+      <c r="B12" s="110" t="s">
+        <v>479</v>
+      </c>
+      <c r="C12" s="112" t="str">
         <f t="shared" si="0"/>
         <v>"CAG" : "Commercial Agriculture",</v>
       </c>
@@ -7330,10 +7330,10 @@
       <c r="A13" s="101" t="s">
         <v>276</v>
       </c>
-      <c r="B13" s="111" t="s">
-        <v>483</v>
-      </c>
-      <c r="C13" s="113" t="str">
+      <c r="B13" s="110" t="s">
+        <v>480</v>
+      </c>
+      <c r="C13" s="112" t="str">
         <f t="shared" si="0"/>
         <v>"CBM" : "Coal Bed Methane - Ground Water",</v>
       </c>
@@ -7350,10 +7350,10 @@
       <c r="A14" s="101" t="s">
         <v>337</v>
       </c>
-      <c r="B14" s="111" t="s">
+      <c r="B14" s="110" t="s">
         <v>338</v>
       </c>
-      <c r="C14" s="113" t="str">
+      <c r="C14" s="112" t="str">
         <f t="shared" si="0"/>
         <v>"CHE" : "Chemical",</v>
       </c>
@@ -7370,10 +7370,10 @@
       <c r="A15" s="101" t="s">
         <v>284</v>
       </c>
-      <c r="B15" s="111" t="s">
+      <c r="B15" s="110" t="s">
         <v>253</v>
       </c>
-      <c r="C15" s="113" t="str">
+      <c r="C15" s="112" t="str">
         <f t="shared" si="0"/>
         <v>"CIS" : "Consumptive Instream Flow",</v>
       </c>
@@ -7390,10 +7390,10 @@
       <c r="A16" s="101" t="s">
         <v>285</v>
       </c>
-      <c r="B16" s="111" t="s">
+      <c r="B16" s="110" t="s">
         <v>254</v>
       </c>
-      <c r="C16" s="113" t="str">
+      <c r="C16" s="112" t="str">
         <f t="shared" si="0"/>
         <v>"CMU" : "Combined Uses",</v>
       </c>
@@ -7410,10 +7410,10 @@
       <c r="A17" s="101" t="s">
         <v>286</v>
       </c>
-      <c r="B17" s="111" t="s">
+      <c r="B17" s="110" t="s">
         <v>255</v>
       </c>
-      <c r="C17" s="113" t="str">
+      <c r="C17" s="112" t="str">
         <f t="shared" si="0"/>
         <v>"CNG_SW" : "Coal Bed Natural Gas",</v>
       </c>
@@ -7430,10 +7430,10 @@
       <c r="A18" s="101" t="s">
         <v>287</v>
       </c>
-      <c r="B18" s="111" t="s">
+      <c r="B18" s="110" t="s">
         <v>256</v>
       </c>
-      <c r="C18" s="113" t="str">
+      <c r="C18" s="112" t="str">
         <f t="shared" si="0"/>
         <v>"COM" : "Commercial",</v>
       </c>
@@ -7450,10 +7450,10 @@
       <c r="A19" s="101" t="s">
         <v>339</v>
       </c>
-      <c r="B19" s="111" t="s">
+      <c r="B19" s="110" t="s">
         <v>340</v>
       </c>
-      <c r="C19" s="113" t="str">
+      <c r="C19" s="112" t="str">
         <f t="shared" si="0"/>
         <v>"CUL" : "Culinary",</v>
       </c>
@@ -7464,10 +7464,10 @@
       <c r="A20" s="101" t="s">
         <v>341</v>
       </c>
-      <c r="B20" s="111" t="s">
+      <c r="B20" s="110" t="s">
         <v>342</v>
       </c>
-      <c r="C20" s="113" t="str">
+      <c r="C20" s="112" t="str">
         <f t="shared" si="0"/>
         <v>"DAI" : "Dairy",</v>
       </c>
@@ -7478,10 +7478,10 @@
       <c r="A21" s="101" t="s">
         <v>322</v>
       </c>
-      <c r="B21" s="111" t="s">
-        <v>484</v>
-      </c>
-      <c r="C21" s="113" t="str">
+      <c r="B21" s="110" t="s">
+        <v>481</v>
+      </c>
+      <c r="C21" s="112" t="str">
         <f t="shared" si="0"/>
         <v>"DEW" : "Mine Dewatering",</v>
       </c>
@@ -7492,10 +7492,10 @@
       <c r="A22" s="101" t="s">
         <v>277</v>
       </c>
-      <c r="B22" s="111" t="s">
-        <v>485</v>
-      </c>
-      <c r="C22" s="113" t="str">
+      <c r="B22" s="110" t="s">
+        <v>482</v>
+      </c>
+      <c r="C22" s="112" t="str">
         <f t="shared" si="0"/>
         <v>"DOM_GW" : "Domestic - Ground Water",</v>
       </c>
@@ -7506,10 +7506,10 @@
       <c r="A23" s="101" t="s">
         <v>288</v>
       </c>
-      <c r="B23" s="111" t="s">
-        <v>486</v>
-      </c>
-      <c r="C23" s="113" t="str">
+      <c r="B23" s="110" t="s">
+        <v>483</v>
+      </c>
+      <c r="C23" s="112" t="str">
         <f t="shared" si="0"/>
         <v>"DOM_SW" : "Domestic - Surface Water",</v>
       </c>
@@ -7520,10 +7520,10 @@
       <c r="A24" s="101" t="s">
         <v>289</v>
       </c>
-      <c r="B24" s="111" t="s">
-        <v>487</v>
-      </c>
-      <c r="C24" s="113" t="str">
+      <c r="B24" s="110" t="s">
+        <v>484</v>
+      </c>
+      <c r="C24" s="112" t="str">
         <f t="shared" si="0"/>
         <v>"DPA" : "Domestic (Phase 2 Award)",</v>
       </c>
@@ -7534,10 +7534,10 @@
       <c r="A25" s="101" t="s">
         <v>354</v>
       </c>
-      <c r="B25" s="111" t="s">
+      <c r="B25" s="110" t="s">
         <v>355</v>
       </c>
-      <c r="C25" s="113" t="str">
+      <c r="C25" s="112" t="str">
         <f t="shared" si="0"/>
         <v>"DRI" : "Drilling",</v>
       </c>
@@ -7548,10 +7548,10 @@
       <c r="A26" s="101" t="s">
         <v>290</v>
       </c>
-      <c r="B26" s="111" t="s">
+      <c r="B26" s="110" t="s">
         <v>257</v>
       </c>
-      <c r="C26" s="113" t="str">
+      <c r="C26" s="112" t="str">
         <f t="shared" si="0"/>
         <v>"DSP" : "Domestic Supply",</v>
       </c>
@@ -7562,10 +7562,10 @@
       <c r="A27" s="101" t="s">
         <v>383</v>
       </c>
-      <c r="B27" s="111" t="s">
+      <c r="B27" s="110" t="s">
         <v>384</v>
       </c>
-      <c r="C27" s="113" t="str">
+      <c r="C27" s="112" t="str">
         <f t="shared" si="0"/>
         <v>"DTA" : "Dust Abatement",</v>
       </c>
@@ -7576,10 +7576,10 @@
       <c r="A28" s="101" t="s">
         <v>291</v>
       </c>
-      <c r="B28" s="111" t="s">
+      <c r="B28" s="110" t="s">
         <v>258</v>
       </c>
-      <c r="C28" s="113" t="str">
+      <c r="C28" s="112" t="str">
         <f t="shared" si="0"/>
         <v>"ECAP" : "Existing Capacity",</v>
       </c>
@@ -7590,10 +7590,10 @@
       <c r="A29" s="101" t="s">
         <v>292</v>
       </c>
-      <c r="B29" s="111" t="s">
+      <c r="B29" s="110" t="s">
         <v>259</v>
       </c>
-      <c r="C29" s="113" t="str">
+      <c r="C29" s="112" t="str">
         <f t="shared" si="0"/>
         <v>"ERO" : "Erosion Control",</v>
       </c>
@@ -7604,10 +7604,10 @@
       <c r="A30" s="101" t="s">
         <v>293</v>
       </c>
-      <c r="B30" s="111" t="s">
+      <c r="B30" s="110" t="s">
         <v>260</v>
       </c>
-      <c r="C30" s="113" t="str">
+      <c r="C30" s="112" t="str">
         <f t="shared" si="0"/>
         <v>"FIR" : "Fire Protection",</v>
       </c>
@@ -7618,10 +7618,10 @@
       <c r="A31" s="101" t="s">
         <v>294</v>
       </c>
-      <c r="B31" s="111" t="s">
-        <v>488</v>
-      </c>
-      <c r="C31" s="113" t="str">
+      <c r="B31" s="110" t="s">
+        <v>485</v>
+      </c>
+      <c r="C31" s="112" t="str">
         <f t="shared" si="0"/>
         <v>"FIS" : "Fish Propagation",</v>
       </c>
@@ -7632,10 +7632,10 @@
       <c r="A32" s="101" t="s">
         <v>295</v>
       </c>
-      <c r="B32" s="111" t="s">
+      <c r="B32" s="110" t="s">
         <v>261</v>
       </c>
-      <c r="C32" s="113" t="str">
+      <c r="C32" s="112" t="str">
         <f t="shared" si="0"/>
         <v>"FLO" : "Flood Control",</v>
       </c>
@@ -7646,10 +7646,10 @@
       <c r="A33" s="101" t="s">
         <v>296</v>
       </c>
-      <c r="B33" s="111" t="s">
+      <c r="B33" s="110" t="s">
         <v>262</v>
       </c>
-      <c r="C33" s="113" t="str">
+      <c r="C33" s="112" t="str">
         <f t="shared" si="0"/>
         <v>"FTH" : "Flow Through",</v>
       </c>
@@ -7660,10 +7660,10 @@
       <c r="A34" s="101" t="s">
         <v>297</v>
       </c>
-      <c r="B34" s="111" t="s">
+      <c r="B34" s="110" t="s">
         <v>263</v>
       </c>
-      <c r="C34" s="113" t="str">
+      <c r="C34" s="112" t="str">
         <f t="shared" si="0"/>
         <v>"GWR" : "Ground Water Recharge",</v>
       </c>
@@ -7674,10 +7674,10 @@
       <c r="A35" s="101" t="s">
         <v>356</v>
       </c>
-      <c r="B35" s="111" t="s">
+      <c r="B35" s="110" t="s">
         <v>357</v>
       </c>
-      <c r="C35" s="113" t="str">
+      <c r="C35" s="112" t="str">
         <f t="shared" si="0"/>
         <v>"HEX" : "Heat Extraction",</v>
       </c>
@@ -7688,10 +7688,10 @@
       <c r="A36" s="101" t="s">
         <v>323</v>
       </c>
-      <c r="B36" s="111" t="s">
-        <v>489</v>
-      </c>
-      <c r="C36" s="113" t="str">
+      <c r="B36" s="110" t="s">
+        <v>486</v>
+      </c>
+      <c r="C36" s="112" t="str">
         <f t="shared" si="0"/>
         <v>"HWY" : "Highway Construction",</v>
       </c>
@@ -7702,10 +7702,10 @@
       <c r="A37" s="101" t="s">
         <v>298</v>
       </c>
-      <c r="B37" s="111" t="s">
+      <c r="B37" s="110" t="s">
         <v>264</v>
       </c>
-      <c r="C37" s="113" t="str">
+      <c r="C37" s="112" t="str">
         <f t="shared" si="0"/>
         <v>"HYD" : "Hydropower",</v>
       </c>
@@ -7716,10 +7716,10 @@
       <c r="A38" s="101" t="s">
         <v>385</v>
       </c>
-      <c r="B38" s="111" t="s">
+      <c r="B38" s="110" t="s">
         <v>386</v>
       </c>
-      <c r="C38" s="113" t="str">
+      <c r="C38" s="112" t="str">
         <f t="shared" si="0"/>
         <v>"HYT" : "Hydrostatic Testing",</v>
       </c>
@@ -7730,10 +7730,10 @@
       <c r="A39" s="101" t="s">
         <v>299</v>
       </c>
-      <c r="B39" s="111" t="s">
+      <c r="B39" s="110" t="s">
         <v>265</v>
       </c>
-      <c r="C39" s="113" t="str">
+      <c r="C39" s="112" t="str">
         <f t="shared" si="0"/>
         <v>"ICE" : "Ice Cutting",</v>
       </c>
@@ -7744,10 +7744,10 @@
       <c r="A40" s="101" t="s">
         <v>300</v>
       </c>
-      <c r="B40" s="111" t="s">
-        <v>490</v>
-      </c>
-      <c r="C40" s="113" t="str">
+      <c r="B40" s="110" t="s">
+        <v>487</v>
+      </c>
+      <c r="C40" s="112" t="str">
         <f t="shared" si="0"/>
         <v>"IFA" : "Instream Flow (Phase 2 Award)",</v>
       </c>
@@ -7758,10 +7758,10 @@
       <c r="A41" s="101" t="s">
         <v>278</v>
       </c>
-      <c r="B41" s="111" t="s">
-        <v>491</v>
-      </c>
-      <c r="C41" s="113" t="str">
+      <c r="B41" s="110" t="s">
+        <v>488</v>
+      </c>
+      <c r="C41" s="112" t="str">
         <f t="shared" si="0"/>
         <v>"IND_GW" : "Industrial - Ground Water",</v>
       </c>
@@ -7772,10 +7772,10 @@
       <c r="A42" s="101" t="s">
         <v>301</v>
       </c>
-      <c r="B42" s="111" t="s">
-        <v>492</v>
-      </c>
-      <c r="C42" s="113" t="str">
+      <c r="B42" s="110" t="s">
+        <v>489</v>
+      </c>
+      <c r="C42" s="112" t="str">
         <f t="shared" si="0"/>
         <v>"IND_SW" : "Industrial - Surface Water",</v>
       </c>
@@ -7786,10 +7786,10 @@
       <c r="A43" s="101" t="s">
         <v>279</v>
       </c>
-      <c r="B43" s="111" t="s">
-        <v>493</v>
-      </c>
-      <c r="C43" s="113" t="str">
+      <c r="B43" s="110" t="s">
+        <v>490</v>
+      </c>
+      <c r="C43" s="112" t="str">
         <f t="shared" ref="C43:C89" si="1">""""&amp;A43&amp;""""&amp;" : "&amp;""""&amp;B43&amp;""""&amp;","</f>
         <v>"IRR_GW" : "Irrigation - Ground Water",</v>
       </c>
@@ -7802,10 +7802,10 @@
       <c r="A44" s="101" t="s">
         <v>302</v>
       </c>
-      <c r="B44" s="111" t="s">
-        <v>494</v>
-      </c>
-      <c r="C44" s="113" t="str">
+      <c r="B44" s="110" t="s">
+        <v>491</v>
+      </c>
+      <c r="C44" s="112" t="str">
         <f t="shared" si="1"/>
         <v>"IRR_SW" : "Irrigation - Surface Water",</v>
       </c>
@@ -7818,10 +7818,10 @@
       <c r="A45" s="101" t="s">
         <v>303</v>
       </c>
-      <c r="B45" s="111" t="s">
+      <c r="B45" s="110" t="s">
         <v>418</v>
       </c>
-      <c r="C45" s="113" t="str">
+      <c r="C45" s="112" t="str">
         <f t="shared" si="1"/>
         <v>"ISF" : "Instream Flow",</v>
       </c>
@@ -7834,10 +7834,10 @@
       <c r="A46" s="101" t="s">
         <v>304</v>
       </c>
-      <c r="B46" s="111" t="s">
-        <v>495</v>
-      </c>
-      <c r="C46" s="113" t="str">
+      <c r="B46" s="110" t="s">
+        <v>492</v>
+      </c>
+      <c r="C46" s="112" t="str">
         <f t="shared" si="1"/>
         <v>"LAK" : "Maintain Natural Lake Level (Phase 2 Award)",</v>
       </c>
@@ -7850,10 +7850,10 @@
       <c r="A47" s="101" t="s">
         <v>324</v>
       </c>
-      <c r="B47" s="111" t="s">
-        <v>496</v>
-      </c>
-      <c r="C47" s="113" t="str">
+      <c r="B47" s="110" t="s">
+        <v>493</v>
+      </c>
+      <c r="C47" s="112" t="str">
         <f t="shared" si="1"/>
         <v>"LAW" : "Large Scale Landscape",</v>
       </c>
@@ -7866,10 +7866,10 @@
       <c r="A48" s="101" t="s">
         <v>343</v>
       </c>
-      <c r="B48" s="111" t="s">
+      <c r="B48" s="110" t="s">
         <v>344</v>
       </c>
-      <c r="C48" s="113" t="str">
+      <c r="C48" s="112" t="str">
         <f t="shared" si="1"/>
         <v>"MAI" : "Maintenance (Equipment Washing)",</v>
       </c>
@@ -7882,10 +7882,10 @@
       <c r="A49" s="101" t="s">
         <v>358</v>
       </c>
-      <c r="B49" s="111" t="s">
+      <c r="B49" s="110" t="s">
         <v>359</v>
       </c>
-      <c r="C49" s="113" t="str">
+      <c r="C49" s="112" t="str">
         <f t="shared" si="1"/>
         <v>"MAN" : "Manufacturing",</v>
       </c>
@@ -7898,10 +7898,10 @@
       <c r="A50" s="101" t="s">
         <v>345</v>
       </c>
-      <c r="B50" s="111" t="s">
+      <c r="B50" s="110" t="s">
         <v>346</v>
       </c>
-      <c r="C50" s="113" t="str">
+      <c r="C50" s="112" t="str">
         <f t="shared" si="1"/>
         <v>"MEC" : "Mechanical ",</v>
       </c>
@@ -7914,10 +7914,10 @@
       <c r="A51" s="101" t="s">
         <v>347</v>
       </c>
-      <c r="B51" s="111" t="s">
+      <c r="B51" s="110" t="s">
         <v>348</v>
       </c>
-      <c r="C51" s="113" t="str">
+      <c r="C51" s="112" t="str">
         <f t="shared" si="1"/>
         <v>"MED" : "Medicinal",</v>
       </c>
@@ -7930,10 +7930,10 @@
       <c r="A52" s="101" t="s">
         <v>387</v>
       </c>
-      <c r="B52" s="111" t="s">
+      <c r="B52" s="110" t="s">
         <v>388</v>
       </c>
-      <c r="C52" s="113" t="str">
+      <c r="C52" s="112" t="str">
         <f t="shared" si="1"/>
         <v>"MEM" : "Municipal (Emergency)",</v>
       </c>
@@ -7946,10 +7946,10 @@
       <c r="A53" s="101" t="s">
         <v>360</v>
       </c>
-      <c r="B53" s="111" t="s">
+      <c r="B53" s="110" t="s">
         <v>361</v>
       </c>
-      <c r="C53" s="113" t="str">
+      <c r="C53" s="112" t="str">
         <f t="shared" si="1"/>
         <v>"MIL" : "Milling",</v>
       </c>
@@ -7962,10 +7962,10 @@
       <c r="A54" s="101" t="s">
         <v>362</v>
       </c>
-      <c r="B54" s="111" t="s">
+      <c r="B54" s="110" t="s">
         <v>363</v>
       </c>
-      <c r="C54" s="113" t="str">
+      <c r="C54" s="112" t="str">
         <f t="shared" si="1"/>
         <v>"MIN" : "Mining",</v>
       </c>
@@ -7978,10 +7978,10 @@
       <c r="A55" s="101" t="s">
         <v>402</v>
       </c>
-      <c r="B55" s="111" t="s">
-        <v>497</v>
-      </c>
-      <c r="C55" s="113" t="str">
+      <c r="B55" s="110" t="s">
+        <v>494</v>
+      </c>
+      <c r="C55" s="112" t="str">
         <f t="shared" si="1"/>
         <v>"MIS" : "Miscellaneous - Ground Water",</v>
       </c>
@@ -7994,10 +7994,10 @@
       <c r="A56" s="101" t="s">
         <v>280</v>
       </c>
-      <c r="B56" s="111" t="s">
-        <v>498</v>
-      </c>
-      <c r="C56" s="113" t="str">
+      <c r="B56" s="110" t="s">
+        <v>495</v>
+      </c>
+      <c r="C56" s="112" t="str">
         <f t="shared" si="1"/>
         <v>"MON" : "Monitor",</v>
       </c>
@@ -8010,10 +8010,10 @@
       <c r="A57" s="101" t="s">
         <v>281</v>
       </c>
-      <c r="B57" s="111" t="s">
-        <v>499</v>
-      </c>
-      <c r="C57" s="113" t="str">
+      <c r="B57" s="110" t="s">
+        <v>496</v>
+      </c>
+      <c r="C57" s="112" t="str">
         <f t="shared" si="1"/>
         <v>"MUN_GW" : "Municipal - Ground Water",</v>
       </c>
@@ -8026,10 +8026,10 @@
       <c r="A58" s="101" t="s">
         <v>305</v>
       </c>
-      <c r="B58" s="111" t="s">
-        <v>500</v>
-      </c>
-      <c r="C58" s="113" t="str">
+      <c r="B58" s="110" t="s">
+        <v>497</v>
+      </c>
+      <c r="C58" s="112" t="str">
         <f t="shared" si="1"/>
         <v>"MUN_SW" : "Municipal - Surface Water",</v>
       </c>
@@ -8042,10 +8042,10 @@
       <c r="A59" s="101" t="s">
         <v>306</v>
       </c>
-      <c r="B59" s="111" t="s">
-        <v>501</v>
-      </c>
-      <c r="C59" s="113" t="str">
+      <c r="B59" s="110" t="s">
+        <v>498</v>
+      </c>
+      <c r="C59" s="112" t="str">
         <f t="shared" si="1"/>
         <v>"NAT" : "Natural Flow (Phase 2 Award)",</v>
       </c>
@@ -8058,10 +8058,10 @@
       <c r="A60" s="101" t="s">
         <v>325</v>
       </c>
-      <c r="B60" s="111" t="s">
-        <v>502</v>
-      </c>
-      <c r="C60" s="113" t="str">
+      <c r="B60" s="110" t="s">
+        <v>499</v>
+      </c>
+      <c r="C60" s="112" t="str">
         <f t="shared" si="1"/>
         <v>"O&amp;G" : "Oil and Gas Well Drilling",</v>
       </c>
@@ -8074,10 +8074,10 @@
       <c r="A61" s="101" t="s">
         <v>307</v>
       </c>
-      <c r="B61" s="111" t="s">
+      <c r="B61" s="110" t="s">
         <v>266</v>
       </c>
-      <c r="C61" s="113" t="str">
+      <c r="C61" s="112" t="str">
         <f t="shared" si="1"/>
         <v>"OTH" : "Other",</v>
       </c>
@@ -8090,10 +8090,10 @@
       <c r="A62" s="101" t="s">
         <v>349</v>
       </c>
-      <c r="B62" s="111" t="s">
+      <c r="B62" s="110" t="s">
         <v>350</v>
       </c>
-      <c r="C62" s="113" t="str">
+      <c r="C62" s="112" t="str">
         <f t="shared" si="1"/>
         <v>"OTH_CM" : "Other - Commercial",</v>
       </c>
@@ -8106,10 +8106,10 @@
       <c r="A63" s="101" t="s">
         <v>364</v>
       </c>
-      <c r="B63" s="111" t="s">
+      <c r="B63" s="110" t="s">
         <v>365</v>
       </c>
-      <c r="C63" s="113" t="str">
+      <c r="C63" s="112" t="str">
         <f t="shared" si="1"/>
         <v>"OTH_IN" : "Other - Industrial",</v>
       </c>
@@ -8122,10 +8122,10 @@
       <c r="A64" s="101" t="s">
         <v>389</v>
       </c>
-      <c r="B64" s="111" t="s">
+      <c r="B64" s="110" t="s">
         <v>390</v>
       </c>
-      <c r="C64" s="113" t="str">
+      <c r="C64" s="112" t="str">
         <f t="shared" si="1"/>
         <v>"OTH_TM" : "Other - Temporary",</v>
       </c>
@@ -8138,10 +8138,10 @@
       <c r="A65" s="101" t="s">
         <v>326</v>
       </c>
-      <c r="B65" s="111" t="s">
-        <v>503</v>
-      </c>
-      <c r="C65" s="113" t="str">
+      <c r="B65" s="110" t="s">
+        <v>500</v>
+      </c>
+      <c r="C65" s="112" t="str">
         <f t="shared" si="1"/>
         <v>"P&amp;S" : "Potable and Sanitary Supply",</v>
       </c>
@@ -8154,10 +8154,10 @@
       <c r="A66" s="101" t="s">
         <v>366</v>
       </c>
-      <c r="B66" s="111" t="s">
+      <c r="B66" s="110" t="s">
         <v>367</v>
       </c>
-      <c r="C66" s="113" t="str">
+      <c r="C66" s="112" t="str">
         <f t="shared" si="1"/>
         <v>"PCT" : "Pollution Control",</v>
       </c>
@@ -8170,10 +8170,10 @@
       <c r="A67" s="101" t="s">
         <v>368</v>
       </c>
-      <c r="B67" s="111" t="s">
+      <c r="B67" s="110" t="s">
         <v>369</v>
       </c>
-      <c r="C67" s="113" t="str">
+      <c r="C67" s="112" t="str">
         <f t="shared" si="1"/>
         <v>"POW" : "Power",</v>
       </c>
@@ -8186,10 +8186,10 @@
       <c r="A68" s="101" t="s">
         <v>308</v>
       </c>
-      <c r="B68" s="111" t="s">
+      <c r="B68" s="110" t="s">
         <v>267</v>
       </c>
-      <c r="C68" s="113" t="str">
+      <c r="C68" s="112" t="str">
         <f t="shared" si="1"/>
         <v>"RAI" : "Railroad",</v>
       </c>
@@ -8202,10 +8202,10 @@
       <c r="A69" s="101" t="s">
         <v>391</v>
       </c>
-      <c r="B69" s="111" t="s">
+      <c r="B69" s="110" t="s">
         <v>392</v>
       </c>
-      <c r="C69" s="113" t="str">
+      <c r="C69" s="112" t="str">
         <f t="shared" si="1"/>
         <v>"RDC" : "Road Construction",</v>
       </c>
@@ -8218,10 +8218,10 @@
       <c r="A70" s="101" t="s">
         <v>309</v>
       </c>
-      <c r="B70" s="111" t="s">
+      <c r="B70" s="110" t="s">
         <v>268</v>
       </c>
-      <c r="C70" s="113" t="str">
+      <c r="C70" s="112" t="str">
         <f t="shared" si="1"/>
         <v>"REC" : "Recreation",</v>
       </c>
@@ -8234,10 +8234,10 @@
       <c r="A71" s="101" t="s">
         <v>370</v>
       </c>
-      <c r="B71" s="111" t="s">
+      <c r="B71" s="110" t="s">
         <v>371</v>
       </c>
-      <c r="C71" s="113" t="str">
+      <c r="C71" s="112" t="str">
         <f t="shared" si="1"/>
         <v>"REF" : "Refining",</v>
       </c>
@@ -8250,10 +8250,10 @@
       <c r="A72" s="101" t="s">
         <v>310</v>
       </c>
-      <c r="B72" s="111" t="s">
+      <c r="B72" s="110" t="s">
         <v>269</v>
       </c>
-      <c r="C72" s="113" t="str">
+      <c r="C72" s="112" t="str">
         <f t="shared" si="1"/>
         <v>"RES" : "Reservoir Supply",</v>
       </c>
@@ -8266,10 +8266,10 @@
       <c r="A73" s="101" t="s">
         <v>372</v>
       </c>
-      <c r="B73" s="111" t="s">
+      <c r="B73" s="110" t="s">
         <v>373</v>
       </c>
-      <c r="C73" s="113" t="str">
+      <c r="C73" s="112" t="str">
         <f t="shared" si="1"/>
         <v>"REW" : "Reclamation Watering",</v>
       </c>
@@ -8282,10 +8282,10 @@
       <c r="A74" s="101" t="s">
         <v>327</v>
       </c>
-      <c r="B74" s="111" t="s">
-        <v>504</v>
-      </c>
-      <c r="C74" s="113" t="str">
+      <c r="B74" s="110" t="s">
+        <v>501</v>
+      </c>
+      <c r="C74" s="112" t="str">
         <f t="shared" si="1"/>
         <v>"SDG" : "Gpm For Domestic or Stock",</v>
       </c>
@@ -8298,10 +8298,10 @@
       <c r="A75" s="101" t="s">
         <v>378</v>
       </c>
-      <c r="B75" s="111" t="s">
-        <v>505</v>
-      </c>
-      <c r="C75" s="113" t="str">
+      <c r="B75" s="110" t="s">
+        <v>502</v>
+      </c>
+      <c r="C75" s="112" t="str">
         <f t="shared" si="1"/>
         <v>"SDU" : "Stock and Domestic",</v>
       </c>
@@ -8314,10 +8314,10 @@
       <c r="A76" s="101" t="s">
         <v>374</v>
       </c>
-      <c r="B76" s="111" t="s">
+      <c r="B76" s="110" t="s">
         <v>375</v>
       </c>
-      <c r="C76" s="113" t="str">
+      <c r="C76" s="112" t="str">
         <f t="shared" si="1"/>
         <v>"SED" : "Sediment Control",</v>
       </c>
@@ -8330,10 +8330,10 @@
       <c r="A77" s="101" t="s">
         <v>376</v>
       </c>
-      <c r="B77" s="111" t="s">
+      <c r="B77" s="110" t="s">
         <v>377</v>
       </c>
-      <c r="C77" s="113" t="str">
+      <c r="C77" s="112" t="str">
         <f t="shared" si="1"/>
         <v>"SNO" : "Snow Making",</v>
       </c>
@@ -8346,10 +8346,10 @@
       <c r="A78" s="101" t="s">
         <v>311</v>
       </c>
-      <c r="B78" s="111" t="s">
+      <c r="B78" s="110" t="s">
         <v>270</v>
       </c>
-      <c r="C78" s="113" t="str">
+      <c r="C78" s="112" t="str">
         <f t="shared" si="1"/>
         <v>"STE" : "Stream",</v>
       </c>
@@ -8362,10 +8362,10 @@
       <c r="A79" s="101" t="s">
         <v>282</v>
       </c>
-      <c r="B79" s="111" t="s">
+      <c r="B79" s="110" t="s">
         <v>251</v>
       </c>
-      <c r="C79" s="113" t="str">
+      <c r="C79" s="112" t="str">
         <f t="shared" si="1"/>
         <v>"STK" : "Stock Watering",</v>
       </c>
@@ -8378,10 +8378,10 @@
       <c r="A80" s="101" t="s">
         <v>312</v>
       </c>
-      <c r="B80" s="111" t="s">
+      <c r="B80" s="110" t="s">
         <v>271</v>
       </c>
-      <c r="C80" s="113" t="str">
+      <c r="C80" s="112" t="str">
         <f t="shared" si="1"/>
         <v>"STO" : "Stock",</v>
       </c>
@@ -8394,10 +8394,10 @@
       <c r="A81" s="101" t="s">
         <v>393</v>
       </c>
-      <c r="B81" s="111" t="s">
+      <c r="B81" s="110" t="s">
         <v>251</v>
       </c>
-      <c r="C81" s="113" t="str">
+      <c r="C81" s="112" t="str">
         <f t="shared" si="1"/>
         <v>"STW" : "Stock Watering",</v>
       </c>
@@ -8410,10 +8410,10 @@
       <c r="A82" s="101" t="s">
         <v>328</v>
       </c>
-      <c r="B82" s="111" t="s">
-        <v>506</v>
-      </c>
-      <c r="C82" s="113" t="str">
+      <c r="B82" s="110" t="s">
+        <v>503</v>
+      </c>
+      <c r="C82" s="112" t="str">
         <f t="shared" si="1"/>
         <v>"SWD" : "Subdivision",</v>
       </c>
@@ -8426,10 +8426,10 @@
       <c r="A83" s="101" t="s">
         <v>329</v>
       </c>
-      <c r="B83" s="111" t="s">
+      <c r="B83" s="110" t="s">
         <v>330</v>
       </c>
-      <c r="C83" s="113" t="str">
+      <c r="C83" s="112" t="str">
         <f t="shared" si="1"/>
         <v>"SWP" : "Stock Water Pipeline",</v>
       </c>
@@ -8442,10 +8442,10 @@
       <c r="A84" s="101" t="s">
         <v>313</v>
       </c>
-      <c r="B84" s="111" t="s">
+      <c r="B84" s="110" t="s">
         <v>272</v>
       </c>
-      <c r="C84" s="113" t="str">
+      <c r="C84" s="112" t="str">
         <f t="shared" si="1"/>
         <v>"TEM" : "Temporary",</v>
       </c>
@@ -8458,10 +8458,10 @@
       <c r="A85" s="101" t="s">
         <v>314</v>
       </c>
-      <c r="B85" s="111" t="s">
-        <v>481</v>
-      </c>
-      <c r="C85" s="113" t="str">
+      <c r="B85" s="110" t="s">
+        <v>478</v>
+      </c>
+      <c r="C85" s="112" t="str">
         <f t="shared" si="1"/>
         <v>"TENL" : "Total Enlargement",</v>
       </c>
@@ -8474,10 +8474,10 @@
       <c r="A86" s="101" t="s">
         <v>315</v>
       </c>
-      <c r="B86" s="111" t="s">
+      <c r="B86" s="110" t="s">
         <v>273</v>
       </c>
-      <c r="C86" s="113" t="str">
+      <c r="C86" s="112" t="str">
         <f t="shared" si="1"/>
         <v>"TRA" : "Transportation",</v>
       </c>
@@ -8490,10 +8490,10 @@
       <c r="A87" s="101" t="s">
         <v>283</v>
       </c>
-      <c r="B87" s="111" t="s">
+      <c r="B87" s="110" t="s">
         <v>252</v>
       </c>
-      <c r="C87" s="113" t="str">
+      <c r="C87" s="112" t="str">
         <f t="shared" si="1"/>
         <v>"TST" : "Test Well",</v>
       </c>
@@ -8506,10 +8506,10 @@
       <c r="A88" s="101" t="s">
         <v>394</v>
       </c>
-      <c r="B88" s="111" t="s">
-        <v>507</v>
-      </c>
-      <c r="C88" s="113" t="str">
+      <c r="B88" s="110" t="s">
+        <v>504</v>
+      </c>
+      <c r="C88" s="112" t="str">
         <f t="shared" si="1"/>
         <v>"TWR" : "Tree Watering",</v>
       </c>
@@ -8522,10 +8522,10 @@
       <c r="A89" s="101" t="s">
         <v>316</v>
       </c>
-      <c r="B89" s="111" t="s">
+      <c r="B89" s="110" t="s">
         <v>274</v>
       </c>
-      <c r="C89" s="113" t="str">
+      <c r="C89" s="112" t="str">
         <f t="shared" si="1"/>
         <v>"UTL" : "Utilities",</v>
       </c>
@@ -8538,10 +8538,10 @@
       <c r="A90" s="101" t="s">
         <v>317</v>
       </c>
-      <c r="B90" s="111" t="s">
-        <v>508</v>
-      </c>
-      <c r="C90" s="113" t="str">
+      <c r="B90" s="110" t="s">
+        <v>505</v>
+      </c>
+      <c r="C90" s="112" t="str">
         <f t="shared" ref="C90:C94" si="2">""""&amp;A90&amp;""""&amp;" : "&amp;""""&amp;B90&amp;""""&amp;","</f>
         <v>"W&amp;S" : "Wild and Scenic",</v>
       </c>
@@ -8554,10 +8554,10 @@
       <c r="A91" s="101" t="s">
         <v>395</v>
       </c>
-      <c r="B91" s="111" t="s">
+      <c r="B91" s="110" t="s">
         <v>396</v>
       </c>
-      <c r="C91" s="113" t="str">
+      <c r="C91" s="112" t="str">
         <f t="shared" si="2"/>
         <v>"WDR" : "Well Drilling",</v>
       </c>
@@ -8570,10 +8570,10 @@
       <c r="A92" s="101" t="s">
         <v>318</v>
       </c>
-      <c r="B92" s="111" t="s">
+      <c r="B92" s="110" t="s">
         <v>275</v>
       </c>
-      <c r="C92" s="113" t="str">
+      <c r="C92" s="112" t="str">
         <f t="shared" si="2"/>
         <v>"WET" : "Wetlands",</v>
       </c>
@@ -8586,10 +8586,10 @@
       <c r="A93" s="101" t="s">
         <v>331</v>
       </c>
-      <c r="B93" s="111" t="s">
-        <v>509</v>
-      </c>
-      <c r="C93" s="113" t="str">
+      <c r="B93" s="110" t="s">
+        <v>506</v>
+      </c>
+      <c r="C93" s="112" t="str">
         <f t="shared" si="2"/>
         <v>"WHL" : "Water Hauls",</v>
       </c>
@@ -8602,10 +8602,10 @@
       <c r="A94" s="101" t="s">
         <v>319</v>
       </c>
-      <c r="B94" s="111" t="s">
+      <c r="B94" s="110" t="s">
         <v>250</v>
       </c>
-      <c r="C94" s="113" t="str">
+      <c r="C94" s="112" t="str">
         <f t="shared" si="2"/>
         <v>"WL" : "Wildlife",</v>
       </c>
@@ -8671,11 +8671,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="114" t="s">
-        <v>510</v>
-      </c>
-      <c r="E1" s="114"/>
-      <c r="H1" s="114"/>
+      <c r="A1" s="113" t="s">
+        <v>507</v>
+      </c>
+      <c r="E1" s="113"/>
+      <c r="H1" s="113"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
@@ -8873,64 +8873,64 @@
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A41" s="116" t="s">
+      <c r="A41" s="115" t="s">
+        <v>508</v>
+      </c>
+      <c r="B41" s="115" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="C41" s="115"/>
+      <c r="D41" s="115" t="s">
+        <v>513</v>
+      </c>
+      <c r="E41" s="115"/>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A42" s="115"/>
+      <c r="B42" s="115"/>
+      <c r="C42" s="115"/>
+      <c r="D42" s="115"/>
+      <c r="E42" s="115"/>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A43" s="114" t="s">
+        <v>512</v>
+      </c>
+      <c r="B43" s="114" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="D43" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A44" s="114" t="s">
+        <v>509</v>
+      </c>
+      <c r="B44" s="114" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="D44" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A45" s="114" t="s">
         <v>511</v>
       </c>
-      <c r="B41" s="116" t="e">
+      <c r="B45" s="114" t="e">
         <v>#N/A</v>
       </c>
-      <c r="C41" s="116"/>
-      <c r="D41" s="116" t="s">
-        <v>516</v>
-      </c>
-      <c r="E41" s="116"/>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A42" s="116"/>
-      <c r="B42" s="116"/>
-      <c r="C42" s="116"/>
-      <c r="D42" s="116"/>
-      <c r="E42" s="116"/>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A43" s="115" t="s">
-        <v>515</v>
-      </c>
-      <c r="B43" s="115" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D43" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A44" s="115" t="s">
-        <v>512</v>
-      </c>
-      <c r="B44" s="115" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D44" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A45" s="115" t="s">
+      <c r="C45" s="115"/>
+      <c r="D45" t="s">
         <v>514</v>
       </c>
-      <c r="B45" s="115" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C45" s="116"/>
-      <c r="D45" t="s">
-        <v>517</v>
-      </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A46" s="115" t="s">
-        <v>513</v>
-      </c>
-      <c r="B46" s="115" t="e">
+      <c r="A46" s="114" t="s">
+        <v>510</v>
+      </c>
+      <c r="B46" s="114" t="e">
         <v>#N/A</v>
       </c>
       <c r="D46" t="s">
@@ -8938,8 +8938,8 @@
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A47" s="115"/>
-      <c r="B47" s="115"/>
+      <c r="A47" s="114"/>
+      <c r="B47" s="114"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B2331">

--- a/Wyoming/WaterAllocation/WY_POD_Allocation Schema Mapping to WaDE_QA.xlsx
+++ b/Wyoming/WaterAllocation/WY_POD_Allocation Schema Mapping to WaDE_QA.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rjame\Documents\WSWC Documents\MappingStatesDataToWaDE2.0\Wyoming\WaterAllocation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3CEAC57-3BCF-473A-B17A-B7C767A9FAB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6351352F-85ED-4A54-B8EE-0A44EC02CBC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" tabRatio="714" activeTab="6" xr2:uid="{10FC1BAB-5472-410C-A2F0-85DCDF5389F8}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1312" uniqueCount="523">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1317" uniqueCount="525">
   <si>
     <t>Name</t>
   </si>
@@ -485,9 +485,6 @@
   </si>
   <si>
     <t>Water Administration for the State of Colorado</t>
-  </si>
-  <si>
-    <t>PrimaryUseCategory</t>
   </si>
   <si>
     <t>BeneficialUseCategory</t>
@@ -1658,6 +1655,15 @@
   </si>
   <si>
     <t>WYwr_O1</t>
+  </si>
+  <si>
+    <t>PrimaryBeneficialUseCategory</t>
+  </si>
+  <si>
+    <t>AllocationUUID</t>
+  </si>
+  <si>
+    <t>WYwr_WR + counter</t>
   </si>
 </sst>
 </file>
@@ -2537,7 +2543,7 @@
     <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="127">
+  <cellXfs count="128">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2901,6 +2907,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3294,55 +3303,55 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="44" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="44" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B2" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="44" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B4" s="107" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="44" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B8" s="97"/>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="44" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B17" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
   </sheetData>
@@ -3398,10 +3407,10 @@
         <v>141</v>
       </c>
       <c r="F2" s="55" t="s">
+        <v>156</v>
+      </c>
+      <c r="G2" s="56" t="s">
         <v>157</v>
-      </c>
-      <c r="G2" s="56" t="s">
-        <v>158</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>4</v>
@@ -3442,7 +3451,7 @@
         <v>11</v>
       </c>
       <c r="J3" s="79" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3459,7 +3468,7 @@
         <v>38</v>
       </c>
       <c r="E4" s="96" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="F4" s="62" t="s">
         <v>38</v>
@@ -3471,10 +3480,10 @@
         <v>38</v>
       </c>
       <c r="I4" s="78" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="J4" s="79" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="30.6" x14ac:dyDescent="0.3">
@@ -3491,7 +3500,7 @@
         <v>20</v>
       </c>
       <c r="E5" s="43" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="F5" s="47" t="s">
         <v>38</v>
@@ -3506,7 +3515,7 @@
         <v>108</v>
       </c>
       <c r="J5" s="79" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
@@ -3523,7 +3532,7 @@
         <v>38</v>
       </c>
       <c r="E6" s="47" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="F6" s="47" t="s">
         <v>38</v>
@@ -3538,7 +3547,7 @@
         <v>0.5</v>
       </c>
       <c r="J6" s="79" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
@@ -3555,7 +3564,7 @@
         <v>38</v>
       </c>
       <c r="E7" s="47" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="F7" s="47" t="s">
         <v>38</v>
@@ -3570,7 +3579,7 @@
         <v>38</v>
       </c>
       <c r="J7" s="79" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="30.6" x14ac:dyDescent="0.3">
@@ -3587,7 +3596,7 @@
         <v>20</v>
       </c>
       <c r="E8" s="47" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="F8" s="47" t="s">
         <v>38</v>
@@ -3599,10 +3608,10 @@
         <v>38</v>
       </c>
       <c r="I8" s="81" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="J8" s="79" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -3619,7 +3628,7 @@
         <v>38</v>
       </c>
       <c r="E9" s="43" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="F9" s="47" t="s">
         <v>38</v>
@@ -3632,7 +3641,7 @@
       </c>
       <c r="I9" s="82"/>
       <c r="J9" s="79" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
@@ -3649,7 +3658,7 @@
         <v>38</v>
       </c>
       <c r="E10" s="43" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="F10" s="47" t="s">
         <v>38</v>
@@ -3664,7 +3673,7 @@
         <v>142</v>
       </c>
       <c r="J10" s="79" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="24" x14ac:dyDescent="0.3">
@@ -3681,7 +3690,7 @@
         <v>38</v>
       </c>
       <c r="E11" s="95" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="F11" s="47" t="s">
         <v>38</v>
@@ -3696,7 +3705,7 @@
         <v>107</v>
       </c>
       <c r="J11" s="79" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="20.399999999999999" x14ac:dyDescent="0.3">
@@ -3713,7 +3722,7 @@
         <v>20</v>
       </c>
       <c r="E12" s="43" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="F12" s="47" t="s">
         <v>38</v>
@@ -3728,7 +3737,7 @@
         <v>109</v>
       </c>
       <c r="J12" s="79" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
@@ -3793,10 +3802,10 @@
         <v>141</v>
       </c>
       <c r="F2" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="G2" s="4" t="s">
         <v>157</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>158</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>4</v>
@@ -3831,7 +3840,7 @@
         <v>16</v>
       </c>
       <c r="J3" s="79" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3848,7 +3857,7 @@
         <v>38</v>
       </c>
       <c r="E4" s="96" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="F4" s="30" t="s">
         <v>38</v>
@@ -3863,7 +3872,7 @@
         <v>139</v>
       </c>
       <c r="J4" s="79" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="20.399999999999999" x14ac:dyDescent="0.3">
@@ -3891,7 +3900,7 @@
         <v>1</v>
       </c>
       <c r="J5" s="79" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
@@ -3908,7 +3917,7 @@
         <v>20</v>
       </c>
       <c r="E6" s="104" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="F6" s="47" t="s">
         <v>38</v>
@@ -3923,7 +3932,7 @@
         <v>111</v>
       </c>
       <c r="J6" s="79" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="20.399999999999999" x14ac:dyDescent="0.3">
@@ -3955,7 +3964,7 @@
         <v>110</v>
       </c>
       <c r="J7" s="79" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
@@ -3987,7 +3996,7 @@
         <v>113</v>
       </c>
       <c r="J8" s="79" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
@@ -4019,7 +4028,7 @@
         <v>114</v>
       </c>
       <c r="J9" s="79" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
@@ -4051,7 +4060,7 @@
         <v>10</v>
       </c>
       <c r="J10" s="79" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="20.399999999999999" x14ac:dyDescent="0.3">
@@ -4083,7 +4092,7 @@
         <v>112</v>
       </c>
       <c r="J11" s="79" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="20.399999999999999" x14ac:dyDescent="0.3">
@@ -4100,7 +4109,7 @@
         <v>20</v>
       </c>
       <c r="E12" s="104" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="F12" s="47" t="s">
         <v>38</v>
@@ -4115,7 +4124,7 @@
         <v>143</v>
       </c>
       <c r="J12" s="79" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="51" x14ac:dyDescent="0.3">
@@ -4132,7 +4141,7 @@
         <v>20</v>
       </c>
       <c r="E13" s="104" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="F13" s="47" t="s">
         <v>38</v>
@@ -4147,7 +4156,7 @@
         <v>115</v>
       </c>
       <c r="J13" s="79" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
   </sheetData>
@@ -4206,10 +4215,10 @@
         <v>141</v>
       </c>
       <c r="F2" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="G2" s="4" t="s">
         <v>157</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>158</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>4</v>
@@ -4250,7 +4259,7 @@
         <v>1</v>
       </c>
       <c r="J3" s="79" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="21" thickBot="1" x14ac:dyDescent="0.35">
@@ -4267,7 +4276,7 @@
         <v>38</v>
       </c>
       <c r="E4" s="41" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="F4" s="30" t="s">
         <v>38</v>
@@ -4282,7 +4291,7 @@
         <v>126</v>
       </c>
       <c r="J4" s="79" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
@@ -4299,7 +4308,7 @@
         <v>38</v>
       </c>
       <c r="E5" s="108" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="F5" s="16" t="s">
         <v>38</v>
@@ -4314,7 +4323,7 @@
         <v>130</v>
       </c>
       <c r="J5" s="79" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
@@ -4331,7 +4340,7 @@
         <v>38</v>
       </c>
       <c r="E6" s="46" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="F6" s="47" t="s">
         <v>38</v>
@@ -4346,7 +4355,7 @@
         <v>129</v>
       </c>
       <c r="J6" s="79" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="36" x14ac:dyDescent="0.3">
@@ -4363,7 +4372,7 @@
         <v>38</v>
       </c>
       <c r="E7" s="105" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="F7" s="47" t="s">
         <v>38</v>
@@ -4378,7 +4387,7 @@
         <v>127</v>
       </c>
       <c r="J7" s="79" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="24" x14ac:dyDescent="0.25">
@@ -4395,7 +4404,7 @@
         <v>38</v>
       </c>
       <c r="E8" s="106" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="F8" s="47" t="s">
         <v>38</v>
@@ -4410,7 +4419,7 @@
         <v>146</v>
       </c>
       <c r="J8" s="79" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
@@ -4427,7 +4436,7 @@
         <v>38</v>
       </c>
       <c r="E9" s="46" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="F9" s="47" t="s">
         <v>38</v>
@@ -4442,7 +4451,7 @@
         <v>128</v>
       </c>
       <c r="J9" s="79" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="84" x14ac:dyDescent="0.3">
@@ -4459,7 +4468,7 @@
         <v>38</v>
       </c>
       <c r="E10" s="46" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="F10" s="47" t="s">
         <v>38</v>
@@ -4474,7 +4483,7 @@
         <v>147</v>
       </c>
       <c r="J10" s="79" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="24" x14ac:dyDescent="0.3">
@@ -4491,7 +4500,7 @@
         <v>38</v>
       </c>
       <c r="E11" s="108" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="F11" s="47" t="s">
         <v>38</v>
@@ -4506,7 +4515,7 @@
         <v>127</v>
       </c>
       <c r="J11" s="79" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
@@ -4523,7 +4532,7 @@
         <v>38</v>
       </c>
       <c r="E12" s="15" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="F12" s="47" t="s">
         <v>38</v>
@@ -4538,7 +4547,7 @@
         <v>131</v>
       </c>
       <c r="J12" s="79" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.3">
@@ -4626,10 +4635,10 @@
         <v>141</v>
       </c>
       <c r="F2" s="55" t="s">
+        <v>156</v>
+      </c>
+      <c r="G2" s="56" t="s">
         <v>157</v>
-      </c>
-      <c r="G2" s="56" t="s">
-        <v>158</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>4</v>
@@ -4662,7 +4671,7 @@
         <v>34658</v>
       </c>
       <c r="J3" s="79" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="21" thickBot="1" x14ac:dyDescent="0.35">
@@ -4679,7 +4688,7 @@
         <v>38</v>
       </c>
       <c r="E4" s="67" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="F4" s="62" t="s">
         <v>38</v>
@@ -4692,7 +4701,7 @@
         <v>116</v>
       </c>
       <c r="J4" s="79" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="30.6" x14ac:dyDescent="0.3">
@@ -4709,7 +4718,7 @@
         <v>38</v>
       </c>
       <c r="E5" s="45" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="F5" s="45" t="s">
         <v>38</v>
@@ -4722,7 +4731,7 @@
         <v>38</v>
       </c>
       <c r="J5" s="79" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="30.6" x14ac:dyDescent="0.3">
@@ -4739,7 +4748,7 @@
         <v>20</v>
       </c>
       <c r="E6" s="45" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="F6" s="45" t="s">
         <v>38</v>
@@ -4752,7 +4761,7 @@
         <v>38</v>
       </c>
       <c r="J6" s="79" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="30.6" x14ac:dyDescent="0.3">
@@ -4782,7 +4791,7 @@
         <v>118</v>
       </c>
       <c r="J7" s="79" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="24" x14ac:dyDescent="0.3">
@@ -4802,17 +4811,17 @@
         <v>38</v>
       </c>
       <c r="F8" s="43" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="G8" s="49" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="H8" s="85"/>
       <c r="I8" s="78" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="J8" s="79" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
@@ -4829,7 +4838,7 @@
         <v>38</v>
       </c>
       <c r="E9" s="24" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="F9" s="24" t="s">
         <v>38</v>
@@ -4842,7 +4851,7 @@
         <v>17839</v>
       </c>
       <c r="J9" s="79" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="30.6" x14ac:dyDescent="0.3">
@@ -4859,7 +4868,7 @@
         <v>20</v>
       </c>
       <c r="E10" s="24" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="F10" s="24" t="s">
         <v>38</v>
@@ -4872,7 +4881,7 @@
         <v>108</v>
       </c>
       <c r="J10" s="79" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
@@ -4939,10 +4948,10 @@
         <v>141</v>
       </c>
       <c r="F2" s="55" t="s">
+        <v>156</v>
+      </c>
+      <c r="G2" s="56" t="s">
         <v>157</v>
-      </c>
-      <c r="G2" s="56" t="s">
-        <v>158</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>4</v>
@@ -4981,7 +4990,7 @@
         <v>39035</v>
       </c>
       <c r="J3" s="79" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -4996,7 +5005,7 @@
         <v>38</v>
       </c>
       <c r="E4" s="67" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="F4" s="62" t="s">
         <v>38</v>
@@ -5009,7 +5018,7 @@
         <v>119</v>
       </c>
       <c r="J4" s="79" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
@@ -5026,7 +5035,7 @@
         <v>38</v>
       </c>
       <c r="E5" s="24" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="F5" s="47" t="s">
         <v>38</v>
@@ -5039,7 +5048,7 @@
         <v>117</v>
       </c>
       <c r="J5" s="79" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="20.399999999999999" x14ac:dyDescent="0.3">
@@ -5056,7 +5065,7 @@
         <v>20</v>
       </c>
       <c r="E6" s="24" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="F6" s="47" t="s">
         <v>38</v>
@@ -5069,7 +5078,7 @@
         <v>124</v>
       </c>
       <c r="J6" s="79" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
@@ -5086,7 +5095,7 @@
         <v>38</v>
       </c>
       <c r="E7" s="24" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="F7" s="47" t="s">
         <v>38</v>
@@ -5099,7 +5108,7 @@
         <v>38</v>
       </c>
       <c r="J7" s="86" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
@@ -5129,7 +5138,7 @@
         <v>125</v>
       </c>
       <c r="J8" s="79" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="30.6" x14ac:dyDescent="0.3">
@@ -5146,7 +5155,7 @@
         <v>38</v>
       </c>
       <c r="E9" s="24" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="F9" s="47" t="s">
         <v>38</v>
@@ -5157,7 +5166,7 @@
       <c r="H9" s="83"/>
       <c r="I9" s="82"/>
       <c r="J9" s="79" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="51" x14ac:dyDescent="0.3">
@@ -5174,7 +5183,7 @@
         <v>20</v>
       </c>
       <c r="E10" s="24" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="F10" s="47" t="s">
         <v>38</v>
@@ -5187,7 +5196,7 @@
         <v>38</v>
       </c>
       <c r="J10" s="79" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
@@ -5204,7 +5213,7 @@
         <v>38</v>
       </c>
       <c r="E11" s="24" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="F11" s="47" t="s">
         <v>38</v>
@@ -5217,7 +5226,7 @@
         <v>38</v>
       </c>
       <c r="J11" s="86" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
@@ -5234,7 +5243,7 @@
         <v>38</v>
       </c>
       <c r="E12" s="24" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="F12" s="47" t="s">
         <v>38</v>
@@ -5247,7 +5256,7 @@
         <v>38</v>
       </c>
       <c r="J12" s="86" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="20.399999999999999" x14ac:dyDescent="0.3">
@@ -5267,17 +5276,17 @@
         <v>38</v>
       </c>
       <c r="F13" s="43" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="G13" s="48" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="H13" s="87"/>
       <c r="I13" s="82" t="s">
         <v>122</v>
       </c>
       <c r="J13" s="79" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="20.399999999999999" x14ac:dyDescent="0.3">
@@ -5297,17 +5306,17 @@
         <v>38</v>
       </c>
       <c r="F14" s="43" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="G14" s="48" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="H14" s="87"/>
       <c r="I14" s="82">
         <v>-1067.700435</v>
       </c>
       <c r="J14" s="79" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="20.399999999999999" x14ac:dyDescent="0.3">
@@ -5324,7 +5333,7 @@
         <v>38</v>
       </c>
       <c r="E15" s="24" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="F15" s="47" t="s">
         <v>38</v>
@@ -5337,7 +5346,7 @@
         <v>38</v>
       </c>
       <c r="J15" s="79" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -5354,7 +5363,7 @@
         <v>20</v>
       </c>
       <c r="E16" s="24" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="F16" s="47" t="s">
         <v>38</v>
@@ -5367,12 +5376,12 @@
         <v>38</v>
       </c>
       <c r="J16" s="79" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B17" s="6" t="s">
         <v>16</v>
@@ -5384,7 +5393,7 @@
         <v>38</v>
       </c>
       <c r="E17" s="43" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F17" s="24" t="s">
         <v>38</v>
@@ -5394,7 +5403,7 @@
       </c>
       <c r="H17" s="88"/>
       <c r="I17" s="89" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="J17" s="88"/>
     </row>
@@ -5413,17 +5422,17 @@
         <v>38</v>
       </c>
       <c r="F18" s="43" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="G18" s="32" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="H18" s="83"/>
       <c r="I18" s="82" t="s">
         <v>120</v>
       </c>
       <c r="J18" s="79" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
@@ -5440,7 +5449,7 @@
         <v>38</v>
       </c>
       <c r="E19" s="24" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="F19" s="47" t="s">
         <v>38</v>
@@ -5453,7 +5462,7 @@
         <v>3703994</v>
       </c>
       <c r="J19" s="79" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="24" x14ac:dyDescent="0.3">
@@ -5470,7 +5479,7 @@
         <v>38</v>
       </c>
       <c r="E20" s="24" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="F20" s="47" t="s">
         <v>38</v>
@@ -5483,7 +5492,7 @@
         <v>123</v>
       </c>
       <c r="J20" s="86" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="20.399999999999999" x14ac:dyDescent="0.3">
@@ -5503,17 +5512,17 @@
         <v>38</v>
       </c>
       <c r="F21" s="43" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="G21" s="32" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="H21" s="83"/>
       <c r="I21" s="82" t="s">
         <v>121</v>
       </c>
       <c r="J21" s="79" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="20.399999999999999" x14ac:dyDescent="0.3">
@@ -5530,7 +5539,7 @@
         <v>20</v>
       </c>
       <c r="E22" s="24" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="F22" s="47" t="s">
         <v>38</v>
@@ -5543,7 +5552,7 @@
         <v>140</v>
       </c>
       <c r="J22" s="79" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="23" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -5560,7 +5569,7 @@
         <v>38</v>
       </c>
       <c r="E23" s="24" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="F23" s="47" t="s">
         <v>38</v>
@@ -5573,7 +5582,7 @@
         <v>38</v>
       </c>
       <c r="J23" s="86" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
   </sheetData>
@@ -5587,10 +5596,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B91B1FF-D207-4871-B787-27544A9D3030}">
-  <dimension ref="A1:P47"/>
+  <dimension ref="A1:P48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F40" sqref="F40"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5632,10 +5641,10 @@
         <v>141</v>
       </c>
       <c r="F2" s="55" t="s">
+        <v>156</v>
+      </c>
+      <c r="G2" s="56" t="s">
         <v>157</v>
-      </c>
-      <c r="G2" s="56" t="s">
-        <v>158</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>4</v>
@@ -5670,7 +5679,7 @@
         <v>50004</v>
       </c>
       <c r="J3" s="79" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
@@ -5702,7 +5711,7 @@
         <v>43</v>
       </c>
       <c r="J4" s="79" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
@@ -5734,7 +5743,7 @@
         <v>1</v>
       </c>
       <c r="J5" s="79" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
@@ -5766,7 +5775,7 @@
         <v>39035</v>
       </c>
       <c r="J6" s="79" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
@@ -5798,7 +5807,7 @@
         <v>63</v>
       </c>
       <c r="J7" s="79" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
@@ -5830,15 +5839,15 @@
         <v>371091</v>
       </c>
       <c r="J8" s="79" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="35" t="s">
-        <v>6</v>
+        <v>523</v>
       </c>
       <c r="B9" s="36" t="s">
-        <v>67</v>
+        <v>34</v>
       </c>
       <c r="C9" s="37" t="s">
         <v>38</v>
@@ -5846,28 +5855,18 @@
       <c r="D9" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="E9" s="126" t="s">
-        <v>520</v>
-      </c>
-      <c r="F9" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="G9" s="32" t="s">
-        <v>38</v>
-      </c>
-      <c r="H9" s="90" t="s">
-        <v>38</v>
-      </c>
-      <c r="I9" s="91" t="s">
-        <v>38</v>
-      </c>
-      <c r="J9" s="79" t="s">
-        <v>189</v>
-      </c>
+      <c r="E9" s="127" t="s">
+        <v>524</v>
+      </c>
+      <c r="F9" s="24"/>
+      <c r="G9" s="32"/>
+      <c r="H9" s="90"/>
+      <c r="I9" s="91"/>
+      <c r="J9" s="79"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="35" t="s">
-        <v>72</v>
+        <v>6</v>
       </c>
       <c r="B10" s="36" t="s">
         <v>67</v>
@@ -5878,8 +5877,8 @@
       <c r="D10" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="E10" s="70" t="s">
-        <v>522</v>
+      <c r="E10" s="126" t="s">
+        <v>519</v>
       </c>
       <c r="F10" s="24" t="s">
         <v>38</v>
@@ -5894,12 +5893,12 @@
         <v>38</v>
       </c>
       <c r="J10" s="79" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="35" t="s">
-        <v>49</v>
+        <v>72</v>
       </c>
       <c r="B11" s="36" t="s">
         <v>67</v>
@@ -5910,8 +5909,8 @@
       <c r="D11" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="E11" s="43" t="s">
-        <v>464</v>
+      <c r="E11" s="70" t="s">
+        <v>521</v>
       </c>
       <c r="F11" s="24" t="s">
         <v>38</v>
@@ -5926,12 +5925,12 @@
         <v>38</v>
       </c>
       <c r="J11" s="79" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="35" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="B12" s="36" t="s">
         <v>67</v>
@@ -5942,8 +5941,8 @@
       <c r="D12" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="E12" s="69" t="s">
-        <v>521</v>
+      <c r="E12" s="43" t="s">
+        <v>463</v>
       </c>
       <c r="F12" s="24" t="s">
         <v>38</v>
@@ -5958,88 +5957,88 @@
         <v>38</v>
       </c>
       <c r="J12" s="79" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="51" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13" s="35" t="s">
+        <v>32</v>
+      </c>
+      <c r="B13" s="36" t="s">
+        <v>67</v>
+      </c>
+      <c r="C13" s="37" t="s">
+        <v>38</v>
+      </c>
+      <c r="D13" s="39" t="s">
+        <v>38</v>
+      </c>
+      <c r="E13" s="69" t="s">
+        <v>520</v>
+      </c>
+      <c r="F13" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="G13" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="H13" s="90" t="s">
+        <v>38</v>
+      </c>
+      <c r="I13" s="91" t="s">
+        <v>38</v>
+      </c>
+      <c r="J13" s="79" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="51" t="s">
         <v>40</v>
       </c>
-      <c r="B13" s="59" t="s">
+      <c r="B14" s="59" t="s">
         <v>67</v>
       </c>
-      <c r="C13" s="60" t="s">
-        <v>38</v>
-      </c>
-      <c r="D13" s="61" t="s">
-        <v>38</v>
-      </c>
-      <c r="E13" s="71" t="s">
-        <v>463</v>
-      </c>
-      <c r="F13" s="62" t="s">
-        <v>38</v>
-      </c>
-      <c r="G13" s="72" t="s">
-        <v>38</v>
-      </c>
-      <c r="H13" s="90" t="s">
-        <v>38</v>
-      </c>
-      <c r="I13" s="91" t="s">
-        <v>38</v>
-      </c>
-      <c r="J13" s="79" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A14" s="35" t="s">
-        <v>150</v>
-      </c>
-      <c r="B14" s="36" t="s">
-        <v>33</v>
-      </c>
-      <c r="C14" s="37" t="s">
-        <v>18</v>
-      </c>
-      <c r="D14" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="E14" s="24" t="s">
-        <v>437</v>
-      </c>
-      <c r="F14" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="G14" s="32" t="s">
+      <c r="C14" s="60" t="s">
+        <v>38</v>
+      </c>
+      <c r="D14" s="61" t="s">
+        <v>38</v>
+      </c>
+      <c r="E14" s="71" t="s">
+        <v>462</v>
+      </c>
+      <c r="F14" s="62" t="s">
+        <v>38</v>
+      </c>
+      <c r="G14" s="72" t="s">
         <v>38</v>
       </c>
       <c r="H14" s="90" t="s">
         <v>38</v>
       </c>
-      <c r="I14" s="82">
-        <v>5363</v>
+      <c r="I14" s="91" t="s">
+        <v>38</v>
       </c>
       <c r="J14" s="79" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="35" t="s">
-        <v>94</v>
+        <v>149</v>
       </c>
       <c r="B15" s="36" t="s">
-        <v>68</v>
-      </c>
-      <c r="C15" s="36" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15" s="37" t="s">
         <v>18</v>
       </c>
       <c r="D15" s="39" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="E15" s="24" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="F15" s="24" t="s">
         <v>38</v>
@@ -6050,16 +6049,16 @@
       <c r="H15" s="90" t="s">
         <v>38</v>
       </c>
-      <c r="I15" s="82" t="s">
-        <v>133</v>
-      </c>
-      <c r="J15" s="86" t="s">
-        <v>159</v>
+      <c r="I15" s="82">
+        <v>5363</v>
+      </c>
+      <c r="J15" s="79" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="35" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B16" s="36" t="s">
         <v>68</v>
@@ -6071,7 +6070,7 @@
         <v>38</v>
       </c>
       <c r="E16" s="24" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="F16" s="24" t="s">
         <v>38</v>
@@ -6086,24 +6085,24 @@
         <v>133</v>
       </c>
       <c r="J16" s="86" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" ht="20.399999999999999" x14ac:dyDescent="0.3">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="35" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="B17" s="36" t="s">
-        <v>34</v>
+        <v>68</v>
       </c>
       <c r="C17" s="36" t="s">
         <v>18</v>
       </c>
       <c r="D17" s="39" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="E17" s="24" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="F17" s="24" t="s">
         <v>38</v>
@@ -6115,27 +6114,27 @@
         <v>38</v>
       </c>
       <c r="I17" s="82" t="s">
-        <v>155</v>
-      </c>
-      <c r="J17" s="79" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+        <v>133</v>
+      </c>
+      <c r="J17" s="86" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A18" s="35" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="B18" s="36" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="C18" s="36" t="s">
         <v>18</v>
       </c>
       <c r="D18" s="39" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="E18" s="24" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="F18" s="24" t="s">
         <v>38</v>
@@ -6147,18 +6146,18 @@
         <v>38</v>
       </c>
       <c r="I18" s="82" t="s">
-        <v>138</v>
-      </c>
-      <c r="J18" s="86" t="s">
-        <v>159</v>
+        <v>154</v>
+      </c>
+      <c r="J18" s="79" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="35" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B19" s="36" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="C19" s="36" t="s">
         <v>18</v>
@@ -6167,7 +6166,7 @@
         <v>38</v>
       </c>
       <c r="E19" s="24" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="F19" s="24" t="s">
         <v>38</v>
@@ -6179,18 +6178,18 @@
         <v>38</v>
       </c>
       <c r="I19" s="82" t="s">
-        <v>137</v>
-      </c>
-      <c r="J19" s="79" t="s">
-        <v>194</v>
+        <v>138</v>
+      </c>
+      <c r="J19" s="86" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="35" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B20" s="36" t="s">
-        <v>69</v>
+        <v>34</v>
       </c>
       <c r="C20" s="36" t="s">
         <v>18</v>
@@ -6199,7 +6198,7 @@
         <v>38</v>
       </c>
       <c r="E20" s="24" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="F20" s="24" t="s">
         <v>38</v>
@@ -6210,28 +6209,28 @@
       <c r="H20" s="90" t="s">
         <v>38</v>
       </c>
-      <c r="I20" s="91" t="s">
-        <v>38</v>
-      </c>
-      <c r="J20" s="86" t="s">
-        <v>159</v>
+      <c r="I20" s="82" t="s">
+        <v>137</v>
+      </c>
+      <c r="J20" s="79" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" s="35" t="s">
-        <v>152</v>
+        <v>88</v>
       </c>
       <c r="B21" s="36" t="s">
-        <v>33</v>
+        <v>69</v>
       </c>
       <c r="C21" s="36" t="s">
         <v>18</v>
       </c>
       <c r="D21" s="39" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="E21" s="24" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="F21" s="24" t="s">
         <v>38</v>
@@ -6242,218 +6241,218 @@
       <c r="H21" s="90" t="s">
         <v>38</v>
       </c>
-      <c r="I21" s="82">
-        <v>5200</v>
-      </c>
-      <c r="J21" s="79" t="s">
-        <v>195</v>
+      <c r="I21" s="91" t="s">
+        <v>38</v>
+      </c>
+      <c r="J21" s="86" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A22" s="75" t="s">
-        <v>243</v>
+      <c r="A22" s="35" t="s">
+        <v>151</v>
       </c>
       <c r="B22" s="36" t="s">
-        <v>69</v>
+        <v>33</v>
       </c>
       <c r="C22" s="36" t="s">
         <v>18</v>
       </c>
       <c r="D22" s="39" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="E22" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="F22" s="43" t="s">
-        <v>462</v>
-      </c>
-      <c r="G22" s="48" t="s">
-        <v>468</v>
+        <v>436</v>
+      </c>
+      <c r="F22" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="G22" s="32" t="s">
+        <v>38</v>
       </c>
       <c r="H22" s="90" t="s">
         <v>38</v>
       </c>
       <c r="I22" s="82">
-        <v>1</v>
+        <v>5200</v>
       </c>
       <c r="J22" s="79" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A23" s="35" t="s">
-        <v>86</v>
+        <v>194</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A23" s="75" t="s">
+        <v>242</v>
       </c>
       <c r="B23" s="36" t="s">
-        <v>34</v>
+        <v>69</v>
       </c>
       <c r="C23" s="36" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="E23" s="73" t="s">
+        <v>38</v>
+      </c>
+      <c r="E23" s="24" t="s">
         <v>38</v>
       </c>
       <c r="F23" s="43" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="G23" s="48" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="H23" s="90" t="s">
         <v>38</v>
       </c>
-      <c r="I23" s="82" t="s">
-        <v>136</v>
+      <c r="I23" s="82">
+        <v>1</v>
       </c>
       <c r="J23" s="79" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A24" s="35" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B24" s="36" t="s">
         <v>34</v>
       </c>
-      <c r="C24" s="37" t="s">
+      <c r="C24" s="36" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="39" t="s">
-        <v>38</v>
-      </c>
-      <c r="E24" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="E24" s="73" t="s">
         <v>38</v>
       </c>
       <c r="F24" s="43" t="s">
-        <v>462</v>
-      </c>
-      <c r="G24" s="49" t="s">
-        <v>459</v>
+        <v>461</v>
+      </c>
+      <c r="G24" s="48" t="s">
+        <v>469</v>
       </c>
       <c r="H24" s="90" t="s">
         <v>38</v>
       </c>
       <c r="I24" s="82" t="s">
+        <v>136</v>
+      </c>
+      <c r="J24" s="79" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A25" s="35" t="s">
+        <v>83</v>
+      </c>
+      <c r="B25" s="36" t="s">
+        <v>34</v>
+      </c>
+      <c r="C25" s="37" t="s">
+        <v>18</v>
+      </c>
+      <c r="D25" s="39" t="s">
+        <v>38</v>
+      </c>
+      <c r="E25" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="F25" s="43" t="s">
+        <v>461</v>
+      </c>
+      <c r="G25" s="49" t="s">
+        <v>458</v>
+      </c>
+      <c r="H25" s="90" t="s">
+        <v>38</v>
+      </c>
+      <c r="I25" s="82" t="s">
         <v>134</v>
       </c>
-      <c r="J24" s="79" t="s">
+      <c r="J25" s="79" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="24" x14ac:dyDescent="0.3">
+      <c r="A26" s="35" t="s">
+        <v>84</v>
+      </c>
+      <c r="B26" s="36" t="s">
+        <v>68</v>
+      </c>
+      <c r="C26" s="36" t="s">
+        <v>18</v>
+      </c>
+      <c r="D26" s="39" t="s">
+        <v>38</v>
+      </c>
+      <c r="E26" s="24" t="s">
+        <v>457</v>
+      </c>
+      <c r="F26" s="43" t="s">
+        <v>461</v>
+      </c>
+      <c r="G26" s="49" t="s">
+        <v>466</v>
+      </c>
+      <c r="H26" s="90" t="s">
+        <v>38</v>
+      </c>
+      <c r="I26" s="82" t="s">
+        <v>135</v>
+      </c>
+      <c r="J26" s="79" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="25" spans="1:10" ht="24" x14ac:dyDescent="0.3">
-      <c r="A25" s="35" t="s">
-        <v>84</v>
-      </c>
-      <c r="B25" s="36" t="s">
-        <v>68</v>
-      </c>
-      <c r="C25" s="36" t="s">
-        <v>18</v>
-      </c>
-      <c r="D25" s="39" t="s">
-        <v>38</v>
-      </c>
-      <c r="E25" s="24" t="s">
-        <v>458</v>
-      </c>
-      <c r="F25" s="43" t="s">
-        <v>462</v>
-      </c>
-      <c r="G25" s="49" t="s">
-        <v>467</v>
-      </c>
-      <c r="H25" s="90" t="s">
-        <v>38</v>
-      </c>
-      <c r="I25" s="82" t="s">
-        <v>135</v>
-      </c>
-      <c r="J25" s="79" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A26" s="35" t="s">
-        <v>151</v>
-      </c>
-      <c r="B26" s="36" t="s">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A27" s="35" t="s">
+        <v>150</v>
+      </c>
+      <c r="B27" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="C26" s="40" t="s">
-        <v>38</v>
-      </c>
-      <c r="D26" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="E26" s="24"/>
-      <c r="F26" s="43" t="s">
-        <v>462</v>
-      </c>
-      <c r="G26" s="49" t="s">
-        <v>469</v>
-      </c>
-      <c r="H26" s="90" t="s">
-        <v>38</v>
-      </c>
-      <c r="I26" s="82" t="s">
-        <v>156</v>
-      </c>
-      <c r="J26" s="79" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" ht="30.6" x14ac:dyDescent="0.3">
-      <c r="A27" s="35" t="s">
-        <v>153</v>
-      </c>
-      <c r="B27" s="36" t="s">
-        <v>15</v>
-      </c>
-      <c r="C27" s="36" t="s">
-        <v>18</v>
+      <c r="C27" s="40" t="s">
+        <v>38</v>
       </c>
       <c r="D27" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="E27" s="24" t="s">
-        <v>437</v>
-      </c>
-      <c r="F27" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="G27" s="32" t="s">
-        <v>38</v>
+      <c r="E27" s="24"/>
+      <c r="F27" s="43" t="s">
+        <v>461</v>
+      </c>
+      <c r="G27" s="49" t="s">
+        <v>468</v>
       </c>
       <c r="H27" s="90" t="s">
         <v>38</v>
       </c>
-      <c r="I27" s="91" t="s">
-        <v>38</v>
+      <c r="I27" s="82" t="s">
+        <v>155</v>
       </c>
       <c r="J27" s="79" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A28" s="35" t="s">
-        <v>104</v>
+        <v>152</v>
       </c>
       <c r="B28" s="36" t="s">
-        <v>106</v>
+        <v>15</v>
       </c>
       <c r="C28" s="36" t="s">
         <v>18</v>
       </c>
       <c r="D28" s="39" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="E28" s="24" t="s">
-        <v>465</v>
+        <v>436</v>
       </c>
       <c r="F28" s="24" t="s">
         <v>38</v>
@@ -6464,16 +6463,16 @@
       <c r="H28" s="90" t="s">
         <v>38</v>
       </c>
-      <c r="I28" s="92">
-        <v>44196</v>
+      <c r="I28" s="91" t="s">
+        <v>38</v>
       </c>
       <c r="J28" s="79" t="s">
-        <v>202</v>
+        <v>233</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" s="35" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B29" s="36" t="s">
         <v>106</v>
@@ -6485,7 +6484,7 @@
         <v>38</v>
       </c>
       <c r="E29" s="24" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="F29" s="24" t="s">
         <v>38</v>
@@ -6497,155 +6496,155 @@
         <v>38</v>
       </c>
       <c r="I29" s="92">
+        <v>44196</v>
+      </c>
+      <c r="J29" s="79" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A30" s="35" t="s">
+        <v>103</v>
+      </c>
+      <c r="B30" s="36" t="s">
+        <v>106</v>
+      </c>
+      <c r="C30" s="36" t="s">
+        <v>18</v>
+      </c>
+      <c r="D30" s="39" t="s">
+        <v>38</v>
+      </c>
+      <c r="E30" s="24" t="s">
+        <v>465</v>
+      </c>
+      <c r="F30" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="G30" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="H30" s="90" t="s">
+        <v>38</v>
+      </c>
+      <c r="I30" s="92">
         <v>43831</v>
       </c>
-      <c r="J29" s="79" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A30" s="120" t="s">
+      <c r="J30" s="79" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A31" s="120" t="s">
         <v>87</v>
       </c>
-      <c r="B30" s="121" t="s">
+      <c r="B31" s="121" t="s">
         <v>34</v>
       </c>
-      <c r="C30" s="121" t="s">
+      <c r="C31" s="121" t="s">
         <v>18</v>
       </c>
-      <c r="D30" s="122" t="s">
+      <c r="D31" s="122" t="s">
         <v>20</v>
       </c>
-      <c r="E30" s="123" t="s">
-        <v>476</v>
-      </c>
-      <c r="F30" s="124" t="s">
-        <v>38</v>
-      </c>
-      <c r="G30" s="125" t="s">
-        <v>470</v>
-      </c>
-      <c r="H30" s="90" t="s">
-        <v>38</v>
-      </c>
-      <c r="I30" s="82" t="s">
+      <c r="E31" s="123" t="s">
+        <v>475</v>
+      </c>
+      <c r="F31" s="124" t="s">
+        <v>38</v>
+      </c>
+      <c r="G31" s="125" t="s">
+        <v>469</v>
+      </c>
+      <c r="H31" s="90" t="s">
+        <v>38</v>
+      </c>
+      <c r="I31" s="82" t="s">
         <v>133</v>
       </c>
-      <c r="J30" s="79" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A31" s="75" t="s">
-        <v>244</v>
-      </c>
-      <c r="B31" s="36" t="s">
+      <c r="J31" s="79" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A32" s="75" t="s">
+        <v>243</v>
+      </c>
+      <c r="B32" s="36" t="s">
         <v>69</v>
       </c>
-      <c r="C31" s="36" t="s">
+      <c r="C32" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="D31" s="39" t="s">
-        <v>38</v>
-      </c>
-      <c r="E31" s="24" t="s">
-        <v>437</v>
-      </c>
-      <c r="F31" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="G31" s="32" t="s">
-        <v>38</v>
-      </c>
-      <c r="H31" s="90" t="s">
-        <v>38</v>
-      </c>
-      <c r="I31" s="82">
+      <c r="D32" s="39" t="s">
+        <v>38</v>
+      </c>
+      <c r="E32" s="24" t="s">
+        <v>436</v>
+      </c>
+      <c r="F32" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="G32" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="H32" s="90" t="s">
+        <v>38</v>
+      </c>
+      <c r="I32" s="82">
         <v>0</v>
       </c>
-      <c r="J31" s="79" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A32" s="35" t="s">
-        <v>149</v>
-      </c>
-      <c r="B32" s="36" t="s">
-        <v>34</v>
-      </c>
-      <c r="C32" s="40" t="s">
-        <v>38</v>
-      </c>
-      <c r="D32" s="39" t="s">
-        <v>38</v>
-      </c>
-      <c r="E32" s="73" t="s">
-        <v>433</v>
-      </c>
-      <c r="F32" s="43" t="s">
-        <v>462</v>
-      </c>
-      <c r="G32" s="48" t="s">
-        <v>471</v>
-      </c>
-      <c r="H32" s="90" t="s">
-        <v>38</v>
-      </c>
-      <c r="I32" s="91" t="s">
-        <v>38</v>
-      </c>
       <c r="J32" s="79" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A33" s="35" t="s">
-        <v>101</v>
+        <v>148</v>
       </c>
       <c r="B33" s="36" t="s">
         <v>34</v>
       </c>
-      <c r="C33" s="36" t="s">
-        <v>18</v>
+      <c r="C33" s="40" t="s">
+        <v>38</v>
       </c>
       <c r="D33" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="E33" s="24" t="s">
-        <v>437</v>
-      </c>
-      <c r="F33" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="G33" s="32" t="s">
-        <v>38</v>
+      <c r="E33" s="73" t="s">
+        <v>432</v>
+      </c>
+      <c r="F33" s="43" t="s">
+        <v>461</v>
+      </c>
+      <c r="G33" s="48" t="s">
+        <v>470</v>
       </c>
       <c r="H33" s="90" t="s">
         <v>38</v>
       </c>
-      <c r="I33" s="82" t="s">
-        <v>133</v>
-      </c>
-      <c r="J33" s="86" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="34" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="I33" s="91" t="s">
+        <v>38</v>
+      </c>
+      <c r="J33" s="79" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A34" s="35" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B34" s="36" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="C34" s="36" t="s">
         <v>18</v>
       </c>
       <c r="D34" s="39" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="E34" s="24" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="F34" s="24" t="s">
         <v>38</v>
@@ -6659,13 +6658,13 @@
       <c r="I34" s="82" t="s">
         <v>133</v>
       </c>
-      <c r="J34" s="79" t="s">
-        <v>231</v>
+      <c r="J34" s="86" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="35" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A35" s="35" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B35" s="36" t="s">
         <v>15</v>
@@ -6677,7 +6676,7 @@
         <v>20</v>
       </c>
       <c r="E35" s="24" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="F35" s="24" t="s">
         <v>38</v>
@@ -6692,24 +6691,24 @@
         <v>133</v>
       </c>
       <c r="J35" s="79" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.3">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A36" s="35" t="s">
-        <v>154</v>
+        <v>100</v>
       </c>
       <c r="B36" s="36" t="s">
-        <v>33</v>
-      </c>
-      <c r="C36" s="40" t="s">
-        <v>38</v>
+        <v>15</v>
+      </c>
+      <c r="C36" s="36" t="s">
+        <v>18</v>
       </c>
       <c r="D36" s="39" t="s">
-        <v>38</v>
-      </c>
-      <c r="E36" s="74">
-        <v>44644</v>
+        <v>20</v>
+      </c>
+      <c r="E36" s="24" t="s">
+        <v>436</v>
       </c>
       <c r="F36" s="24" t="s">
         <v>38</v>
@@ -6720,51 +6719,51 @@
       <c r="H36" s="90" t="s">
         <v>38</v>
       </c>
-      <c r="I36" s="93">
-        <v>43874</v>
+      <c r="I36" s="82" t="s">
+        <v>133</v>
       </c>
       <c r="J36" s="79" t="s">
-        <v>205</v>
+        <v>231</v>
       </c>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A37" s="35" t="s">
+        <v>153</v>
+      </c>
+      <c r="B37" s="36" t="s">
+        <v>33</v>
+      </c>
+      <c r="C37" s="40" t="s">
+        <v>38</v>
+      </c>
+      <c r="D37" s="39" t="s">
+        <v>38</v>
+      </c>
+      <c r="E37" s="74">
+        <v>44644</v>
+      </c>
+      <c r="F37" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="G37" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="H37" s="90" t="s">
+        <v>38</v>
+      </c>
+      <c r="I37" s="93">
+        <v>43874</v>
+      </c>
+      <c r="J37" s="79" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A38" s="35" t="s">
         <v>82</v>
       </c>
-      <c r="B37" s="36" t="s">
+      <c r="B38" s="36" t="s">
         <v>15</v>
-      </c>
-      <c r="C37" s="37" t="s">
-        <v>18</v>
-      </c>
-      <c r="D37" s="39" t="s">
-        <v>38</v>
-      </c>
-      <c r="E37" s="24" t="s">
-        <v>437</v>
-      </c>
-      <c r="F37" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="G37" s="32" t="s">
-        <v>38</v>
-      </c>
-      <c r="H37" s="90" t="s">
-        <v>38</v>
-      </c>
-      <c r="I37" s="93">
-        <v>33187</v>
-      </c>
-      <c r="J37" s="86" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A38" s="75" t="s">
-        <v>245</v>
-      </c>
-      <c r="B38" s="36" t="s">
-        <v>246</v>
       </c>
       <c r="C38" s="37" t="s">
         <v>18</v>
@@ -6772,54 +6771,54 @@
       <c r="D38" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="E38" s="24">
+      <c r="E38" s="24" t="s">
+        <v>436</v>
+      </c>
+      <c r="F38" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="G38" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="H38" s="90" t="s">
+        <v>38</v>
+      </c>
+      <c r="I38" s="93">
+        <v>33187</v>
+      </c>
+      <c r="J38" s="86" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A39" s="75" t="s">
+        <v>244</v>
+      </c>
+      <c r="B39" s="36" t="s">
+        <v>245</v>
+      </c>
+      <c r="C39" s="37" t="s">
+        <v>18</v>
+      </c>
+      <c r="D39" s="39" t="s">
+        <v>38</v>
+      </c>
+      <c r="E39" s="24">
         <v>0</v>
       </c>
-      <c r="F38" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="G38" s="32" t="s">
-        <v>38</v>
-      </c>
-      <c r="H38" s="90"/>
-      <c r="I38" s="93"/>
-      <c r="J38" s="86"/>
-    </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A39" s="35" t="s">
-        <v>90</v>
-      </c>
-      <c r="B39" s="36" t="s">
-        <v>69</v>
-      </c>
-      <c r="C39" s="36" t="s">
-        <v>18</v>
-      </c>
-      <c r="D39" s="39" t="s">
-        <v>38</v>
-      </c>
-      <c r="E39" s="24" t="s">
-        <v>437</v>
-      </c>
       <c r="F39" s="24" t="s">
         <v>38</v>
       </c>
       <c r="G39" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="H39" s="90" t="s">
-        <v>38</v>
-      </c>
-      <c r="I39" s="91" t="s">
-        <v>38</v>
-      </c>
-      <c r="J39" s="79" t="s">
-        <v>206</v>
-      </c>
+      <c r="H39" s="90"/>
+      <c r="I39" s="93"/>
+      <c r="J39" s="86"/>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A40" s="35" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B40" s="36" t="s">
         <v>69</v>
@@ -6831,7 +6830,7 @@
         <v>38</v>
       </c>
       <c r="E40" s="24" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="F40" s="24" t="s">
         <v>38</v>
@@ -6839,29 +6838,31 @@
       <c r="G40" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="H40" s="87"/>
+      <c r="H40" s="90" t="s">
+        <v>38</v>
+      </c>
       <c r="I40" s="91" t="s">
         <v>38</v>
       </c>
       <c r="J40" s="79" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="41" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.3">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A41" s="35" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="B41" s="36" t="s">
-        <v>15</v>
+        <v>69</v>
       </c>
       <c r="C41" s="36" t="s">
         <v>18</v>
       </c>
       <c r="D41" s="39" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="E41" s="24" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="F41" s="24" t="s">
         <v>38</v>
@@ -6869,31 +6870,29 @@
       <c r="G41" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="H41" s="90" t="s">
-        <v>38</v>
-      </c>
-      <c r="I41" s="82" t="s">
-        <v>133</v>
+      <c r="H41" s="87"/>
+      <c r="I41" s="91" t="s">
+        <v>38</v>
       </c>
       <c r="J41" s="79" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.3">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A42" s="35" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B42" s="36" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="C42" s="36" t="s">
         <v>18</v>
       </c>
       <c r="D42" s="39" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="E42" s="24" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="F42" s="24" t="s">
         <v>38</v>
@@ -6904,92 +6903,92 @@
       <c r="H42" s="90" t="s">
         <v>38</v>
       </c>
-      <c r="I42" s="91" t="s">
-        <v>38</v>
-      </c>
-      <c r="J42" s="86" t="s">
-        <v>159</v>
+      <c r="I42" s="82" t="s">
+        <v>133</v>
+      </c>
+      <c r="J42" s="79" t="s">
+        <v>234</v>
       </c>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A43" s="5" t="s">
+      <c r="A43" s="35" t="s">
+        <v>96</v>
+      </c>
+      <c r="B43" s="36" t="s">
+        <v>34</v>
+      </c>
+      <c r="C43" s="36" t="s">
+        <v>18</v>
+      </c>
+      <c r="D43" s="39" t="s">
+        <v>38</v>
+      </c>
+      <c r="E43" s="24" t="s">
+        <v>436</v>
+      </c>
+      <c r="F43" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="G43" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="H43" s="90" t="s">
+        <v>38</v>
+      </c>
+      <c r="I43" s="91" t="s">
+        <v>38</v>
+      </c>
+      <c r="J43" s="86" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A44" s="5" t="s">
+        <v>515</v>
+      </c>
+      <c r="B44" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C44" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D44" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="E44" s="5"/>
+      <c r="F44" s="5"/>
+      <c r="G44" s="116"/>
+      <c r="H44" s="117" t="s">
+        <v>38</v>
+      </c>
+      <c r="I44" s="118" t="s">
         <v>516</v>
       </c>
-      <c r="B43" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="C43" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D43" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="E43" s="5"/>
-      <c r="F43" s="5"/>
-      <c r="G43" s="116"/>
-      <c r="H43" s="117" t="s">
-        <v>38</v>
-      </c>
-      <c r="I43" s="118" t="s">
+      <c r="J44" s="119" t="s">
         <v>517</v>
       </c>
-      <c r="J43" s="119" t="s">
-        <v>518</v>
-      </c>
-      <c r="K43" s="5"/>
-      <c r="L43" s="5"/>
-      <c r="M43" s="5"/>
-      <c r="N43" s="5"/>
-      <c r="O43" s="5"/>
-      <c r="P43" s="5"/>
-    </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A44" s="35" t="s">
-        <v>89</v>
-      </c>
-      <c r="B44" s="36" t="s">
-        <v>33</v>
-      </c>
-      <c r="C44" s="36" t="s">
-        <v>18</v>
-      </c>
-      <c r="D44" s="39" t="s">
-        <v>38</v>
-      </c>
-      <c r="E44" s="24" t="s">
-        <v>437</v>
-      </c>
-      <c r="F44" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="G44" s="32" t="s">
-        <v>38</v>
-      </c>
-      <c r="H44" s="90" t="s">
-        <v>38</v>
-      </c>
-      <c r="I44" s="91" t="s">
-        <v>38</v>
-      </c>
-      <c r="J44" s="79" t="s">
-        <v>208</v>
-      </c>
+      <c r="K44" s="5"/>
+      <c r="L44" s="5"/>
+      <c r="M44" s="5"/>
+      <c r="N44" s="5"/>
+      <c r="O44" s="5"/>
+      <c r="P44" s="5"/>
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A45" s="35" t="s">
-        <v>102</v>
+        <v>89</v>
       </c>
       <c r="B45" s="36" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="C45" s="36" t="s">
         <v>18</v>
       </c>
       <c r="D45" s="39" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="E45" s="24" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="F45" s="24" t="s">
         <v>38</v>
@@ -7000,28 +6999,28 @@
       <c r="H45" s="90" t="s">
         <v>38</v>
       </c>
-      <c r="I45" s="82" t="s">
-        <v>133</v>
-      </c>
-      <c r="J45" s="86" t="s">
-        <v>159</v>
+      <c r="I45" s="91" t="s">
+        <v>38</v>
+      </c>
+      <c r="J45" s="79" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A46" s="35" t="s">
-        <v>148</v>
+        <v>102</v>
       </c>
       <c r="B46" s="36" t="s">
-        <v>105</v>
-      </c>
-      <c r="C46" s="37" t="s">
+        <v>16</v>
+      </c>
+      <c r="C46" s="36" t="s">
         <v>18</v>
       </c>
       <c r="D46" s="39" t="s">
         <v>20</v>
       </c>
       <c r="E46" s="24" t="s">
-        <v>454</v>
+        <v>436</v>
       </c>
       <c r="F46" s="24" t="s">
         <v>38</v>
@@ -7033,47 +7032,79 @@
         <v>38</v>
       </c>
       <c r="I46" s="82" t="s">
-        <v>132</v>
-      </c>
-      <c r="J46" s="79" t="s">
-        <v>209</v>
+        <v>133</v>
+      </c>
+      <c r="J46" s="86" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A47" s="35" t="s">
+        <v>522</v>
+      </c>
+      <c r="B47" s="36" t="s">
+        <v>105</v>
+      </c>
+      <c r="C47" s="37" t="s">
+        <v>18</v>
+      </c>
+      <c r="D47" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="E47" s="24" t="s">
+        <v>453</v>
+      </c>
+      <c r="F47" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="G47" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="H47" s="90" t="s">
+        <v>38</v>
+      </c>
+      <c r="I47" s="82" t="s">
+        <v>132</v>
+      </c>
+      <c r="J47" s="79" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A48" s="35" t="s">
         <v>97</v>
       </c>
-      <c r="B47" s="36" t="s">
+      <c r="B48" s="36" t="s">
         <v>34</v>
       </c>
-      <c r="C47" s="36" t="s">
+      <c r="C48" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="D47" s="39" t="s">
-        <v>38</v>
-      </c>
-      <c r="E47" s="24" t="s">
-        <v>437</v>
-      </c>
-      <c r="F47" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="G47" s="32" t="s">
-        <v>38</v>
-      </c>
-      <c r="H47" s="90" t="s">
-        <v>38</v>
-      </c>
-      <c r="I47" s="82" t="s">
+      <c r="D48" s="39" t="s">
+        <v>38</v>
+      </c>
+      <c r="E48" s="24" t="s">
+        <v>436</v>
+      </c>
+      <c r="F48" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="G48" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="H48" s="90" t="s">
+        <v>38</v>
+      </c>
+      <c r="I48" s="82" t="s">
         <v>133</v>
       </c>
-      <c r="J47" s="79" t="s">
-        <v>210</v>
+      <c r="J48" s="79" t="s">
+        <v>209</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A14:P47">
-    <sortCondition ref="A14:A47"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A15:P48">
+    <sortCondition ref="A15:A48"/>
   </sortState>
   <phoneticPr fontId="24" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7102,10 +7133,10 @@
   <sheetData>
     <row r="1" spans="1:8" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="99" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="G1" s="103" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -7113,25 +7144,25 @@
         <v>140</v>
       </c>
       <c r="B2" s="109" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C2" s="111" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="F2" s="100" t="s">
         <v>140</v>
       </c>
       <c r="G2" s="100" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H2" s="98"/>
     </row>
     <row r="3" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="101" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B3" s="110" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C3" s="112" t="str">
         <f>""""&amp;A3&amp;""""&amp;" : "&amp;""""&amp;B3&amp;""""&amp;","</f>
@@ -7140,18 +7171,18 @@
       <c r="D3" s="42"/>
       <c r="E3" s="42"/>
       <c r="F3" s="101" t="s">
+        <v>402</v>
+      </c>
+      <c r="G3" s="101" t="s">
         <v>403</v>
-      </c>
-      <c r="G3" s="101" t="s">
-        <v>404</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="101" t="s">
+        <v>350</v>
+      </c>
+      <c r="B4" s="110" t="s">
         <v>351</v>
-      </c>
-      <c r="B4" s="110" t="s">
-        <v>352</v>
       </c>
       <c r="C4" s="112" t="str">
         <f t="shared" ref="C4:C42" si="0">""""&amp;A4&amp;""""&amp;" : "&amp;""""&amp;B4&amp;""""&amp;","</f>
@@ -7160,18 +7191,18 @@
       <c r="D4" s="42"/>
       <c r="E4" s="42"/>
       <c r="F4" s="101" t="s">
+        <v>404</v>
+      </c>
+      <c r="G4" s="101" t="s">
         <v>405</v>
-      </c>
-      <c r="G4" s="101" t="s">
-        <v>406</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="101" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B5" s="110" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C5" s="112" t="str">
         <f t="shared" si="0"/>
@@ -7180,18 +7211,18 @@
       <c r="D5" s="42"/>
       <c r="E5" s="42"/>
       <c r="F5" s="101" t="s">
+        <v>406</v>
+      </c>
+      <c r="G5" s="101" t="s">
         <v>407</v>
-      </c>
-      <c r="G5" s="101" t="s">
-        <v>408</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="101" t="s">
+        <v>378</v>
+      </c>
+      <c r="B6" s="110" t="s">
         <v>379</v>
-      </c>
-      <c r="B6" s="110" t="s">
-        <v>380</v>
       </c>
       <c r="C6" s="112" t="str">
         <f t="shared" si="0"/>
@@ -7200,18 +7231,18 @@
       <c r="D6" s="42"/>
       <c r="E6" s="42"/>
       <c r="F6" s="101" t="s">
+        <v>408</v>
+      </c>
+      <c r="G6" s="101" t="s">
         <v>409</v>
-      </c>
-      <c r="G6" s="101" t="s">
-        <v>410</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="101" t="s">
+        <v>380</v>
+      </c>
+      <c r="B7" s="110" t="s">
         <v>381</v>
-      </c>
-      <c r="B7" s="110" t="s">
-        <v>382</v>
       </c>
       <c r="C7" s="112" t="str">
         <f t="shared" si="0"/>
@@ -7220,18 +7251,18 @@
       <c r="D7" s="42"/>
       <c r="E7" s="42"/>
       <c r="F7" s="101" t="s">
+        <v>410</v>
+      </c>
+      <c r="G7" s="101" t="s">
         <v>411</v>
-      </c>
-      <c r="G7" s="101" t="s">
-        <v>412</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="101" t="s">
+        <v>396</v>
+      </c>
+      <c r="B8" s="110" t="s">
         <v>397</v>
-      </c>
-      <c r="B8" s="110" t="s">
-        <v>398</v>
       </c>
       <c r="C8" s="112" t="str">
         <f t="shared" si="0"/>
@@ -7240,18 +7271,18 @@
       <c r="D8" s="42"/>
       <c r="E8" s="42"/>
       <c r="F8" s="101" t="s">
+        <v>412</v>
+      </c>
+      <c r="G8" s="101" t="s">
         <v>413</v>
-      </c>
-      <c r="G8" s="101" t="s">
-        <v>414</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="101" t="s">
+        <v>398</v>
+      </c>
+      <c r="B9" s="110" t="s">
         <v>399</v>
-      </c>
-      <c r="B9" s="110" t="s">
-        <v>400</v>
       </c>
       <c r="C9" s="112" t="str">
         <f t="shared" si="0"/>
@@ -7260,18 +7291,18 @@
       <c r="D9" s="42"/>
       <c r="E9" s="42"/>
       <c r="F9" s="101" t="s">
+        <v>414</v>
+      </c>
+      <c r="G9" s="101" t="s">
         <v>415</v>
-      </c>
-      <c r="G9" s="101" t="s">
-        <v>416</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="101" t="s">
+        <v>332</v>
+      </c>
+      <c r="B10" s="110" t="s">
         <v>333</v>
-      </c>
-      <c r="B10" s="110" t="s">
-        <v>334</v>
       </c>
       <c r="C10" s="112" t="str">
         <f t="shared" si="0"/>
@@ -7280,18 +7311,18 @@
       <c r="D10" s="42"/>
       <c r="E10" s="42"/>
       <c r="F10" s="101" t="s">
+        <v>416</v>
+      </c>
+      <c r="G10" s="101" t="s">
         <v>417</v>
-      </c>
-      <c r="G10" s="101" t="s">
-        <v>418</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="101" t="s">
+        <v>334</v>
+      </c>
+      <c r="B11" s="110" t="s">
         <v>335</v>
-      </c>
-      <c r="B11" s="110" t="s">
-        <v>336</v>
       </c>
       <c r="C11" s="112" t="str">
         <f t="shared" si="0"/>
@@ -7300,18 +7331,18 @@
       <c r="D11" s="42"/>
       <c r="E11" s="42"/>
       <c r="F11" s="101" t="s">
+        <v>418</v>
+      </c>
+      <c r="G11" s="101" t="s">
         <v>419</v>
-      </c>
-      <c r="G11" s="101" t="s">
-        <v>420</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="101" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B12" s="110" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C12" s="112" t="str">
         <f t="shared" si="0"/>
@@ -7320,18 +7351,18 @@
       <c r="D12" s="42"/>
       <c r="E12" s="42"/>
       <c r="F12" s="101" t="s">
+        <v>420</v>
+      </c>
+      <c r="G12" s="101" t="s">
         <v>421</v>
-      </c>
-      <c r="G12" s="101" t="s">
-        <v>422</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="101" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B13" s="110" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="C13" s="112" t="str">
         <f t="shared" si="0"/>
@@ -7343,15 +7374,15 @@
         <v>138</v>
       </c>
       <c r="G13" s="101" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="101" t="s">
+        <v>336</v>
+      </c>
+      <c r="B14" s="110" t="s">
         <v>337</v>
-      </c>
-      <c r="B14" s="110" t="s">
-        <v>338</v>
       </c>
       <c r="C14" s="112" t="str">
         <f t="shared" si="0"/>
@@ -7360,18 +7391,18 @@
       <c r="D14" s="42"/>
       <c r="E14" s="42"/>
       <c r="F14" s="101" t="s">
+        <v>423</v>
+      </c>
+      <c r="G14" s="101" t="s">
         <v>424</v>
-      </c>
-      <c r="G14" s="101" t="s">
-        <v>425</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="101" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B15" s="110" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C15" s="112" t="str">
         <f t="shared" si="0"/>
@@ -7380,18 +7411,18 @@
       <c r="D15" s="42"/>
       <c r="E15" s="42"/>
       <c r="F15" s="101" t="s">
+        <v>425</v>
+      </c>
+      <c r="G15" s="101" t="s">
         <v>426</v>
-      </c>
-      <c r="G15" s="101" t="s">
-        <v>427</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="101" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B16" s="110" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C16" s="112" t="str">
         <f t="shared" si="0"/>
@@ -7400,18 +7431,18 @@
       <c r="D16" s="42"/>
       <c r="E16" s="42"/>
       <c r="F16" s="101" t="s">
+        <v>427</v>
+      </c>
+      <c r="G16" s="101" t="s">
         <v>428</v>
-      </c>
-      <c r="G16" s="101" t="s">
-        <v>429</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="101" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B17" s="110" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C17" s="112" t="str">
         <f t="shared" si="0"/>
@@ -7420,18 +7451,18 @@
       <c r="D17" s="42"/>
       <c r="E17" s="42"/>
       <c r="F17" s="101" t="s">
+        <v>429</v>
+      </c>
+      <c r="G17" s="101" t="s">
         <v>430</v>
-      </c>
-      <c r="G17" s="101" t="s">
-        <v>431</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="101" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B18" s="110" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C18" s="112" t="str">
         <f t="shared" si="0"/>
@@ -7448,10 +7479,10 @@
     </row>
     <row r="19" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="101" t="s">
+        <v>338</v>
+      </c>
+      <c r="B19" s="110" t="s">
         <v>339</v>
-      </c>
-      <c r="B19" s="110" t="s">
-        <v>340</v>
       </c>
       <c r="C19" s="112" t="str">
         <f t="shared" si="0"/>
@@ -7462,10 +7493,10 @@
     </row>
     <row r="20" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="101" t="s">
+        <v>340</v>
+      </c>
+      <c r="B20" s="110" t="s">
         <v>341</v>
-      </c>
-      <c r="B20" s="110" t="s">
-        <v>342</v>
       </c>
       <c r="C20" s="112" t="str">
         <f t="shared" si="0"/>
@@ -7476,10 +7507,10 @@
     </row>
     <row r="21" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="101" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B21" s="110" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C21" s="112" t="str">
         <f t="shared" si="0"/>
@@ -7490,10 +7521,10 @@
     </row>
     <row r="22" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="101" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B22" s="110" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C22" s="112" t="str">
         <f t="shared" si="0"/>
@@ -7504,10 +7535,10 @@
     </row>
     <row r="23" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="101" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B23" s="110" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C23" s="112" t="str">
         <f t="shared" si="0"/>
@@ -7518,10 +7549,10 @@
     </row>
     <row r="24" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="101" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B24" s="110" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="C24" s="112" t="str">
         <f t="shared" si="0"/>
@@ -7532,10 +7563,10 @@
     </row>
     <row r="25" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="101" t="s">
+        <v>353</v>
+      </c>
+      <c r="B25" s="110" t="s">
         <v>354</v>
-      </c>
-      <c r="B25" s="110" t="s">
-        <v>355</v>
       </c>
       <c r="C25" s="112" t="str">
         <f t="shared" si="0"/>
@@ -7546,10 +7577,10 @@
     </row>
     <row r="26" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="101" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B26" s="110" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C26" s="112" t="str">
         <f t="shared" si="0"/>
@@ -7560,10 +7591,10 @@
     </row>
     <row r="27" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="101" t="s">
+        <v>382</v>
+      </c>
+      <c r="B27" s="110" t="s">
         <v>383</v>
-      </c>
-      <c r="B27" s="110" t="s">
-        <v>384</v>
       </c>
       <c r="C27" s="112" t="str">
         <f t="shared" si="0"/>
@@ -7574,10 +7605,10 @@
     </row>
     <row r="28" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="101" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B28" s="110" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C28" s="112" t="str">
         <f t="shared" si="0"/>
@@ -7588,10 +7619,10 @@
     </row>
     <row r="29" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="101" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B29" s="110" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C29" s="112" t="str">
         <f t="shared" si="0"/>
@@ -7602,10 +7633,10 @@
     </row>
     <row r="30" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="101" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B30" s="110" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C30" s="112" t="str">
         <f t="shared" si="0"/>
@@ -7616,10 +7647,10 @@
     </row>
     <row r="31" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="101" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B31" s="110" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="C31" s="112" t="str">
         <f t="shared" si="0"/>
@@ -7630,10 +7661,10 @@
     </row>
     <row r="32" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="101" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B32" s="110" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C32" s="112" t="str">
         <f t="shared" si="0"/>
@@ -7644,10 +7675,10 @@
     </row>
     <row r="33" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="101" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B33" s="110" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C33" s="112" t="str">
         <f t="shared" si="0"/>
@@ -7658,10 +7689,10 @@
     </row>
     <row r="34" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="101" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B34" s="110" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C34" s="112" t="str">
         <f t="shared" si="0"/>
@@ -7672,10 +7703,10 @@
     </row>
     <row r="35" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="101" t="s">
+        <v>355</v>
+      </c>
+      <c r="B35" s="110" t="s">
         <v>356</v>
-      </c>
-      <c r="B35" s="110" t="s">
-        <v>357</v>
       </c>
       <c r="C35" s="112" t="str">
         <f t="shared" si="0"/>
@@ -7686,10 +7717,10 @@
     </row>
     <row r="36" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="101" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B36" s="110" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="C36" s="112" t="str">
         <f t="shared" si="0"/>
@@ -7700,10 +7731,10 @@
     </row>
     <row r="37" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="101" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B37" s="110" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C37" s="112" t="str">
         <f t="shared" si="0"/>
@@ -7714,10 +7745,10 @@
     </row>
     <row r="38" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="101" t="s">
+        <v>384</v>
+      </c>
+      <c r="B38" s="110" t="s">
         <v>385</v>
-      </c>
-      <c r="B38" s="110" t="s">
-        <v>386</v>
       </c>
       <c r="C38" s="112" t="str">
         <f t="shared" si="0"/>
@@ -7728,10 +7759,10 @@
     </row>
     <row r="39" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="101" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B39" s="110" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C39" s="112" t="str">
         <f t="shared" si="0"/>
@@ -7742,10 +7773,10 @@
     </row>
     <row r="40" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="101" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B40" s="110" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C40" s="112" t="str">
         <f t="shared" si="0"/>
@@ -7756,10 +7787,10 @@
     </row>
     <row r="41" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" s="101" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B41" s="110" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C41" s="112" t="str">
         <f t="shared" si="0"/>
@@ -7770,10 +7801,10 @@
     </row>
     <row r="42" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="101" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B42" s="110" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="C42" s="112" t="str">
         <f t="shared" si="0"/>
@@ -7784,10 +7815,10 @@
     </row>
     <row r="43" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="101" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B43" s="110" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C43" s="112" t="str">
         <f t="shared" ref="C43:C89" si="1">""""&amp;A43&amp;""""&amp;" : "&amp;""""&amp;B43&amp;""""&amp;","</f>
@@ -7800,10 +7831,10 @@
     </row>
     <row r="44" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="101" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B44" s="110" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="C44" s="112" t="str">
         <f t="shared" si="1"/>
@@ -7816,10 +7847,10 @@
     </row>
     <row r="45" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="101" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B45" s="110" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C45" s="112" t="str">
         <f t="shared" si="1"/>
@@ -7832,10 +7863,10 @@
     </row>
     <row r="46" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A46" s="101" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B46" s="110" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="C46" s="112" t="str">
         <f t="shared" si="1"/>
@@ -7848,10 +7879,10 @@
     </row>
     <row r="47" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" s="101" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B47" s="110" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="C47" s="112" t="str">
         <f t="shared" si="1"/>
@@ -7864,10 +7895,10 @@
     </row>
     <row r="48" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A48" s="101" t="s">
+        <v>342</v>
+      </c>
+      <c r="B48" s="110" t="s">
         <v>343</v>
-      </c>
-      <c r="B48" s="110" t="s">
-        <v>344</v>
       </c>
       <c r="C48" s="112" t="str">
         <f t="shared" si="1"/>
@@ -7880,10 +7911,10 @@
     </row>
     <row r="49" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A49" s="101" t="s">
+        <v>357</v>
+      </c>
+      <c r="B49" s="110" t="s">
         <v>358</v>
-      </c>
-      <c r="B49" s="110" t="s">
-        <v>359</v>
       </c>
       <c r="C49" s="112" t="str">
         <f t="shared" si="1"/>
@@ -7896,10 +7927,10 @@
     </row>
     <row r="50" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A50" s="101" t="s">
+        <v>344</v>
+      </c>
+      <c r="B50" s="110" t="s">
         <v>345</v>
-      </c>
-      <c r="B50" s="110" t="s">
-        <v>346</v>
       </c>
       <c r="C50" s="112" t="str">
         <f t="shared" si="1"/>
@@ -7912,10 +7943,10 @@
     </row>
     <row r="51" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A51" s="101" t="s">
+        <v>346</v>
+      </c>
+      <c r="B51" s="110" t="s">
         <v>347</v>
-      </c>
-      <c r="B51" s="110" t="s">
-        <v>348</v>
       </c>
       <c r="C51" s="112" t="str">
         <f t="shared" si="1"/>
@@ -7928,10 +7959,10 @@
     </row>
     <row r="52" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A52" s="101" t="s">
+        <v>386</v>
+      </c>
+      <c r="B52" s="110" t="s">
         <v>387</v>
-      </c>
-      <c r="B52" s="110" t="s">
-        <v>388</v>
       </c>
       <c r="C52" s="112" t="str">
         <f t="shared" si="1"/>
@@ -7944,10 +7975,10 @@
     </row>
     <row r="53" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A53" s="101" t="s">
+        <v>359</v>
+      </c>
+      <c r="B53" s="110" t="s">
         <v>360</v>
-      </c>
-      <c r="B53" s="110" t="s">
-        <v>361</v>
       </c>
       <c r="C53" s="112" t="str">
         <f t="shared" si="1"/>
@@ -7960,10 +7991,10 @@
     </row>
     <row r="54" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A54" s="101" t="s">
+        <v>361</v>
+      </c>
+      <c r="B54" s="110" t="s">
         <v>362</v>
-      </c>
-      <c r="B54" s="110" t="s">
-        <v>363</v>
       </c>
       <c r="C54" s="112" t="str">
         <f t="shared" si="1"/>
@@ -7976,10 +8007,10 @@
     </row>
     <row r="55" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A55" s="101" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B55" s="110" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C55" s="112" t="str">
         <f t="shared" si="1"/>
@@ -7992,10 +8023,10 @@
     </row>
     <row r="56" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A56" s="101" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B56" s="110" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C56" s="112" t="str">
         <f t="shared" si="1"/>
@@ -8008,10 +8039,10 @@
     </row>
     <row r="57" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A57" s="101" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B57" s="110" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C57" s="112" t="str">
         <f t="shared" si="1"/>
@@ -8024,10 +8055,10 @@
     </row>
     <row r="58" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A58" s="101" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B58" s="110" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="C58" s="112" t="str">
         <f t="shared" si="1"/>
@@ -8040,10 +8071,10 @@
     </row>
     <row r="59" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A59" s="101" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B59" s="110" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="C59" s="112" t="str">
         <f t="shared" si="1"/>
@@ -8056,10 +8087,10 @@
     </row>
     <row r="60" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A60" s="101" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B60" s="110" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="C60" s="112" t="str">
         <f t="shared" si="1"/>
@@ -8072,10 +8103,10 @@
     </row>
     <row r="61" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A61" s="101" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B61" s="110" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C61" s="112" t="str">
         <f t="shared" si="1"/>
@@ -8088,10 +8119,10 @@
     </row>
     <row r="62" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A62" s="101" t="s">
+        <v>348</v>
+      </c>
+      <c r="B62" s="110" t="s">
         <v>349</v>
-      </c>
-      <c r="B62" s="110" t="s">
-        <v>350</v>
       </c>
       <c r="C62" s="112" t="str">
         <f t="shared" si="1"/>
@@ -8104,10 +8135,10 @@
     </row>
     <row r="63" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A63" s="101" t="s">
+        <v>363</v>
+      </c>
+      <c r="B63" s="110" t="s">
         <v>364</v>
-      </c>
-      <c r="B63" s="110" t="s">
-        <v>365</v>
       </c>
       <c r="C63" s="112" t="str">
         <f t="shared" si="1"/>
@@ -8120,10 +8151,10 @@
     </row>
     <row r="64" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A64" s="101" t="s">
+        <v>388</v>
+      </c>
+      <c r="B64" s="110" t="s">
         <v>389</v>
-      </c>
-      <c r="B64" s="110" t="s">
-        <v>390</v>
       </c>
       <c r="C64" s="112" t="str">
         <f t="shared" si="1"/>
@@ -8136,10 +8167,10 @@
     </row>
     <row r="65" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A65" s="101" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B65" s="110" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="C65" s="112" t="str">
         <f t="shared" si="1"/>
@@ -8152,10 +8183,10 @@
     </row>
     <row r="66" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A66" s="101" t="s">
+        <v>365</v>
+      </c>
+      <c r="B66" s="110" t="s">
         <v>366</v>
-      </c>
-      <c r="B66" s="110" t="s">
-        <v>367</v>
       </c>
       <c r="C66" s="112" t="str">
         <f t="shared" si="1"/>
@@ -8168,10 +8199,10 @@
     </row>
     <row r="67" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A67" s="101" t="s">
+        <v>367</v>
+      </c>
+      <c r="B67" s="110" t="s">
         <v>368</v>
-      </c>
-      <c r="B67" s="110" t="s">
-        <v>369</v>
       </c>
       <c r="C67" s="112" t="str">
         <f t="shared" si="1"/>
@@ -8184,10 +8215,10 @@
     </row>
     <row r="68" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A68" s="101" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B68" s="110" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C68" s="112" t="str">
         <f t="shared" si="1"/>
@@ -8200,10 +8231,10 @@
     </row>
     <row r="69" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A69" s="101" t="s">
+        <v>390</v>
+      </c>
+      <c r="B69" s="110" t="s">
         <v>391</v>
-      </c>
-      <c r="B69" s="110" t="s">
-        <v>392</v>
       </c>
       <c r="C69" s="112" t="str">
         <f t="shared" si="1"/>
@@ -8216,10 +8247,10 @@
     </row>
     <row r="70" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A70" s="101" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B70" s="110" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C70" s="112" t="str">
         <f t="shared" si="1"/>
@@ -8232,10 +8263,10 @@
     </row>
     <row r="71" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A71" s="101" t="s">
+        <v>369</v>
+      </c>
+      <c r="B71" s="110" t="s">
         <v>370</v>
-      </c>
-      <c r="B71" s="110" t="s">
-        <v>371</v>
       </c>
       <c r="C71" s="112" t="str">
         <f t="shared" si="1"/>
@@ -8248,10 +8279,10 @@
     </row>
     <row r="72" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A72" s="101" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B72" s="110" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C72" s="112" t="str">
         <f t="shared" si="1"/>
@@ -8264,10 +8295,10 @@
     </row>
     <row r="73" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A73" s="101" t="s">
+        <v>371</v>
+      </c>
+      <c r="B73" s="110" t="s">
         <v>372</v>
-      </c>
-      <c r="B73" s="110" t="s">
-        <v>373</v>
       </c>
       <c r="C73" s="112" t="str">
         <f t="shared" si="1"/>
@@ -8280,10 +8311,10 @@
     </row>
     <row r="74" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A74" s="101" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B74" s="110" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="C74" s="112" t="str">
         <f t="shared" si="1"/>
@@ -8296,10 +8327,10 @@
     </row>
     <row r="75" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A75" s="101" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B75" s="110" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C75" s="112" t="str">
         <f t="shared" si="1"/>
@@ -8312,10 +8343,10 @@
     </row>
     <row r="76" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A76" s="101" t="s">
+        <v>373</v>
+      </c>
+      <c r="B76" s="110" t="s">
         <v>374</v>
-      </c>
-      <c r="B76" s="110" t="s">
-        <v>375</v>
       </c>
       <c r="C76" s="112" t="str">
         <f t="shared" si="1"/>
@@ -8328,10 +8359,10 @@
     </row>
     <row r="77" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A77" s="101" t="s">
+        <v>375</v>
+      </c>
+      <c r="B77" s="110" t="s">
         <v>376</v>
-      </c>
-      <c r="B77" s="110" t="s">
-        <v>377</v>
       </c>
       <c r="C77" s="112" t="str">
         <f t="shared" si="1"/>
@@ -8344,10 +8375,10 @@
     </row>
     <row r="78" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A78" s="101" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B78" s="110" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C78" s="112" t="str">
         <f t="shared" si="1"/>
@@ -8360,10 +8391,10 @@
     </row>
     <row r="79" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A79" s="101" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B79" s="110" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C79" s="112" t="str">
         <f t="shared" si="1"/>
@@ -8376,10 +8407,10 @@
     </row>
     <row r="80" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A80" s="101" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B80" s="110" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C80" s="112" t="str">
         <f t="shared" si="1"/>
@@ -8392,10 +8423,10 @@
     </row>
     <row r="81" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A81" s="101" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B81" s="110" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C81" s="112" t="str">
         <f t="shared" si="1"/>
@@ -8408,10 +8439,10 @@
     </row>
     <row r="82" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A82" s="101" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B82" s="110" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C82" s="112" t="str">
         <f t="shared" si="1"/>
@@ -8424,10 +8455,10 @@
     </row>
     <row r="83" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A83" s="101" t="s">
+        <v>328</v>
+      </c>
+      <c r="B83" s="110" t="s">
         <v>329</v>
-      </c>
-      <c r="B83" s="110" t="s">
-        <v>330</v>
       </c>
       <c r="C83" s="112" t="str">
         <f t="shared" si="1"/>
@@ -8440,10 +8471,10 @@
     </row>
     <row r="84" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A84" s="101" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B84" s="110" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C84" s="112" t="str">
         <f t="shared" si="1"/>
@@ -8456,10 +8487,10 @@
     </row>
     <row r="85" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A85" s="101" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B85" s="110" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C85" s="112" t="str">
         <f t="shared" si="1"/>
@@ -8472,10 +8503,10 @@
     </row>
     <row r="86" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A86" s="101" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B86" s="110" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C86" s="112" t="str">
         <f t="shared" si="1"/>
@@ -8488,10 +8519,10 @@
     </row>
     <row r="87" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A87" s="101" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B87" s="110" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C87" s="112" t="str">
         <f t="shared" si="1"/>
@@ -8504,10 +8535,10 @@
     </row>
     <row r="88" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A88" s="101" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B88" s="110" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="C88" s="112" t="str">
         <f t="shared" si="1"/>
@@ -8520,10 +8551,10 @@
     </row>
     <row r="89" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A89" s="101" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B89" s="110" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C89" s="112" t="str">
         <f t="shared" si="1"/>
@@ -8536,10 +8567,10 @@
     </row>
     <row r="90" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A90" s="101" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B90" s="110" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C90" s="112" t="str">
         <f t="shared" ref="C90:C94" si="2">""""&amp;A90&amp;""""&amp;" : "&amp;""""&amp;B90&amp;""""&amp;","</f>
@@ -8552,10 +8583,10 @@
     </row>
     <row r="91" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A91" s="101" t="s">
+        <v>394</v>
+      </c>
+      <c r="B91" s="110" t="s">
         <v>395</v>
-      </c>
-      <c r="B91" s="110" t="s">
-        <v>396</v>
       </c>
       <c r="C91" s="112" t="str">
         <f t="shared" si="2"/>
@@ -8568,10 +8599,10 @@
     </row>
     <row r="92" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A92" s="101" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B92" s="110" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C92" s="112" t="str">
         <f t="shared" si="2"/>
@@ -8584,10 +8615,10 @@
     </row>
     <row r="93" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A93" s="101" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B93" s="110" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C93" s="112" t="str">
         <f t="shared" si="2"/>
@@ -8600,10 +8631,10 @@
     </row>
     <row r="94" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A94" s="101" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B94" s="110" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C94" s="112" t="str">
         <f t="shared" si="2"/>
@@ -8672,216 +8703,216 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="113" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="E1" s="113"/>
       <c r="H1" s="113"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" s="115" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="B41" s="115" t="e">
         <v>#N/A</v>
       </c>
       <c r="C41" s="115"/>
       <c r="D41" s="115" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="E41" s="115"/>
     </row>
@@ -8894,47 +8925,47 @@
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" s="114" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B43" s="114" t="e">
         <v>#N/A</v>
       </c>
       <c r="D43" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" s="114" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B44" s="114" t="e">
         <v>#N/A</v>
       </c>
       <c r="D44" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" s="114" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B45" s="114" t="e">
         <v>#N/A</v>
       </c>
       <c r="C45" s="115"/>
       <c r="D45" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" s="114" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B46" s="114" t="e">
         <v>#N/A</v>
       </c>
       <c r="D46" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">

--- a/Wyoming/WaterAllocation/WY_POD_Allocation Schema Mapping to WaDE_QA.xlsx
+++ b/Wyoming/WaterAllocation/WY_POD_Allocation Schema Mapping to WaDE_QA.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rjame\Documents\WSWC Documents\MappingStatesDataToWaDE2.0\Wyoming\WaterAllocation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6351352F-85ED-4A54-B8EE-0A44EC02CBC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8D534ED-3F95-4639-8BED-F9DDFCF5EB51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" tabRatio="714" activeTab="6" xr2:uid="{10FC1BAB-5472-410C-A2F0-85DCDF5389F8}"/>
+    <workbookView xWindow="-23148" yWindow="1692" windowWidth="23256" windowHeight="12456" tabRatio="714" activeTab="1" xr2:uid="{10FC1BAB-5472-410C-A2F0-85DCDF5389F8}"/>
   </bookViews>
   <sheets>
     <sheet name="Mapping Notes" sheetId="10" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1317" uniqueCount="525">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1317" uniqueCount="526">
   <si>
     <t>Name</t>
   </si>
@@ -1377,12 +1377,6 @@
     <t>(blank)</t>
   </si>
   <si>
-    <t>Adjudicated</t>
-  </si>
-  <si>
-    <t>http://library.wrds.uwyo.edu/wrp/90-17/</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Consumptive Use</t>
   </si>
   <si>
@@ -1488,9 +1482,6 @@
   </si>
   <si>
     <t>data was made avaiable by a temporary google drive link.  Files were saved locacly and uploaded to GiHub.</t>
-  </si>
-  <si>
-    <t>Water allocations points of diversions for surface water springs and ground water wells.</t>
   </si>
   <si>
     <t>Active</t>
@@ -1664,6 +1655,18 @@
   </si>
   <si>
     <t>WYwr_WR + counter</t>
+  </si>
+  <si>
+    <t>Type File Geodatabase Feature Class Tags Water, State of Wyoming, Water Development Office, Wells, e-Permit. Summary This dataset provides the Wyoming Water Development Office a statewide dataset of water right locations for groundwater wells. April, 2020. GCS_North_American_1983. 1:24,000. Description These data represent ground water wells with greater than 500 gallons per minute (GPM) permitted capacity, and which do not have stock watering or coalbed methane as their only beneficial use. All data are sourced from the Wyoming State Engineer's Office (SEO), e-Permit download of 03/02/2019. These data may be linked to other water rights-based datasets, including SEO water rights data and Wyoming Water Development Office (WDO) place of use (POU) feature classes, via attribute WR_Number. Credits Created by Confluence Consulting Inc of Bozeman, Montana. Wyoming State Engineer's Office, e-permit download data. Use limitations These GIS data were compiled from Wyoming Water Development Commission (WWDC) funded projects, Wyoming State Engineer’s Office (SEO) records, and/or other sources for the use and convenience of the public. These data may not be complete or accurately represent the conditions on the ground, and no decision involving a risk of economic loss or physical injury should be made in reliance thereon. The WWDC and the Water Resources Data System (WRDS) do not endorse or recommend the use of these data for any other purpose than originally developed and are providing these data "as is," and disclaim any and all warranties, whether expressed or implied, including (without limitation) any implied warranties of merchantability or fitness for a particular purpose. Users of this information assume the entire risk to the use of these data and should review or consult the primary data and information sources to ascertain the reliability or usability of the information. Comprehensive water rights information is only available through researching the water rights on file with the SEO and Board of Control. The State of Wyoming and its agencies assume no liability associated with the use or misuse of this information and specifically retain sovereign immunity and all defenses available to them by law. Extent West -111.044988 East -104.049287 North 44.996573 South 41.002113 Scale Range Maximum (zoomed in) 1:5,000 Minimum (zoomed out) 1:625,000</t>
+  </si>
+  <si>
+    <t>Wyoming Water Rights Method</t>
+  </si>
+  <si>
+    <t>https://waterplan.state.wy.us/plan/bear/2001/techmemos/waterlaw.pdf</t>
+  </si>
+  <si>
+    <t>Legal Processes</t>
   </si>
 </sst>
 </file>
@@ -2543,7 +2546,7 @@
     <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="128">
+  <cellXfs count="122">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2662,9 +2665,6 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2677,15 +2677,12 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2791,13 +2788,7 @@
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2846,7 +2837,6 @@
     <xf numFmtId="0" fontId="35" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2907,9 +2897,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3297,12 +3284,12 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.44140625" style="44" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.44140625" style="43" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="79" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="43" t="s">
         <v>235</v>
       </c>
       <c r="B1" t="s">
@@ -3310,29 +3297,29 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="44" t="s">
+      <c r="A2" s="43" t="s">
         <v>236</v>
       </c>
       <c r="B2" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="44" t="s">
+      <c r="A4" s="43" t="s">
         <v>237</v>
       </c>
-      <c r="B4" s="107" t="s">
-        <v>473</v>
+      <c r="B4" s="102" t="s">
+        <v>471</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" s="44" t="s">
+      <c r="A8" s="43" t="s">
         <v>238</v>
       </c>
-      <c r="B8" s="97"/>
+      <c r="B8" s="93"/>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" s="44" t="s">
+      <c r="A17" s="43" t="s">
         <v>241</v>
       </c>
       <c r="B17" t="s">
@@ -3341,17 +3328,17 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
     </row>
   </sheetData>
@@ -3364,8 +3351,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2606DDD-D901-4365-BB8D-3E6142C84460}">
   <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3384,32 +3371,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="50"/>
-      <c r="B1" s="50"/>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="H1" s="51"/>
+      <c r="A1" s="48"/>
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="H1" s="49"/>
     </row>
     <row r="2" spans="1:10" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="52" t="s">
+      <c r="A2" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="52" t="s">
+      <c r="B2" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="52" t="s">
+      <c r="C2" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="53" t="s">
+      <c r="D2" s="51" t="s">
         <v>37</v>
       </c>
-      <c r="E2" s="54" t="s">
+      <c r="E2" s="52" t="s">
         <v>141</v>
       </c>
-      <c r="F2" s="55" t="s">
+      <c r="F2" s="53" t="s">
         <v>156</v>
       </c>
-      <c r="G2" s="56" t="s">
+      <c r="G2" s="54" t="s">
         <v>157</v>
       </c>
       <c r="H2" s="2" t="s">
@@ -3435,54 +3422,54 @@
       <c r="D3" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="57" t="s">
-        <v>38</v>
-      </c>
-      <c r="F3" s="57" t="s">
-        <v>38</v>
-      </c>
-      <c r="G3" s="58" t="s">
-        <v>38</v>
-      </c>
-      <c r="H3" s="77" t="s">
-        <v>38</v>
-      </c>
-      <c r="I3" s="78">
+      <c r="E3" s="55" t="s">
+        <v>38</v>
+      </c>
+      <c r="F3" s="55" t="s">
+        <v>38</v>
+      </c>
+      <c r="G3" s="56" t="s">
+        <v>38</v>
+      </c>
+      <c r="H3" s="75" t="s">
+        <v>38</v>
+      </c>
+      <c r="I3" s="76">
         <v>11</v>
       </c>
-      <c r="J3" s="79" t="s">
+      <c r="J3" s="77" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="51" t="s">
+      <c r="A4" s="49" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="59" t="s">
+      <c r="B4" s="57" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="60" t="s">
-        <v>38</v>
-      </c>
-      <c r="D4" s="61" t="s">
-        <v>38</v>
-      </c>
-      <c r="E4" s="96" t="s">
-        <v>519</v>
-      </c>
-      <c r="F4" s="62" t="s">
-        <v>38</v>
-      </c>
-      <c r="G4" s="63" t="s">
-        <v>38</v>
-      </c>
-      <c r="H4" s="77" t="s">
-        <v>38</v>
-      </c>
-      <c r="I4" s="78" t="s">
+      <c r="C4" s="58" t="s">
+        <v>38</v>
+      </c>
+      <c r="D4" s="59" t="s">
+        <v>38</v>
+      </c>
+      <c r="E4" s="92" t="s">
+        <v>516</v>
+      </c>
+      <c r="F4" s="60" t="s">
+        <v>38</v>
+      </c>
+      <c r="G4" s="61" t="s">
+        <v>38</v>
+      </c>
+      <c r="H4" s="75" t="s">
+        <v>38</v>
+      </c>
+      <c r="I4" s="76" t="s">
         <v>434</v>
       </c>
-      <c r="J4" s="79" t="s">
+      <c r="J4" s="77" t="s">
         <v>188</v>
       </c>
     </row>
@@ -3499,22 +3486,22 @@
       <c r="D5" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="E5" s="43" t="s">
+      <c r="E5" s="42" t="s">
         <v>435</v>
       </c>
-      <c r="F5" s="47" t="s">
-        <v>38</v>
-      </c>
-      <c r="G5" s="48" t="s">
-        <v>38</v>
-      </c>
-      <c r="H5" s="77" t="s">
-        <v>38</v>
-      </c>
-      <c r="I5" s="78" t="s">
+      <c r="F5" s="44" t="s">
+        <v>38</v>
+      </c>
+      <c r="G5" s="46" t="s">
+        <v>38</v>
+      </c>
+      <c r="H5" s="75" t="s">
+        <v>38</v>
+      </c>
+      <c r="I5" s="76" t="s">
         <v>108</v>
       </c>
-      <c r="J5" s="79" t="s">
+      <c r="J5" s="77" t="s">
         <v>239</v>
       </c>
     </row>
@@ -3531,22 +3518,22 @@
       <c r="D6" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="E6" s="47" t="s">
+      <c r="E6" s="44" t="s">
         <v>436</v>
       </c>
-      <c r="F6" s="47" t="s">
-        <v>38</v>
-      </c>
-      <c r="G6" s="48" t="s">
-        <v>38</v>
-      </c>
-      <c r="H6" s="77" t="s">
-        <v>38</v>
-      </c>
-      <c r="I6" s="80">
+      <c r="F6" s="44" t="s">
+        <v>38</v>
+      </c>
+      <c r="G6" s="46" t="s">
+        <v>38</v>
+      </c>
+      <c r="H6" s="75" t="s">
+        <v>38</v>
+      </c>
+      <c r="I6" s="78">
         <v>0.5</v>
       </c>
-      <c r="J6" s="79" t="s">
+      <c r="J6" s="77" t="s">
         <v>171</v>
       </c>
     </row>
@@ -3563,22 +3550,22 @@
       <c r="D7" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="E7" s="47" t="s">
+      <c r="E7" s="44" t="s">
         <v>436</v>
       </c>
-      <c r="F7" s="47" t="s">
-        <v>38</v>
-      </c>
-      <c r="G7" s="48" t="s">
-        <v>38</v>
-      </c>
-      <c r="H7" s="77" t="s">
-        <v>38</v>
-      </c>
-      <c r="I7" s="81" t="s">
-        <v>38</v>
-      </c>
-      <c r="J7" s="79" t="s">
+      <c r="F7" s="44" t="s">
+        <v>38</v>
+      </c>
+      <c r="G7" s="46" t="s">
+        <v>38</v>
+      </c>
+      <c r="H7" s="75" t="s">
+        <v>38</v>
+      </c>
+      <c r="I7" s="79" t="s">
+        <v>38</v>
+      </c>
+      <c r="J7" s="77" t="s">
         <v>170</v>
       </c>
     </row>
@@ -3595,22 +3582,22 @@
       <c r="D8" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="E8" s="47" t="s">
+      <c r="E8" s="44" t="s">
         <v>436</v>
       </c>
-      <c r="F8" s="47" t="s">
-        <v>38</v>
-      </c>
-      <c r="G8" s="48" t="s">
-        <v>38</v>
-      </c>
-      <c r="H8" s="77" t="s">
-        <v>38</v>
-      </c>
-      <c r="I8" s="81" t="s">
+      <c r="F8" s="44" t="s">
+        <v>38</v>
+      </c>
+      <c r="G8" s="46" t="s">
+        <v>38</v>
+      </c>
+      <c r="H8" s="75" t="s">
+        <v>38</v>
+      </c>
+      <c r="I8" s="79" t="s">
         <v>210</v>
       </c>
-      <c r="J8" s="79" t="s">
+      <c r="J8" s="77" t="s">
         <v>215</v>
       </c>
     </row>
@@ -3627,20 +3614,20 @@
       <c r="D9" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="E9" s="43" t="s">
-        <v>474</v>
-      </c>
-      <c r="F9" s="47" t="s">
-        <v>38</v>
-      </c>
-      <c r="G9" s="48" t="s">
-        <v>38</v>
-      </c>
-      <c r="H9" s="77" t="s">
-        <v>38</v>
-      </c>
-      <c r="I9" s="82"/>
-      <c r="J9" s="79" t="s">
+      <c r="E9" s="42" t="s">
+        <v>522</v>
+      </c>
+      <c r="F9" s="44" t="s">
+        <v>38</v>
+      </c>
+      <c r="G9" s="46" t="s">
+        <v>38</v>
+      </c>
+      <c r="H9" s="75" t="s">
+        <v>38</v>
+      </c>
+      <c r="I9" s="80"/>
+      <c r="J9" s="77" t="s">
         <v>211</v>
       </c>
     </row>
@@ -3657,26 +3644,26 @@
       <c r="D10" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="E10" s="43" t="s">
-        <v>437</v>
-      </c>
-      <c r="F10" s="47" t="s">
-        <v>38</v>
-      </c>
-      <c r="G10" s="48" t="s">
-        <v>38</v>
-      </c>
-      <c r="H10" s="77" t="s">
-        <v>38</v>
-      </c>
-      <c r="I10" s="78" t="s">
+      <c r="E10" s="42" t="s">
+        <v>523</v>
+      </c>
+      <c r="F10" s="44" t="s">
+        <v>38</v>
+      </c>
+      <c r="G10" s="46" t="s">
+        <v>38</v>
+      </c>
+      <c r="H10" s="75" t="s">
+        <v>38</v>
+      </c>
+      <c r="I10" s="76" t="s">
         <v>142</v>
       </c>
-      <c r="J10" s="79" t="s">
+      <c r="J10" s="77" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="24" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" ht="36" x14ac:dyDescent="0.3">
       <c r="A11" s="35" t="s">
         <v>9</v>
       </c>
@@ -3689,22 +3676,22 @@
       <c r="D11" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="E11" s="95" t="s">
-        <v>438</v>
-      </c>
-      <c r="F11" s="47" t="s">
-        <v>38</v>
-      </c>
-      <c r="G11" s="48" t="s">
-        <v>38</v>
-      </c>
-      <c r="H11" s="77" t="s">
-        <v>38</v>
-      </c>
-      <c r="I11" s="78" t="s">
+      <c r="E11" s="91" t="s">
+        <v>524</v>
+      </c>
+      <c r="F11" s="44" t="s">
+        <v>38</v>
+      </c>
+      <c r="G11" s="46" t="s">
+        <v>38</v>
+      </c>
+      <c r="H11" s="75" t="s">
+        <v>38</v>
+      </c>
+      <c r="I11" s="76" t="s">
         <v>107</v>
       </c>
-      <c r="J11" s="79" t="s">
+      <c r="J11" s="77" t="s">
         <v>172</v>
       </c>
     </row>
@@ -3721,37 +3708,40 @@
       <c r="D12" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="E12" s="43" t="s">
-        <v>437</v>
-      </c>
-      <c r="F12" s="47" t="s">
-        <v>38</v>
-      </c>
-      <c r="G12" s="48" t="s">
-        <v>38</v>
-      </c>
-      <c r="H12" s="77" t="s">
-        <v>38</v>
-      </c>
-      <c r="I12" s="78" t="s">
+      <c r="E12" s="42" t="s">
+        <v>525</v>
+      </c>
+      <c r="F12" s="44" t="s">
+        <v>38</v>
+      </c>
+      <c r="G12" s="46" t="s">
+        <v>38</v>
+      </c>
+      <c r="H12" s="75" t="s">
+        <v>38</v>
+      </c>
+      <c r="I12" s="76" t="s">
         <v>109</v>
       </c>
-      <c r="J12" s="79" t="s">
+      <c r="J12" s="77" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="E16" s="94"/>
+      <c r="E16" s="90"/>
     </row>
     <row r="17" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E17" s="94"/>
+      <c r="E17" s="90"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A18:A26">
     <sortCondition ref="A18:A26"/>
   </sortState>
+  <hyperlinks>
+    <hyperlink ref="E11" r:id="rId1" xr:uid="{29056BF3-4647-4095-A5F7-9C025F9A0278}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -3833,13 +3823,13 @@
       <c r="E3" s="22"/>
       <c r="F3" s="22"/>
       <c r="G3" s="23"/>
-      <c r="H3" s="77" t="s">
-        <v>38</v>
-      </c>
-      <c r="I3" s="78">
+      <c r="H3" s="75" t="s">
+        <v>38</v>
+      </c>
+      <c r="I3" s="76">
         <v>16</v>
       </c>
-      <c r="J3" s="79" t="s">
+      <c r="J3" s="77" t="s">
         <v>169</v>
       </c>
     </row>
@@ -3856,8 +3846,8 @@
       <c r="D4" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="E4" s="96" t="s">
-        <v>520</v>
+      <c r="E4" s="92" t="s">
+        <v>517</v>
       </c>
       <c r="F4" s="30" t="s">
         <v>38</v>
@@ -3865,13 +3855,13 @@
       <c r="G4" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="H4" s="77" t="s">
-        <v>38</v>
-      </c>
-      <c r="I4" s="78" t="s">
+      <c r="H4" s="75" t="s">
+        <v>38</v>
+      </c>
+      <c r="I4" s="76" t="s">
         <v>139</v>
       </c>
-      <c r="J4" s="79" t="s">
+      <c r="J4" s="77" t="s">
         <v>173</v>
       </c>
     </row>
@@ -3888,18 +3878,18 @@
       <c r="D5" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E5" s="104">
+      <c r="E5" s="99">
         <v>1</v>
       </c>
       <c r="F5" s="16"/>
       <c r="G5" s="17"/>
-      <c r="H5" s="77" t="s">
-        <v>38</v>
-      </c>
-      <c r="I5" s="78">
+      <c r="H5" s="75" t="s">
+        <v>38</v>
+      </c>
+      <c r="I5" s="76">
         <v>1</v>
       </c>
-      <c r="J5" s="79" t="s">
+      <c r="J5" s="77" t="s">
         <v>174</v>
       </c>
     </row>
@@ -3916,22 +3906,22 @@
       <c r="D6" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="104" t="s">
-        <v>442</v>
-      </c>
-      <c r="F6" s="47" t="s">
-        <v>38</v>
-      </c>
-      <c r="G6" s="48" t="s">
-        <v>38</v>
-      </c>
-      <c r="H6" s="77" t="s">
-        <v>38</v>
-      </c>
-      <c r="I6" s="78" t="s">
+      <c r="E6" s="99" t="s">
+        <v>440</v>
+      </c>
+      <c r="F6" s="44" t="s">
+        <v>38</v>
+      </c>
+      <c r="G6" s="46" t="s">
+        <v>38</v>
+      </c>
+      <c r="H6" s="75" t="s">
+        <v>38</v>
+      </c>
+      <c r="I6" s="76" t="s">
         <v>111</v>
       </c>
-      <c r="J6" s="79" t="s">
+      <c r="J6" s="77" t="s">
         <v>175</v>
       </c>
     </row>
@@ -3948,22 +3938,22 @@
       <c r="D7" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="E7" s="104" t="s">
+      <c r="E7" s="99" t="s">
         <v>110</v>
       </c>
-      <c r="F7" s="47" t="s">
-        <v>38</v>
-      </c>
-      <c r="G7" s="48" t="s">
-        <v>38</v>
-      </c>
-      <c r="H7" s="77" t="s">
-        <v>38</v>
-      </c>
-      <c r="I7" s="78" t="s">
+      <c r="F7" s="44" t="s">
+        <v>38</v>
+      </c>
+      <c r="G7" s="46" t="s">
+        <v>38</v>
+      </c>
+      <c r="H7" s="75" t="s">
+        <v>38</v>
+      </c>
+      <c r="I7" s="76" t="s">
         <v>110</v>
       </c>
-      <c r="J7" s="79" t="s">
+      <c r="J7" s="77" t="s">
         <v>216</v>
       </c>
     </row>
@@ -3980,22 +3970,22 @@
       <c r="D8" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="E8" s="104" t="s">
+      <c r="E8" s="99" t="s">
         <v>113</v>
       </c>
-      <c r="F8" s="47" t="s">
-        <v>38</v>
-      </c>
-      <c r="G8" s="48" t="s">
-        <v>38</v>
-      </c>
-      <c r="H8" s="77" t="s">
-        <v>38</v>
-      </c>
-      <c r="I8" s="78" t="s">
+      <c r="F8" s="44" t="s">
+        <v>38</v>
+      </c>
+      <c r="G8" s="46" t="s">
+        <v>38</v>
+      </c>
+      <c r="H8" s="75" t="s">
+        <v>38</v>
+      </c>
+      <c r="I8" s="76" t="s">
         <v>113</v>
       </c>
-      <c r="J8" s="79" t="s">
+      <c r="J8" s="77" t="s">
         <v>217</v>
       </c>
     </row>
@@ -4012,22 +4002,22 @@
       <c r="D9" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="E9" s="104" t="s">
+      <c r="E9" s="99" t="s">
         <v>114</v>
       </c>
-      <c r="F9" s="47" t="s">
-        <v>38</v>
-      </c>
-      <c r="G9" s="48" t="s">
-        <v>38</v>
-      </c>
-      <c r="H9" s="77" t="s">
-        <v>38</v>
-      </c>
-      <c r="I9" s="78" t="s">
+      <c r="F9" s="44" t="s">
+        <v>38</v>
+      </c>
+      <c r="G9" s="46" t="s">
+        <v>38</v>
+      </c>
+      <c r="H9" s="75" t="s">
+        <v>38</v>
+      </c>
+      <c r="I9" s="76" t="s">
         <v>114</v>
       </c>
-      <c r="J9" s="79" t="s">
+      <c r="J9" s="77" t="s">
         <v>212</v>
       </c>
     </row>
@@ -4044,22 +4034,22 @@
       <c r="D10" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E10" s="104">
+      <c r="E10" s="99">
         <v>11</v>
       </c>
-      <c r="F10" s="47" t="s">
-        <v>38</v>
-      </c>
-      <c r="G10" s="48" t="s">
-        <v>38</v>
-      </c>
-      <c r="H10" s="77" t="s">
-        <v>38</v>
-      </c>
-      <c r="I10" s="78">
+      <c r="F10" s="44" t="s">
+        <v>38</v>
+      </c>
+      <c r="G10" s="46" t="s">
+        <v>38</v>
+      </c>
+      <c r="H10" s="75" t="s">
+        <v>38</v>
+      </c>
+      <c r="I10" s="76">
         <v>10</v>
       </c>
-      <c r="J10" s="79" t="s">
+      <c r="J10" s="77" t="s">
         <v>176</v>
       </c>
     </row>
@@ -4076,22 +4066,22 @@
       <c r="D11" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="E11" s="104" t="s">
+      <c r="E11" s="99" t="s">
         <v>112</v>
       </c>
-      <c r="F11" s="47" t="s">
-        <v>38</v>
-      </c>
-      <c r="G11" s="48" t="s">
-        <v>38</v>
-      </c>
-      <c r="H11" s="77" t="s">
-        <v>38</v>
-      </c>
-      <c r="I11" s="78" t="s">
+      <c r="F11" s="44" t="s">
+        <v>38</v>
+      </c>
+      <c r="G11" s="46" t="s">
+        <v>38</v>
+      </c>
+      <c r="H11" s="75" t="s">
+        <v>38</v>
+      </c>
+      <c r="I11" s="76" t="s">
         <v>112</v>
       </c>
-      <c r="J11" s="79" t="s">
+      <c r="J11" s="77" t="s">
         <v>218</v>
       </c>
     </row>
@@ -4108,22 +4098,22 @@
       <c r="D12" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="E12" s="104" t="s">
-        <v>439</v>
-      </c>
-      <c r="F12" s="47" t="s">
-        <v>38</v>
-      </c>
-      <c r="G12" s="48" t="s">
-        <v>38</v>
-      </c>
-      <c r="H12" s="77" t="s">
-        <v>38</v>
-      </c>
-      <c r="I12" s="78" t="s">
+      <c r="E12" s="99" t="s">
+        <v>437</v>
+      </c>
+      <c r="F12" s="44" t="s">
+        <v>38</v>
+      </c>
+      <c r="G12" s="46" t="s">
+        <v>38</v>
+      </c>
+      <c r="H12" s="75" t="s">
+        <v>38</v>
+      </c>
+      <c r="I12" s="76" t="s">
         <v>143</v>
       </c>
-      <c r="J12" s="79" t="s">
+      <c r="J12" s="77" t="s">
         <v>219</v>
       </c>
     </row>
@@ -4140,22 +4130,22 @@
       <c r="D13" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="E13" s="104" t="s">
-        <v>439</v>
-      </c>
-      <c r="F13" s="47" t="s">
-        <v>38</v>
-      </c>
-      <c r="G13" s="48" t="s">
-        <v>38</v>
-      </c>
-      <c r="H13" s="77" t="s">
-        <v>38</v>
-      </c>
-      <c r="I13" s="78" t="s">
+      <c r="E13" s="99" t="s">
+        <v>437</v>
+      </c>
+      <c r="F13" s="44" t="s">
+        <v>38</v>
+      </c>
+      <c r="G13" s="46" t="s">
+        <v>38</v>
+      </c>
+      <c r="H13" s="75" t="s">
+        <v>38</v>
+      </c>
+      <c r="I13" s="76" t="s">
         <v>115</v>
       </c>
-      <c r="J13" s="79" t="s">
+      <c r="J13" s="77" t="s">
         <v>213</v>
       </c>
     </row>
@@ -4252,13 +4242,13 @@
       <c r="G3" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="H3" s="77" t="s">
-        <v>38</v>
-      </c>
-      <c r="I3" s="82">
+      <c r="H3" s="75" t="s">
+        <v>38</v>
+      </c>
+      <c r="I3" s="80">
         <v>1</v>
       </c>
-      <c r="J3" s="79" t="s">
+      <c r="J3" s="77" t="s">
         <v>169</v>
       </c>
     </row>
@@ -4275,8 +4265,8 @@
       <c r="D4" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="E4" s="41" t="s">
-        <v>521</v>
+      <c r="E4" s="40" t="s">
+        <v>518</v>
       </c>
       <c r="F4" s="30" t="s">
         <v>38</v>
@@ -4284,13 +4274,13 @@
       <c r="G4" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="H4" s="77" t="s">
-        <v>38</v>
-      </c>
-      <c r="I4" s="82" t="s">
+      <c r="H4" s="75" t="s">
+        <v>38</v>
+      </c>
+      <c r="I4" s="80" t="s">
         <v>126</v>
       </c>
-      <c r="J4" s="79" t="s">
+      <c r="J4" s="77" t="s">
         <v>177</v>
       </c>
     </row>
@@ -4307,8 +4297,8 @@
       <c r="D5" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E5" s="108" t="s">
-        <v>447</v>
+      <c r="E5" s="103" t="s">
+        <v>445</v>
       </c>
       <c r="F5" s="16" t="s">
         <v>38</v>
@@ -4316,13 +4306,13 @@
       <c r="G5" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="H5" s="77" t="s">
-        <v>38</v>
-      </c>
-      <c r="I5" s="82" t="s">
+      <c r="H5" s="75" t="s">
+        <v>38</v>
+      </c>
+      <c r="I5" s="80" t="s">
         <v>130</v>
       </c>
-      <c r="J5" s="79" t="s">
+      <c r="J5" s="77" t="s">
         <v>178</v>
       </c>
     </row>
@@ -4339,22 +4329,22 @@
       <c r="D6" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E6" s="46" t="s">
-        <v>446</v>
-      </c>
-      <c r="F6" s="47" t="s">
-        <v>38</v>
-      </c>
-      <c r="G6" s="48" t="s">
-        <v>38</v>
-      </c>
-      <c r="H6" s="77" t="s">
-        <v>38</v>
-      </c>
-      <c r="I6" s="82" t="s">
+      <c r="E6" s="45" t="s">
+        <v>444</v>
+      </c>
+      <c r="F6" s="44" t="s">
+        <v>38</v>
+      </c>
+      <c r="G6" s="46" t="s">
+        <v>38</v>
+      </c>
+      <c r="H6" s="75" t="s">
+        <v>38</v>
+      </c>
+      <c r="I6" s="80" t="s">
         <v>129</v>
       </c>
-      <c r="J6" s="79" t="s">
+      <c r="J6" s="77" t="s">
         <v>179</v>
       </c>
     </row>
@@ -4371,22 +4361,22 @@
       <c r="D7" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E7" s="105" t="s">
-        <v>448</v>
-      </c>
-      <c r="F7" s="47" t="s">
-        <v>38</v>
-      </c>
-      <c r="G7" s="48" t="s">
-        <v>38</v>
-      </c>
-      <c r="H7" s="77" t="s">
-        <v>38</v>
-      </c>
-      <c r="I7" s="82" t="s">
+      <c r="E7" s="100" t="s">
+        <v>446</v>
+      </c>
+      <c r="F7" s="44" t="s">
+        <v>38</v>
+      </c>
+      <c r="G7" s="46" t="s">
+        <v>38</v>
+      </c>
+      <c r="H7" s="75" t="s">
+        <v>38</v>
+      </c>
+      <c r="I7" s="80" t="s">
         <v>127</v>
       </c>
-      <c r="J7" s="79" t="s">
+      <c r="J7" s="77" t="s">
         <v>180</v>
       </c>
     </row>
@@ -4403,22 +4393,22 @@
       <c r="D8" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E8" s="106" t="s">
-        <v>443</v>
-      </c>
-      <c r="F8" s="47" t="s">
-        <v>38</v>
-      </c>
-      <c r="G8" s="48" t="s">
-        <v>38</v>
-      </c>
-      <c r="H8" s="77" t="s">
-        <v>38</v>
-      </c>
-      <c r="I8" s="82" t="s">
+      <c r="E8" s="101" t="s">
+        <v>441</v>
+      </c>
+      <c r="F8" s="44" t="s">
+        <v>38</v>
+      </c>
+      <c r="G8" s="46" t="s">
+        <v>38</v>
+      </c>
+      <c r="H8" s="75" t="s">
+        <v>38</v>
+      </c>
+      <c r="I8" s="80" t="s">
         <v>146</v>
       </c>
-      <c r="J8" s="79" t="s">
+      <c r="J8" s="77" t="s">
         <v>181</v>
       </c>
     </row>
@@ -4435,22 +4425,22 @@
       <c r="D9" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E9" s="46" t="s">
-        <v>445</v>
-      </c>
-      <c r="F9" s="47" t="s">
-        <v>38</v>
-      </c>
-      <c r="G9" s="48" t="s">
-        <v>38</v>
-      </c>
-      <c r="H9" s="77" t="s">
-        <v>38</v>
-      </c>
-      <c r="I9" s="82" t="s">
+      <c r="E9" s="45" t="s">
+        <v>443</v>
+      </c>
+      <c r="F9" s="44" t="s">
+        <v>38</v>
+      </c>
+      <c r="G9" s="46" t="s">
+        <v>38</v>
+      </c>
+      <c r="H9" s="75" t="s">
+        <v>38</v>
+      </c>
+      <c r="I9" s="80" t="s">
         <v>128</v>
       </c>
-      <c r="J9" s="79" t="s">
+      <c r="J9" s="77" t="s">
         <v>182</v>
       </c>
     </row>
@@ -4467,22 +4457,22 @@
       <c r="D10" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E10" s="46" t="s">
-        <v>450</v>
-      </c>
-      <c r="F10" s="47" t="s">
-        <v>38</v>
-      </c>
-      <c r="G10" s="48" t="s">
-        <v>38</v>
-      </c>
-      <c r="H10" s="77" t="s">
-        <v>38</v>
-      </c>
-      <c r="I10" s="82" t="s">
+      <c r="E10" s="45" t="s">
+        <v>448</v>
+      </c>
+      <c r="F10" s="44" t="s">
+        <v>38</v>
+      </c>
+      <c r="G10" s="46" t="s">
+        <v>38</v>
+      </c>
+      <c r="H10" s="75" t="s">
+        <v>38</v>
+      </c>
+      <c r="I10" s="80" t="s">
         <v>147</v>
       </c>
-      <c r="J10" s="79" t="s">
+      <c r="J10" s="77" t="s">
         <v>183</v>
       </c>
     </row>
@@ -4499,22 +4489,22 @@
       <c r="D11" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E11" s="108" t="s">
-        <v>444</v>
-      </c>
-      <c r="F11" s="47" t="s">
-        <v>38</v>
-      </c>
-      <c r="G11" s="48" t="s">
-        <v>38</v>
-      </c>
-      <c r="H11" s="77" t="s">
-        <v>38</v>
-      </c>
-      <c r="I11" s="82" t="s">
+      <c r="E11" s="103" t="s">
+        <v>442</v>
+      </c>
+      <c r="F11" s="44" t="s">
+        <v>38</v>
+      </c>
+      <c r="G11" s="46" t="s">
+        <v>38</v>
+      </c>
+      <c r="H11" s="75" t="s">
+        <v>38</v>
+      </c>
+      <c r="I11" s="80" t="s">
         <v>127</v>
       </c>
-      <c r="J11" s="79" t="s">
+      <c r="J11" s="77" t="s">
         <v>184</v>
       </c>
     </row>
@@ -4532,21 +4522,21 @@
         <v>38</v>
       </c>
       <c r="E12" s="15" t="s">
-        <v>449</v>
-      </c>
-      <c r="F12" s="47" t="s">
-        <v>38</v>
-      </c>
-      <c r="G12" s="48" t="s">
-        <v>38</v>
-      </c>
-      <c r="H12" s="77" t="s">
-        <v>38</v>
-      </c>
-      <c r="I12" s="82" t="s">
+        <v>447</v>
+      </c>
+      <c r="F12" s="44" t="s">
+        <v>38</v>
+      </c>
+      <c r="G12" s="46" t="s">
+        <v>38</v>
+      </c>
+      <c r="H12" s="75" t="s">
+        <v>38</v>
+      </c>
+      <c r="I12" s="80" t="s">
         <v>131</v>
       </c>
-      <c r="J12" s="79" t="s">
+      <c r="J12" s="77" t="s">
         <v>185</v>
       </c>
     </row>
@@ -4612,32 +4602,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="64"/>
-      <c r="B1" s="64"/>
-      <c r="C1" s="64"/>
-      <c r="D1" s="64"/>
-      <c r="H1" s="51"/>
+      <c r="A1" s="62"/>
+      <c r="B1" s="62"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
+      <c r="H1" s="49"/>
     </row>
     <row r="2" spans="1:10" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="52" t="s">
+      <c r="A2" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="52" t="s">
+      <c r="B2" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="52" t="s">
+      <c r="C2" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="65" t="s">
+      <c r="D2" s="63" t="s">
         <v>37</v>
       </c>
-      <c r="E2" s="54" t="s">
+      <c r="E2" s="52" t="s">
         <v>141</v>
       </c>
-      <c r="F2" s="55" t="s">
+      <c r="F2" s="53" t="s">
         <v>156</v>
       </c>
-      <c r="G2" s="56" t="s">
+      <c r="G2" s="54" t="s">
         <v>157</v>
       </c>
       <c r="H2" s="2" t="s">
@@ -4665,42 +4655,42 @@
       </c>
       <c r="E3" s="18"/>
       <c r="F3" s="18"/>
-      <c r="G3" s="66"/>
-      <c r="H3" s="83"/>
-      <c r="I3" s="78">
+      <c r="G3" s="64"/>
+      <c r="H3" s="75"/>
+      <c r="I3" s="76">
         <v>34658</v>
       </c>
-      <c r="J3" s="79" t="s">
+      <c r="J3" s="77" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="51" t="s">
+      <c r="A4" s="49" t="s">
         <v>40</v>
       </c>
-      <c r="B4" s="59" t="s">
+      <c r="B4" s="57" t="s">
         <v>34</v>
       </c>
-      <c r="C4" s="60" t="s">
-        <v>38</v>
-      </c>
-      <c r="D4" s="61" t="s">
-        <v>38</v>
-      </c>
-      <c r="E4" s="67" t="s">
-        <v>451</v>
-      </c>
-      <c r="F4" s="62" t="s">
-        <v>38</v>
-      </c>
-      <c r="G4" s="68" t="s">
-        <v>38</v>
-      </c>
-      <c r="H4" s="83"/>
-      <c r="I4" s="78" t="s">
+      <c r="C4" s="58" t="s">
+        <v>38</v>
+      </c>
+      <c r="D4" s="59" t="s">
+        <v>38</v>
+      </c>
+      <c r="E4" s="65" t="s">
+        <v>449</v>
+      </c>
+      <c r="F4" s="60" t="s">
+        <v>38</v>
+      </c>
+      <c r="G4" s="66" t="s">
+        <v>38</v>
+      </c>
+      <c r="H4" s="75"/>
+      <c r="I4" s="76" t="s">
         <v>116</v>
       </c>
-      <c r="J4" s="79" t="s">
+      <c r="J4" s="77" t="s">
         <v>187</v>
       </c>
     </row>
@@ -4717,20 +4707,20 @@
       <c r="D5" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="E5" s="45" t="s">
+      <c r="E5" s="44" t="s">
         <v>436</v>
       </c>
-      <c r="F5" s="45" t="s">
-        <v>38</v>
-      </c>
-      <c r="G5" s="48" t="s">
-        <v>38</v>
-      </c>
-      <c r="H5" s="83"/>
-      <c r="I5" s="84" t="s">
-        <v>38</v>
-      </c>
-      <c r="J5" s="79" t="s">
+      <c r="F5" s="44" t="s">
+        <v>38</v>
+      </c>
+      <c r="G5" s="46" t="s">
+        <v>38</v>
+      </c>
+      <c r="H5" s="75"/>
+      <c r="I5" s="79" t="s">
+        <v>38</v>
+      </c>
+      <c r="J5" s="77" t="s">
         <v>161</v>
       </c>
     </row>
@@ -4747,20 +4737,20 @@
       <c r="D6" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="45" t="s">
+      <c r="E6" s="44" t="s">
         <v>436</v>
       </c>
-      <c r="F6" s="45" t="s">
-        <v>38</v>
-      </c>
-      <c r="G6" s="48" t="s">
-        <v>38</v>
-      </c>
-      <c r="H6" s="83"/>
-      <c r="I6" s="84" t="s">
-        <v>38</v>
-      </c>
-      <c r="J6" s="79" t="s">
+      <c r="F6" s="44" t="s">
+        <v>38</v>
+      </c>
+      <c r="G6" s="46" t="s">
+        <v>38</v>
+      </c>
+      <c r="H6" s="75"/>
+      <c r="I6" s="79" t="s">
+        <v>38</v>
+      </c>
+      <c r="J6" s="77" t="s">
         <v>220</v>
       </c>
     </row>
@@ -4777,20 +4767,20 @@
       <c r="D7" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="E7" s="47" t="s">
+      <c r="E7" s="44" t="s">
         <v>118</v>
       </c>
-      <c r="F7" s="45" t="s">
-        <v>38</v>
-      </c>
-      <c r="G7" s="48" t="s">
-        <v>38</v>
-      </c>
-      <c r="H7" s="83"/>
-      <c r="I7" s="78" t="s">
+      <c r="F7" s="44" t="s">
+        <v>38</v>
+      </c>
+      <c r="G7" s="46" t="s">
+        <v>38</v>
+      </c>
+      <c r="H7" s="75"/>
+      <c r="I7" s="76" t="s">
         <v>118</v>
       </c>
-      <c r="J7" s="79" t="s">
+      <c r="J7" s="77" t="s">
         <v>221</v>
       </c>
     </row>
@@ -4810,17 +4800,17 @@
       <c r="E8" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="F8" s="43" t="s">
-        <v>456</v>
-      </c>
-      <c r="G8" s="49" t="s">
-        <v>460</v>
-      </c>
-      <c r="H8" s="85"/>
-      <c r="I8" s="78" t="s">
+      <c r="F8" s="42" t="s">
+        <v>454</v>
+      </c>
+      <c r="G8" s="47" t="s">
+        <v>458</v>
+      </c>
+      <c r="H8" s="81"/>
+      <c r="I8" s="76" t="s">
         <v>186</v>
       </c>
-      <c r="J8" s="79" t="s">
+      <c r="J8" s="77" t="s">
         <v>189</v>
       </c>
     </row>
@@ -4838,19 +4828,19 @@
         <v>38</v>
       </c>
       <c r="E9" s="24" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="F9" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="G9" s="48" t="s">
-        <v>38</v>
-      </c>
-      <c r="H9" s="83"/>
-      <c r="I9" s="78">
+      <c r="G9" s="46" t="s">
+        <v>38</v>
+      </c>
+      <c r="H9" s="75"/>
+      <c r="I9" s="76">
         <v>17839</v>
       </c>
-      <c r="J9" s="79" t="s">
+      <c r="J9" s="77" t="s">
         <v>190</v>
       </c>
     </row>
@@ -4868,7 +4858,7 @@
         <v>20</v>
       </c>
       <c r="E10" s="24" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="F10" s="24" t="s">
         <v>38</v>
@@ -4876,11 +4866,11 @@
       <c r="G10" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="H10" s="85"/>
-      <c r="I10" s="78" t="s">
+      <c r="H10" s="81"/>
+      <c r="I10" s="76" t="s">
         <v>108</v>
       </c>
-      <c r="J10" s="79" t="s">
+      <c r="J10" s="77" t="s">
         <v>222</v>
       </c>
     </row>
@@ -4925,32 +4915,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="64"/>
-      <c r="B1" s="64"/>
-      <c r="C1" s="64"/>
-      <c r="D1" s="64"/>
-      <c r="H1" s="51"/>
+      <c r="A1" s="62"/>
+      <c r="B1" s="62"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
+      <c r="H1" s="49"/>
     </row>
     <row r="2" spans="1:10" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="52" t="s">
+      <c r="A2" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="52" t="s">
+      <c r="B2" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="52" t="s">
+      <c r="C2" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="53" t="s">
+      <c r="D2" s="51" t="s">
         <v>37</v>
       </c>
-      <c r="E2" s="54" t="s">
+      <c r="E2" s="52" t="s">
         <v>141</v>
       </c>
-      <c r="F2" s="55" t="s">
+      <c r="F2" s="53" t="s">
         <v>156</v>
       </c>
-      <c r="G2" s="56" t="s">
+      <c r="G2" s="54" t="s">
         <v>157</v>
       </c>
       <c r="H2" s="2" t="s">
@@ -4985,39 +4975,39 @@
       <c r="G3" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="H3" s="83"/>
-      <c r="I3" s="82">
+      <c r="H3" s="75"/>
+      <c r="I3" s="80">
         <v>39035</v>
       </c>
-      <c r="J3" s="79" t="s">
+      <c r="J3" s="77" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="51" t="s">
+      <c r="A4" s="49" t="s">
         <v>49</v>
       </c>
-      <c r="B4" s="59" t="s">
+      <c r="B4" s="57" t="s">
         <v>67</v>
       </c>
-      <c r="C4" s="60"/>
-      <c r="D4" s="61" t="s">
-        <v>38</v>
-      </c>
-      <c r="E4" s="67" t="s">
-        <v>459</v>
-      </c>
-      <c r="F4" s="62" t="s">
-        <v>38</v>
-      </c>
-      <c r="G4" s="68" t="s">
-        <v>38</v>
-      </c>
-      <c r="H4" s="83"/>
-      <c r="I4" s="82" t="s">
+      <c r="C4" s="58"/>
+      <c r="D4" s="59" t="s">
+        <v>38</v>
+      </c>
+      <c r="E4" s="65" t="s">
+        <v>457</v>
+      </c>
+      <c r="F4" s="60" t="s">
+        <v>38</v>
+      </c>
+      <c r="G4" s="66" t="s">
+        <v>38</v>
+      </c>
+      <c r="H4" s="75"/>
+      <c r="I4" s="80" t="s">
         <v>119</v>
       </c>
-      <c r="J4" s="79" t="s">
+      <c r="J4" s="77" t="s">
         <v>160</v>
       </c>
     </row>
@@ -5035,19 +5025,19 @@
         <v>38</v>
       </c>
       <c r="E5" s="24" t="s">
-        <v>453</v>
-      </c>
-      <c r="F5" s="47" t="s">
-        <v>38</v>
-      </c>
-      <c r="G5" s="48" t="s">
-        <v>38</v>
-      </c>
-      <c r="H5" s="83"/>
-      <c r="I5" s="82" t="s">
+        <v>451</v>
+      </c>
+      <c r="F5" s="44" t="s">
+        <v>38</v>
+      </c>
+      <c r="G5" s="46" t="s">
+        <v>38</v>
+      </c>
+      <c r="H5" s="75"/>
+      <c r="I5" s="80" t="s">
         <v>117</v>
       </c>
-      <c r="J5" s="79" t="s">
+      <c r="J5" s="77" t="s">
         <v>227</v>
       </c>
     </row>
@@ -5065,19 +5055,19 @@
         <v>20</v>
       </c>
       <c r="E6" s="24" t="s">
-        <v>453</v>
-      </c>
-      <c r="F6" s="47" t="s">
-        <v>38</v>
-      </c>
-      <c r="G6" s="48" t="s">
-        <v>38</v>
-      </c>
-      <c r="H6" s="83"/>
-      <c r="I6" s="82" t="s">
+        <v>451</v>
+      </c>
+      <c r="F6" s="44" t="s">
+        <v>38</v>
+      </c>
+      <c r="G6" s="46" t="s">
+        <v>38</v>
+      </c>
+      <c r="H6" s="75"/>
+      <c r="I6" s="80" t="s">
         <v>124</v>
       </c>
-      <c r="J6" s="79" t="s">
+      <c r="J6" s="77" t="s">
         <v>223</v>
       </c>
     </row>
@@ -5097,17 +5087,17 @@
       <c r="E7" s="24" t="s">
         <v>436</v>
       </c>
-      <c r="F7" s="47" t="s">
-        <v>38</v>
-      </c>
-      <c r="G7" s="48" t="s">
-        <v>38</v>
-      </c>
-      <c r="H7" s="83"/>
-      <c r="I7" s="84" t="s">
-        <v>38</v>
-      </c>
-      <c r="J7" s="86" t="s">
+      <c r="F7" s="44" t="s">
+        <v>38</v>
+      </c>
+      <c r="G7" s="46" t="s">
+        <v>38</v>
+      </c>
+      <c r="H7" s="75"/>
+      <c r="I7" s="79" t="s">
+        <v>38</v>
+      </c>
+      <c r="J7" s="82" t="s">
         <v>158</v>
       </c>
     </row>
@@ -5124,20 +5114,20 @@
       <c r="D8" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="E8" s="43">
+      <c r="E8" s="42">
         <v>4326</v>
       </c>
-      <c r="F8" s="47" t="s">
-        <v>38</v>
-      </c>
-      <c r="G8" s="48" t="s">
-        <v>38</v>
-      </c>
-      <c r="H8" s="85"/>
-      <c r="I8" s="82" t="s">
+      <c r="F8" s="44" t="s">
+        <v>38</v>
+      </c>
+      <c r="G8" s="46" t="s">
+        <v>38</v>
+      </c>
+      <c r="H8" s="81"/>
+      <c r="I8" s="80" t="s">
         <v>125</v>
       </c>
-      <c r="J8" s="79" t="s">
+      <c r="J8" s="77" t="s">
         <v>162</v>
       </c>
     </row>
@@ -5157,15 +5147,15 @@
       <c r="E9" s="24" t="s">
         <v>436</v>
       </c>
-      <c r="F9" s="47" t="s">
-        <v>38</v>
-      </c>
-      <c r="G9" s="48" t="s">
-        <v>38</v>
-      </c>
-      <c r="H9" s="83"/>
-      <c r="I9" s="82"/>
-      <c r="J9" s="79" t="s">
+      <c r="F9" s="44" t="s">
+        <v>38</v>
+      </c>
+      <c r="G9" s="46" t="s">
+        <v>38</v>
+      </c>
+      <c r="H9" s="75"/>
+      <c r="I9" s="80"/>
+      <c r="J9" s="77" t="s">
         <v>161</v>
       </c>
     </row>
@@ -5185,17 +5175,17 @@
       <c r="E10" s="24" t="s">
         <v>436</v>
       </c>
-      <c r="F10" s="47" t="s">
-        <v>38</v>
-      </c>
-      <c r="G10" s="48" t="s">
-        <v>38</v>
-      </c>
-      <c r="H10" s="83"/>
-      <c r="I10" s="84" t="s">
-        <v>38</v>
-      </c>
-      <c r="J10" s="79" t="s">
+      <c r="F10" s="44" t="s">
+        <v>38</v>
+      </c>
+      <c r="G10" s="46" t="s">
+        <v>38</v>
+      </c>
+      <c r="H10" s="75"/>
+      <c r="I10" s="79" t="s">
+        <v>38</v>
+      </c>
+      <c r="J10" s="77" t="s">
         <v>163</v>
       </c>
     </row>
@@ -5215,17 +5205,17 @@
       <c r="E11" s="24" t="s">
         <v>436</v>
       </c>
-      <c r="F11" s="47" t="s">
-        <v>38</v>
-      </c>
-      <c r="G11" s="48" t="s">
-        <v>38</v>
-      </c>
-      <c r="H11" s="83"/>
-      <c r="I11" s="84" t="s">
-        <v>38</v>
-      </c>
-      <c r="J11" s="86" t="s">
+      <c r="F11" s="44" t="s">
+        <v>38</v>
+      </c>
+      <c r="G11" s="46" t="s">
+        <v>38</v>
+      </c>
+      <c r="H11" s="75"/>
+      <c r="I11" s="79" t="s">
+        <v>38</v>
+      </c>
+      <c r="J11" s="82" t="s">
         <v>158</v>
       </c>
     </row>
@@ -5245,17 +5235,17 @@
       <c r="E12" s="24" t="s">
         <v>436</v>
       </c>
-      <c r="F12" s="47" t="s">
-        <v>38</v>
-      </c>
-      <c r="G12" s="48" t="s">
-        <v>38</v>
-      </c>
-      <c r="H12" s="83"/>
-      <c r="I12" s="84" t="s">
-        <v>38</v>
-      </c>
-      <c r="J12" s="86" t="s">
+      <c r="F12" s="44" t="s">
+        <v>38</v>
+      </c>
+      <c r="G12" s="46" t="s">
+        <v>38</v>
+      </c>
+      <c r="H12" s="75"/>
+      <c r="I12" s="79" t="s">
+        <v>38</v>
+      </c>
+      <c r="J12" s="82" t="s">
         <v>158</v>
       </c>
     </row>
@@ -5275,17 +5265,17 @@
       <c r="E13" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="F13" s="43" t="s">
-        <v>461</v>
-      </c>
-      <c r="G13" s="48" t="s">
-        <v>471</v>
-      </c>
-      <c r="H13" s="87"/>
-      <c r="I13" s="82" t="s">
+      <c r="F13" s="42" t="s">
+        <v>459</v>
+      </c>
+      <c r="G13" s="46" t="s">
+        <v>469</v>
+      </c>
+      <c r="H13" s="83"/>
+      <c r="I13" s="80" t="s">
         <v>122</v>
       </c>
-      <c r="J13" s="79" t="s">
+      <c r="J13" s="77" t="s">
         <v>164</v>
       </c>
     </row>
@@ -5305,17 +5295,17 @@
       <c r="E14" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="F14" s="43" t="s">
-        <v>461</v>
-      </c>
-      <c r="G14" s="48" t="s">
-        <v>472</v>
-      </c>
-      <c r="H14" s="87"/>
-      <c r="I14" s="82">
+      <c r="F14" s="42" t="s">
+        <v>459</v>
+      </c>
+      <c r="G14" s="46" t="s">
+        <v>470</v>
+      </c>
+      <c r="H14" s="83"/>
+      <c r="I14" s="80">
         <v>-1067.700435</v>
       </c>
-      <c r="J14" s="79" t="s">
+      <c r="J14" s="77" t="s">
         <v>165</v>
       </c>
     </row>
@@ -5335,17 +5325,17 @@
       <c r="E15" s="24" t="s">
         <v>436</v>
       </c>
-      <c r="F15" s="47" t="s">
-        <v>38</v>
-      </c>
-      <c r="G15" s="48" t="s">
-        <v>38</v>
-      </c>
-      <c r="H15" s="83"/>
-      <c r="I15" s="84" t="s">
-        <v>38</v>
-      </c>
-      <c r="J15" s="79" t="s">
+      <c r="F15" s="44" t="s">
+        <v>38</v>
+      </c>
+      <c r="G15" s="46" t="s">
+        <v>38</v>
+      </c>
+      <c r="H15" s="75"/>
+      <c r="I15" s="79" t="s">
+        <v>38</v>
+      </c>
+      <c r="J15" s="77" t="s">
         <v>224</v>
       </c>
     </row>
@@ -5365,17 +5355,17 @@
       <c r="E16" s="24" t="s">
         <v>436</v>
       </c>
-      <c r="F16" s="47" t="s">
-        <v>38</v>
-      </c>
-      <c r="G16" s="48" t="s">
-        <v>38</v>
-      </c>
-      <c r="H16" s="83"/>
-      <c r="I16" s="84" t="s">
-        <v>38</v>
-      </c>
-      <c r="J16" s="79" t="s">
+      <c r="F16" s="44" t="s">
+        <v>38</v>
+      </c>
+      <c r="G16" s="46" t="s">
+        <v>38</v>
+      </c>
+      <c r="H16" s="75"/>
+      <c r="I16" s="79" t="s">
+        <v>38</v>
+      </c>
+      <c r="J16" s="77" t="s">
         <v>228</v>
       </c>
     </row>
@@ -5392,20 +5382,20 @@
       <c r="D17" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E17" s="43" t="s">
+      <c r="E17" s="42" t="s">
         <v>247</v>
       </c>
       <c r="F17" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="G17" s="76" t="s">
-        <v>38</v>
-      </c>
-      <c r="H17" s="88"/>
-      <c r="I17" s="89" t="s">
+      <c r="G17" s="74" t="s">
+        <v>38</v>
+      </c>
+      <c r="H17" s="84"/>
+      <c r="I17" s="85" t="s">
         <v>247</v>
       </c>
-      <c r="J17" s="88"/>
+      <c r="J17" s="84"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="35" t="s">
@@ -5421,17 +5411,17 @@
       <c r="E18" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="F18" s="43" t="s">
-        <v>461</v>
+      <c r="F18" s="42" t="s">
+        <v>459</v>
       </c>
       <c r="G18" s="32" t="s">
-        <v>455</v>
-      </c>
-      <c r="H18" s="83"/>
-      <c r="I18" s="82" t="s">
+        <v>453</v>
+      </c>
+      <c r="H18" s="75"/>
+      <c r="I18" s="80" t="s">
         <v>120</v>
       </c>
-      <c r="J18" s="79" t="s">
+      <c r="J18" s="77" t="s">
         <v>166</v>
       </c>
     </row>
@@ -5449,19 +5439,19 @@
         <v>38</v>
       </c>
       <c r="E19" s="24" t="s">
-        <v>453</v>
-      </c>
-      <c r="F19" s="47" t="s">
-        <v>38</v>
-      </c>
-      <c r="G19" s="48" t="s">
-        <v>38</v>
-      </c>
-      <c r="H19" s="85"/>
-      <c r="I19" s="82">
+        <v>451</v>
+      </c>
+      <c r="F19" s="44" t="s">
+        <v>38</v>
+      </c>
+      <c r="G19" s="46" t="s">
+        <v>38</v>
+      </c>
+      <c r="H19" s="81"/>
+      <c r="I19" s="80">
         <v>3703994</v>
       </c>
-      <c r="J19" s="79" t="s">
+      <c r="J19" s="77" t="s">
         <v>167</v>
       </c>
     </row>
@@ -5481,17 +5471,17 @@
       <c r="E20" s="24" t="s">
         <v>436</v>
       </c>
-      <c r="F20" s="47" t="s">
-        <v>38</v>
-      </c>
-      <c r="G20" s="48" t="s">
-        <v>38</v>
-      </c>
-      <c r="H20" s="83"/>
-      <c r="I20" s="82" t="s">
+      <c r="F20" s="44" t="s">
+        <v>38</v>
+      </c>
+      <c r="G20" s="46" t="s">
+        <v>38</v>
+      </c>
+      <c r="H20" s="75"/>
+      <c r="I20" s="80" t="s">
         <v>123</v>
       </c>
-      <c r="J20" s="86" t="s">
+      <c r="J20" s="82" t="s">
         <v>158</v>
       </c>
     </row>
@@ -5511,17 +5501,17 @@
       <c r="E21" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="F21" s="43" t="s">
-        <v>461</v>
+      <c r="F21" s="42" t="s">
+        <v>459</v>
       </c>
       <c r="G21" s="32" t="s">
-        <v>454</v>
-      </c>
-      <c r="H21" s="83"/>
-      <c r="I21" s="82" t="s">
+        <v>452</v>
+      </c>
+      <c r="H21" s="75"/>
+      <c r="I21" s="80" t="s">
         <v>121</v>
       </c>
-      <c r="J21" s="79" t="s">
+      <c r="J21" s="77" t="s">
         <v>225</v>
       </c>
     </row>
@@ -5539,19 +5529,19 @@
         <v>20</v>
       </c>
       <c r="E22" s="24" t="s">
-        <v>449</v>
-      </c>
-      <c r="F22" s="47" t="s">
-        <v>38</v>
-      </c>
-      <c r="G22" s="48" t="s">
-        <v>38</v>
-      </c>
-      <c r="H22" s="83"/>
-      <c r="I22" s="82" t="s">
+        <v>447</v>
+      </c>
+      <c r="F22" s="44" t="s">
+        <v>38</v>
+      </c>
+      <c r="G22" s="46" t="s">
+        <v>38</v>
+      </c>
+      <c r="H22" s="75"/>
+      <c r="I22" s="80" t="s">
         <v>140</v>
       </c>
-      <c r="J22" s="79" t="s">
+      <c r="J22" s="77" t="s">
         <v>226</v>
       </c>
     </row>
@@ -5571,17 +5561,17 @@
       <c r="E23" s="24" t="s">
         <v>436</v>
       </c>
-      <c r="F23" s="47" t="s">
-        <v>38</v>
-      </c>
-      <c r="G23" s="48" t="s">
-        <v>38</v>
-      </c>
-      <c r="H23" s="83"/>
-      <c r="I23" s="84" t="s">
-        <v>38</v>
-      </c>
-      <c r="J23" s="86" t="s">
+      <c r="F23" s="44" t="s">
+        <v>38</v>
+      </c>
+      <c r="G23" s="46" t="s">
+        <v>38</v>
+      </c>
+      <c r="H23" s="75"/>
+      <c r="I23" s="79" t="s">
+        <v>38</v>
+      </c>
+      <c r="J23" s="82" t="s">
         <v>158</v>
       </c>
     </row>
@@ -5598,7 +5588,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B91B1FF-D207-4871-B787-27544A9D3030}">
   <dimension ref="A1:P48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
@@ -5618,32 +5608,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="64"/>
-      <c r="B1" s="64"/>
-      <c r="C1" s="64"/>
-      <c r="D1" s="64"/>
-      <c r="H1" s="51"/>
+      <c r="A1" s="62"/>
+      <c r="B1" s="62"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
+      <c r="H1" s="49"/>
     </row>
     <row r="2" spans="1:10" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="52" t="s">
+      <c r="A2" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="52" t="s">
+      <c r="B2" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="52" t="s">
+      <c r="C2" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="65" t="s">
+      <c r="D2" s="63" t="s">
         <v>37</v>
       </c>
-      <c r="E2" s="54" t="s">
+      <c r="E2" s="52" t="s">
         <v>141</v>
       </c>
-      <c r="F2" s="55" t="s">
+      <c r="F2" s="53" t="s">
         <v>156</v>
       </c>
-      <c r="G2" s="56" t="s">
+      <c r="G2" s="54" t="s">
         <v>157</v>
       </c>
       <c r="H2" s="2" t="s">
@@ -5672,13 +5662,13 @@
       <c r="E3" s="25"/>
       <c r="F3" s="25"/>
       <c r="G3" s="26"/>
-      <c r="H3" s="90" t="s">
-        <v>38</v>
-      </c>
-      <c r="I3" s="82">
+      <c r="H3" s="86" t="s">
+        <v>38</v>
+      </c>
+      <c r="I3" s="80">
         <v>50004</v>
       </c>
-      <c r="J3" s="79" t="s">
+      <c r="J3" s="77" t="s">
         <v>169</v>
       </c>
     </row>
@@ -5704,13 +5694,13 @@
       <c r="G4" s="34" t="s">
         <v>38</v>
       </c>
-      <c r="H4" s="90" t="s">
-        <v>38</v>
-      </c>
-      <c r="I4" s="82">
+      <c r="H4" s="86" t="s">
+        <v>38</v>
+      </c>
+      <c r="I4" s="80">
         <v>43</v>
       </c>
-      <c r="J4" s="79" t="s">
+      <c r="J4" s="77" t="s">
         <v>169</v>
       </c>
     </row>
@@ -5736,13 +5726,13 @@
       <c r="G5" s="34" t="s">
         <v>38</v>
       </c>
-      <c r="H5" s="90" t="s">
-        <v>38</v>
-      </c>
-      <c r="I5" s="82">
+      <c r="H5" s="86" t="s">
+        <v>38</v>
+      </c>
+      <c r="I5" s="80">
         <v>1</v>
       </c>
-      <c r="J5" s="79" t="s">
+      <c r="J5" s="77" t="s">
         <v>169</v>
       </c>
     </row>
@@ -5768,13 +5758,13 @@
       <c r="G6" s="34" t="s">
         <v>38</v>
       </c>
-      <c r="H6" s="90" t="s">
-        <v>38</v>
-      </c>
-      <c r="I6" s="82">
+      <c r="H6" s="86" t="s">
+        <v>38</v>
+      </c>
+      <c r="I6" s="80">
         <v>39035</v>
       </c>
-      <c r="J6" s="79" t="s">
+      <c r="J6" s="77" t="s">
         <v>169</v>
       </c>
     </row>
@@ -5800,13 +5790,13 @@
       <c r="G7" s="34" t="s">
         <v>38</v>
       </c>
-      <c r="H7" s="90" t="s">
-        <v>38</v>
-      </c>
-      <c r="I7" s="82">
+      <c r="H7" s="86" t="s">
+        <v>38</v>
+      </c>
+      <c r="I7" s="80">
         <v>63</v>
       </c>
-      <c r="J7" s="79" t="s">
+      <c r="J7" s="77" t="s">
         <v>169</v>
       </c>
     </row>
@@ -5832,19 +5822,19 @@
       <c r="G8" s="34" t="s">
         <v>38</v>
       </c>
-      <c r="H8" s="90" t="s">
-        <v>38</v>
-      </c>
-      <c r="I8" s="82">
+      <c r="H8" s="86" t="s">
+        <v>38</v>
+      </c>
+      <c r="I8" s="80">
         <v>371091</v>
       </c>
-      <c r="J8" s="79" t="s">
+      <c r="J8" s="77" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="35" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="B9" s="36" t="s">
         <v>34</v>
@@ -5855,14 +5845,14 @@
       <c r="D9" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="E9" s="127" t="s">
-        <v>524</v>
+      <c r="E9" s="42" t="s">
+        <v>521</v>
       </c>
       <c r="F9" s="24"/>
       <c r="G9" s="32"/>
-      <c r="H9" s="90"/>
-      <c r="I9" s="91"/>
-      <c r="J9" s="79"/>
+      <c r="H9" s="86"/>
+      <c r="I9" s="87"/>
+      <c r="J9" s="77"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="35" t="s">
@@ -5877,8 +5867,8 @@
       <c r="D10" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="E10" s="126" t="s">
-        <v>519</v>
+      <c r="E10" s="121" t="s">
+        <v>516</v>
       </c>
       <c r="F10" s="24" t="s">
         <v>38</v>
@@ -5886,13 +5876,13 @@
       <c r="G10" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="H10" s="90" t="s">
-        <v>38</v>
-      </c>
-      <c r="I10" s="91" t="s">
-        <v>38</v>
-      </c>
-      <c r="J10" s="79" t="s">
+      <c r="H10" s="86" t="s">
+        <v>38</v>
+      </c>
+      <c r="I10" s="87" t="s">
+        <v>38</v>
+      </c>
+      <c r="J10" s="77" t="s">
         <v>188</v>
       </c>
     </row>
@@ -5909,8 +5899,8 @@
       <c r="D11" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="E11" s="70" t="s">
-        <v>521</v>
+      <c r="E11" s="68" t="s">
+        <v>518</v>
       </c>
       <c r="F11" s="24" t="s">
         <v>38</v>
@@ -5918,13 +5908,13 @@
       <c r="G11" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="H11" s="90" t="s">
-        <v>38</v>
-      </c>
-      <c r="I11" s="91" t="s">
-        <v>38</v>
-      </c>
-      <c r="J11" s="79" t="s">
+      <c r="H11" s="86" t="s">
+        <v>38</v>
+      </c>
+      <c r="I11" s="87" t="s">
+        <v>38</v>
+      </c>
+      <c r="J11" s="77" t="s">
         <v>191</v>
       </c>
     </row>
@@ -5941,8 +5931,8 @@
       <c r="D12" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="E12" s="43" t="s">
-        <v>463</v>
+      <c r="E12" s="42" t="s">
+        <v>461</v>
       </c>
       <c r="F12" s="24" t="s">
         <v>38</v>
@@ -5950,13 +5940,13 @@
       <c r="G12" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="H12" s="90" t="s">
-        <v>38</v>
-      </c>
-      <c r="I12" s="91" t="s">
-        <v>38</v>
-      </c>
-      <c r="J12" s="79" t="s">
+      <c r="H12" s="86" t="s">
+        <v>38</v>
+      </c>
+      <c r="I12" s="87" t="s">
+        <v>38</v>
+      </c>
+      <c r="J12" s="77" t="s">
         <v>192</v>
       </c>
     </row>
@@ -5973,8 +5963,8 @@
       <c r="D13" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="E13" s="69" t="s">
-        <v>520</v>
+      <c r="E13" s="67" t="s">
+        <v>517</v>
       </c>
       <c r="F13" s="24" t="s">
         <v>38</v>
@@ -5982,45 +5972,45 @@
       <c r="G13" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="H13" s="90" t="s">
-        <v>38</v>
-      </c>
-      <c r="I13" s="91" t="s">
-        <v>38</v>
-      </c>
-      <c r="J13" s="79" t="s">
+      <c r="H13" s="86" t="s">
+        <v>38</v>
+      </c>
+      <c r="I13" s="87" t="s">
+        <v>38</v>
+      </c>
+      <c r="J13" s="77" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="51" t="s">
+      <c r="A14" s="49" t="s">
         <v>40</v>
       </c>
-      <c r="B14" s="59" t="s">
+      <c r="B14" s="57" t="s">
         <v>67</v>
       </c>
-      <c r="C14" s="60" t="s">
-        <v>38</v>
-      </c>
-      <c r="D14" s="61" t="s">
-        <v>38</v>
-      </c>
-      <c r="E14" s="71" t="s">
-        <v>462</v>
-      </c>
-      <c r="F14" s="62" t="s">
-        <v>38</v>
-      </c>
-      <c r="G14" s="72" t="s">
-        <v>38</v>
-      </c>
-      <c r="H14" s="90" t="s">
-        <v>38</v>
-      </c>
-      <c r="I14" s="91" t="s">
-        <v>38</v>
-      </c>
-      <c r="J14" s="79" t="s">
+      <c r="C14" s="58" t="s">
+        <v>38</v>
+      </c>
+      <c r="D14" s="59" t="s">
+        <v>38</v>
+      </c>
+      <c r="E14" s="69" t="s">
+        <v>460</v>
+      </c>
+      <c r="F14" s="60" t="s">
+        <v>38</v>
+      </c>
+      <c r="G14" s="70" t="s">
+        <v>38</v>
+      </c>
+      <c r="H14" s="86" t="s">
+        <v>38</v>
+      </c>
+      <c r="I14" s="87" t="s">
+        <v>38</v>
+      </c>
+      <c r="J14" s="77" t="s">
         <v>187</v>
       </c>
     </row>
@@ -6046,13 +6036,13 @@
       <c r="G15" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="H15" s="90" t="s">
-        <v>38</v>
-      </c>
-      <c r="I15" s="82">
+      <c r="H15" s="86" t="s">
+        <v>38</v>
+      </c>
+      <c r="I15" s="80">
         <v>5363</v>
       </c>
-      <c r="J15" s="79" t="s">
+      <c r="J15" s="77" t="s">
         <v>195</v>
       </c>
     </row>
@@ -6078,13 +6068,13 @@
       <c r="G16" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="H16" s="90" t="s">
-        <v>38</v>
-      </c>
-      <c r="I16" s="82" t="s">
+      <c r="H16" s="86" t="s">
+        <v>38</v>
+      </c>
+      <c r="I16" s="80" t="s">
         <v>133</v>
       </c>
-      <c r="J16" s="86" t="s">
+      <c r="J16" s="82" t="s">
         <v>158</v>
       </c>
     </row>
@@ -6110,13 +6100,13 @@
       <c r="G17" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="H17" s="90" t="s">
-        <v>38</v>
-      </c>
-      <c r="I17" s="82" t="s">
+      <c r="H17" s="86" t="s">
+        <v>38</v>
+      </c>
+      <c r="I17" s="80" t="s">
         <v>133</v>
       </c>
-      <c r="J17" s="86" t="s">
+      <c r="J17" s="82" t="s">
         <v>158</v>
       </c>
     </row>
@@ -6142,13 +6132,13 @@
       <c r="G18" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="H18" s="90" t="s">
-        <v>38</v>
-      </c>
-      <c r="I18" s="82" t="s">
+      <c r="H18" s="86" t="s">
+        <v>38</v>
+      </c>
+      <c r="I18" s="80" t="s">
         <v>154</v>
       </c>
-      <c r="J18" s="79" t="s">
+      <c r="J18" s="77" t="s">
         <v>229</v>
       </c>
     </row>
@@ -6174,13 +6164,13 @@
       <c r="G19" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="H19" s="90" t="s">
-        <v>38</v>
-      </c>
-      <c r="I19" s="82" t="s">
+      <c r="H19" s="86" t="s">
+        <v>38</v>
+      </c>
+      <c r="I19" s="80" t="s">
         <v>138</v>
       </c>
-      <c r="J19" s="86" t="s">
+      <c r="J19" s="82" t="s">
         <v>158</v>
       </c>
     </row>
@@ -6206,13 +6196,13 @@
       <c r="G20" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="H20" s="90" t="s">
-        <v>38</v>
-      </c>
-      <c r="I20" s="82" t="s">
+      <c r="H20" s="86" t="s">
+        <v>38</v>
+      </c>
+      <c r="I20" s="80" t="s">
         <v>137</v>
       </c>
-      <c r="J20" s="79" t="s">
+      <c r="J20" s="77" t="s">
         <v>193</v>
       </c>
     </row>
@@ -6238,13 +6228,13 @@
       <c r="G21" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="H21" s="90" t="s">
-        <v>38</v>
-      </c>
-      <c r="I21" s="91" t="s">
-        <v>38</v>
-      </c>
-      <c r="J21" s="86" t="s">
+      <c r="H21" s="86" t="s">
+        <v>38</v>
+      </c>
+      <c r="I21" s="87" t="s">
+        <v>38</v>
+      </c>
+      <c r="J21" s="82" t="s">
         <v>158</v>
       </c>
     </row>
@@ -6270,18 +6260,18 @@
       <c r="G22" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="H22" s="90" t="s">
-        <v>38</v>
-      </c>
-      <c r="I22" s="82">
+      <c r="H22" s="86" t="s">
+        <v>38</v>
+      </c>
+      <c r="I22" s="80">
         <v>5200</v>
       </c>
-      <c r="J22" s="79" t="s">
+      <c r="J22" s="77" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A23" s="75" t="s">
+      <c r="A23" s="73" t="s">
         <v>242</v>
       </c>
       <c r="B23" s="36" t="s">
@@ -6296,19 +6286,19 @@
       <c r="E23" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="F23" s="43" t="s">
-        <v>461</v>
-      </c>
-      <c r="G23" s="48" t="s">
-        <v>467</v>
-      </c>
-      <c r="H23" s="90" t="s">
-        <v>38</v>
-      </c>
-      <c r="I23" s="82">
+      <c r="F23" s="42" t="s">
+        <v>459</v>
+      </c>
+      <c r="G23" s="46" t="s">
+        <v>465</v>
+      </c>
+      <c r="H23" s="86" t="s">
+        <v>38</v>
+      </c>
+      <c r="I23" s="80">
         <v>1</v>
       </c>
-      <c r="J23" s="79" t="s">
+      <c r="J23" s="77" t="s">
         <v>196</v>
       </c>
     </row>
@@ -6325,22 +6315,22 @@
       <c r="D24" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="E24" s="73" t="s">
-        <v>38</v>
-      </c>
-      <c r="F24" s="43" t="s">
-        <v>461</v>
-      </c>
-      <c r="G24" s="48" t="s">
-        <v>469</v>
-      </c>
-      <c r="H24" s="90" t="s">
-        <v>38</v>
-      </c>
-      <c r="I24" s="82" t="s">
+      <c r="E24" s="71" t="s">
+        <v>38</v>
+      </c>
+      <c r="F24" s="42" t="s">
+        <v>459</v>
+      </c>
+      <c r="G24" s="46" t="s">
+        <v>467</v>
+      </c>
+      <c r="H24" s="86" t="s">
+        <v>38</v>
+      </c>
+      <c r="I24" s="80" t="s">
         <v>136</v>
       </c>
-      <c r="J24" s="79" t="s">
+      <c r="J24" s="77" t="s">
         <v>232</v>
       </c>
     </row>
@@ -6360,19 +6350,19 @@
       <c r="E25" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="F25" s="43" t="s">
-        <v>461</v>
-      </c>
-      <c r="G25" s="49" t="s">
-        <v>458</v>
-      </c>
-      <c r="H25" s="90" t="s">
-        <v>38</v>
-      </c>
-      <c r="I25" s="82" t="s">
+      <c r="F25" s="42" t="s">
+        <v>459</v>
+      </c>
+      <c r="G25" s="47" t="s">
+        <v>456</v>
+      </c>
+      <c r="H25" s="86" t="s">
+        <v>38</v>
+      </c>
+      <c r="I25" s="80" t="s">
         <v>134</v>
       </c>
-      <c r="J25" s="79" t="s">
+      <c r="J25" s="77" t="s">
         <v>198</v>
       </c>
     </row>
@@ -6390,21 +6380,21 @@
         <v>38</v>
       </c>
       <c r="E26" s="24" t="s">
-        <v>457</v>
-      </c>
-      <c r="F26" s="43" t="s">
-        <v>461</v>
-      </c>
-      <c r="G26" s="49" t="s">
-        <v>466</v>
-      </c>
-      <c r="H26" s="90" t="s">
-        <v>38</v>
-      </c>
-      <c r="I26" s="82" t="s">
+        <v>455</v>
+      </c>
+      <c r="F26" s="42" t="s">
+        <v>459</v>
+      </c>
+      <c r="G26" s="47" t="s">
+        <v>464</v>
+      </c>
+      <c r="H26" s="86" t="s">
+        <v>38</v>
+      </c>
+      <c r="I26" s="80" t="s">
         <v>135</v>
       </c>
-      <c r="J26" s="79" t="s">
+      <c r="J26" s="77" t="s">
         <v>199</v>
       </c>
     </row>
@@ -6415,26 +6405,26 @@
       <c r="B27" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="C27" s="40" t="s">
+      <c r="C27" s="37" t="s">
         <v>38</v>
       </c>
       <c r="D27" s="39" t="s">
         <v>20</v>
       </c>
       <c r="E27" s="24"/>
-      <c r="F27" s="43" t="s">
-        <v>461</v>
-      </c>
-      <c r="G27" s="49" t="s">
-        <v>468</v>
-      </c>
-      <c r="H27" s="90" t="s">
-        <v>38</v>
-      </c>
-      <c r="I27" s="82" t="s">
+      <c r="F27" s="42" t="s">
+        <v>459</v>
+      </c>
+      <c r="G27" s="47" t="s">
+        <v>466</v>
+      </c>
+      <c r="H27" s="86" t="s">
+        <v>38</v>
+      </c>
+      <c r="I27" s="80" t="s">
         <v>155</v>
       </c>
-      <c r="J27" s="79" t="s">
+      <c r="J27" s="77" t="s">
         <v>200</v>
       </c>
     </row>
@@ -6460,13 +6450,13 @@
       <c r="G28" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="H28" s="90" t="s">
-        <v>38</v>
-      </c>
-      <c r="I28" s="91" t="s">
-        <v>38</v>
-      </c>
-      <c r="J28" s="79" t="s">
+      <c r="H28" s="86" t="s">
+        <v>38</v>
+      </c>
+      <c r="I28" s="87" t="s">
+        <v>38</v>
+      </c>
+      <c r="J28" s="77" t="s">
         <v>233</v>
       </c>
     </row>
@@ -6484,7 +6474,7 @@
         <v>38</v>
       </c>
       <c r="E29" s="24" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="F29" s="24" t="s">
         <v>38</v>
@@ -6492,13 +6482,13 @@
       <c r="G29" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="H29" s="90" t="s">
-        <v>38</v>
-      </c>
-      <c r="I29" s="92">
+      <c r="H29" s="86" t="s">
+        <v>38</v>
+      </c>
+      <c r="I29" s="88">
         <v>44196</v>
       </c>
-      <c r="J29" s="79" t="s">
+      <c r="J29" s="77" t="s">
         <v>201</v>
       </c>
     </row>
@@ -6516,7 +6506,7 @@
         <v>38</v>
       </c>
       <c r="E30" s="24" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="F30" s="24" t="s">
         <v>38</v>
@@ -6524,50 +6514,50 @@
       <c r="G30" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="H30" s="90" t="s">
-        <v>38</v>
-      </c>
-      <c r="I30" s="92">
+      <c r="H30" s="86" t="s">
+        <v>38</v>
+      </c>
+      <c r="I30" s="88">
         <v>43831</v>
       </c>
-      <c r="J30" s="79" t="s">
+      <c r="J30" s="77" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A31" s="120" t="s">
+      <c r="A31" s="115" t="s">
         <v>87</v>
       </c>
-      <c r="B31" s="121" t="s">
+      <c r="B31" s="116" t="s">
         <v>34</v>
       </c>
-      <c r="C31" s="121" t="s">
+      <c r="C31" s="116" t="s">
         <v>18</v>
       </c>
-      <c r="D31" s="122" t="s">
+      <c r="D31" s="117" t="s">
         <v>20</v>
       </c>
-      <c r="E31" s="123" t="s">
-        <v>475</v>
-      </c>
-      <c r="F31" s="124" t="s">
-        <v>38</v>
-      </c>
-      <c r="G31" s="125" t="s">
-        <v>469</v>
-      </c>
-      <c r="H31" s="90" t="s">
-        <v>38</v>
-      </c>
-      <c r="I31" s="82" t="s">
+      <c r="E31" s="118" t="s">
+        <v>472</v>
+      </c>
+      <c r="F31" s="119" t="s">
+        <v>38</v>
+      </c>
+      <c r="G31" s="120" t="s">
+        <v>467</v>
+      </c>
+      <c r="H31" s="86" t="s">
+        <v>38</v>
+      </c>
+      <c r="I31" s="80" t="s">
         <v>133</v>
       </c>
-      <c r="J31" s="79" t="s">
+      <c r="J31" s="77" t="s">
         <v>240</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A32" s="75" t="s">
+      <c r="A32" s="73" t="s">
         <v>243</v>
       </c>
       <c r="B32" s="36" t="s">
@@ -6588,13 +6578,13 @@
       <c r="G32" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="H32" s="90" t="s">
-        <v>38</v>
-      </c>
-      <c r="I32" s="82">
+      <c r="H32" s="86" t="s">
+        <v>38</v>
+      </c>
+      <c r="I32" s="80">
         <v>0</v>
       </c>
-      <c r="J32" s="79" t="s">
+      <c r="J32" s="77" t="s">
         <v>197</v>
       </c>
     </row>
@@ -6605,28 +6595,28 @@
       <c r="B33" s="36" t="s">
         <v>34</v>
       </c>
-      <c r="C33" s="40" t="s">
+      <c r="C33" s="37" t="s">
         <v>38</v>
       </c>
       <c r="D33" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="E33" s="73" t="s">
+      <c r="E33" s="71" t="s">
         <v>432</v>
       </c>
-      <c r="F33" s="43" t="s">
-        <v>461</v>
-      </c>
-      <c r="G33" s="48" t="s">
-        <v>470</v>
-      </c>
-      <c r="H33" s="90" t="s">
-        <v>38</v>
-      </c>
-      <c r="I33" s="91" t="s">
-        <v>38</v>
-      </c>
-      <c r="J33" s="79" t="s">
+      <c r="F33" s="42" t="s">
+        <v>459</v>
+      </c>
+      <c r="G33" s="46" t="s">
+        <v>468</v>
+      </c>
+      <c r="H33" s="86" t="s">
+        <v>38</v>
+      </c>
+      <c r="I33" s="87" t="s">
+        <v>38</v>
+      </c>
+      <c r="J33" s="77" t="s">
         <v>203</v>
       </c>
     </row>
@@ -6652,13 +6642,13 @@
       <c r="G34" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="H34" s="90" t="s">
-        <v>38</v>
-      </c>
-      <c r="I34" s="82" t="s">
+      <c r="H34" s="86" t="s">
+        <v>38</v>
+      </c>
+      <c r="I34" s="80" t="s">
         <v>133</v>
       </c>
-      <c r="J34" s="86" t="s">
+      <c r="J34" s="82" t="s">
         <v>158</v>
       </c>
     </row>
@@ -6684,13 +6674,13 @@
       <c r="G35" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="H35" s="90" t="s">
-        <v>38</v>
-      </c>
-      <c r="I35" s="82" t="s">
+      <c r="H35" s="86" t="s">
+        <v>38</v>
+      </c>
+      <c r="I35" s="80" t="s">
         <v>133</v>
       </c>
-      <c r="J35" s="79" t="s">
+      <c r="J35" s="77" t="s">
         <v>230</v>
       </c>
     </row>
@@ -6716,13 +6706,13 @@
       <c r="G36" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="H36" s="90" t="s">
-        <v>38</v>
-      </c>
-      <c r="I36" s="82" t="s">
+      <c r="H36" s="86" t="s">
+        <v>38</v>
+      </c>
+      <c r="I36" s="80" t="s">
         <v>133</v>
       </c>
-      <c r="J36" s="79" t="s">
+      <c r="J36" s="77" t="s">
         <v>231</v>
       </c>
     </row>
@@ -6733,13 +6723,13 @@
       <c r="B37" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="C37" s="40" t="s">
+      <c r="C37" s="37" t="s">
         <v>38</v>
       </c>
       <c r="D37" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="E37" s="74">
+      <c r="E37" s="72">
         <v>44644</v>
       </c>
       <c r="F37" s="24" t="s">
@@ -6748,13 +6738,13 @@
       <c r="G37" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="H37" s="90" t="s">
-        <v>38</v>
-      </c>
-      <c r="I37" s="93">
+      <c r="H37" s="86" t="s">
+        <v>38</v>
+      </c>
+      <c r="I37" s="89">
         <v>43874</v>
       </c>
-      <c r="J37" s="79" t="s">
+      <c r="J37" s="77" t="s">
         <v>204</v>
       </c>
     </row>
@@ -6780,18 +6770,18 @@
       <c r="G38" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="H38" s="90" t="s">
-        <v>38</v>
-      </c>
-      <c r="I38" s="93">
+      <c r="H38" s="86" t="s">
+        <v>38</v>
+      </c>
+      <c r="I38" s="89">
         <v>33187</v>
       </c>
-      <c r="J38" s="86" t="s">
+      <c r="J38" s="82" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A39" s="75" t="s">
+      <c r="A39" s="73" t="s">
         <v>244</v>
       </c>
       <c r="B39" s="36" t="s">
@@ -6812,9 +6802,9 @@
       <c r="G39" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="H39" s="90"/>
-      <c r="I39" s="93"/>
-      <c r="J39" s="86"/>
+      <c r="H39" s="86"/>
+      <c r="I39" s="89"/>
+      <c r="J39" s="82"/>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A40" s="35" t="s">
@@ -6838,13 +6828,13 @@
       <c r="G40" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="H40" s="90" t="s">
-        <v>38</v>
-      </c>
-      <c r="I40" s="91" t="s">
-        <v>38</v>
-      </c>
-      <c r="J40" s="79" t="s">
+      <c r="H40" s="86" t="s">
+        <v>38</v>
+      </c>
+      <c r="I40" s="87" t="s">
+        <v>38</v>
+      </c>
+      <c r="J40" s="77" t="s">
         <v>205</v>
       </c>
     </row>
@@ -6870,11 +6860,11 @@
       <c r="G41" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="H41" s="87"/>
-      <c r="I41" s="91" t="s">
-        <v>38</v>
-      </c>
-      <c r="J41" s="79" t="s">
+      <c r="H41" s="83"/>
+      <c r="I41" s="87" t="s">
+        <v>38</v>
+      </c>
+      <c r="J41" s="77" t="s">
         <v>206</v>
       </c>
     </row>
@@ -6900,13 +6890,13 @@
       <c r="G42" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="H42" s="90" t="s">
-        <v>38</v>
-      </c>
-      <c r="I42" s="82" t="s">
+      <c r="H42" s="86" t="s">
+        <v>38</v>
+      </c>
+      <c r="I42" s="80" t="s">
         <v>133</v>
       </c>
-      <c r="J42" s="79" t="s">
+      <c r="J42" s="77" t="s">
         <v>234</v>
       </c>
     </row>
@@ -6932,19 +6922,19 @@
       <c r="G43" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="H43" s="90" t="s">
-        <v>38</v>
-      </c>
-      <c r="I43" s="91" t="s">
-        <v>38</v>
-      </c>
-      <c r="J43" s="86" t="s">
+      <c r="H43" s="86" t="s">
+        <v>38</v>
+      </c>
+      <c r="I43" s="87" t="s">
+        <v>38</v>
+      </c>
+      <c r="J43" s="82" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A44" s="5" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="B44" s="6" t="s">
         <v>34</v>
@@ -6957,15 +6947,15 @@
       </c>
       <c r="E44" s="5"/>
       <c r="F44" s="5"/>
-      <c r="G44" s="116"/>
-      <c r="H44" s="117" t="s">
-        <v>38</v>
-      </c>
-      <c r="I44" s="118" t="s">
-        <v>516</v>
-      </c>
-      <c r="J44" s="119" t="s">
-        <v>517</v>
+      <c r="G44" s="111"/>
+      <c r="H44" s="112" t="s">
+        <v>38</v>
+      </c>
+      <c r="I44" s="113" t="s">
+        <v>513</v>
+      </c>
+      <c r="J44" s="114" t="s">
+        <v>514</v>
       </c>
       <c r="K44" s="5"/>
       <c r="L44" s="5"/>
@@ -6996,13 +6986,13 @@
       <c r="G45" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="H45" s="90" t="s">
-        <v>38</v>
-      </c>
-      <c r="I45" s="91" t="s">
-        <v>38</v>
-      </c>
-      <c r="J45" s="79" t="s">
+      <c r="H45" s="86" t="s">
+        <v>38</v>
+      </c>
+      <c r="I45" s="87" t="s">
+        <v>38</v>
+      </c>
+      <c r="J45" s="77" t="s">
         <v>207</v>
       </c>
     </row>
@@ -7028,19 +7018,19 @@
       <c r="G46" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="H46" s="90" t="s">
-        <v>38</v>
-      </c>
-      <c r="I46" s="82" t="s">
+      <c r="H46" s="86" t="s">
+        <v>38</v>
+      </c>
+      <c r="I46" s="80" t="s">
         <v>133</v>
       </c>
-      <c r="J46" s="86" t="s">
+      <c r="J46" s="82" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A47" s="35" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="B47" s="36" t="s">
         <v>105</v>
@@ -7052,7 +7042,7 @@
         <v>20</v>
       </c>
       <c r="E47" s="24" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="F47" s="24" t="s">
         <v>38</v>
@@ -7060,13 +7050,13 @@
       <c r="G47" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="H47" s="90" t="s">
-        <v>38</v>
-      </c>
-      <c r="I47" s="82" t="s">
+      <c r="H47" s="86" t="s">
+        <v>38</v>
+      </c>
+      <c r="I47" s="80" t="s">
         <v>132</v>
       </c>
-      <c r="J47" s="79" t="s">
+      <c r="J47" s="77" t="s">
         <v>208</v>
       </c>
     </row>
@@ -7092,13 +7082,13 @@
       <c r="G48" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="H48" s="90" t="s">
-        <v>38</v>
-      </c>
-      <c r="I48" s="82" t="s">
+      <c r="H48" s="86" t="s">
+        <v>38</v>
+      </c>
+      <c r="I48" s="80" t="s">
         <v>133</v>
       </c>
-      <c r="J48" s="79" t="s">
+      <c r="J48" s="77" t="s">
         <v>209</v>
       </c>
     </row>
@@ -7128,1548 +7118,1548 @@
     <col min="4" max="4" width="17.6640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="3.109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="75" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="82.33203125" style="42" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="82.33203125" style="41" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="99" t="s">
+      <c r="A1" s="95" t="s">
         <v>400</v>
       </c>
-      <c r="G1" s="103" t="s">
+      <c r="G1" s="98" t="s">
         <v>431</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="100" t="s">
+      <c r="A2" s="96" t="s">
         <v>140</v>
       </c>
-      <c r="B2" s="109" t="s">
+      <c r="B2" s="104" t="s">
         <v>319</v>
       </c>
-      <c r="C2" s="111" t="s">
+      <c r="C2" s="106" t="s">
         <v>319</v>
       </c>
-      <c r="F2" s="100" t="s">
+      <c r="F2" s="96" t="s">
         <v>140</v>
       </c>
-      <c r="G2" s="100" t="s">
+      <c r="G2" s="96" t="s">
         <v>319</v>
       </c>
-      <c r="H2" s="98"/>
+      <c r="H2" s="94"/>
     </row>
     <row r="3" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="101" t="s">
+      <c r="A3" s="97" t="s">
         <v>331</v>
       </c>
-      <c r="B3" s="110" t="s">
+      <c r="B3" s="105" t="s">
         <v>254</v>
       </c>
-      <c r="C3" s="112" t="str">
+      <c r="C3" s="107" t="str">
         <f>""""&amp;A3&amp;""""&amp;" : "&amp;""""&amp;B3&amp;""""&amp;","</f>
         <v>"AESCNG" : "Coal Bed Natural Gas",</v>
       </c>
-      <c r="D3" s="42"/>
-      <c r="E3" s="42"/>
-      <c r="F3" s="101" t="s">
+      <c r="D3" s="41"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="97" t="s">
         <v>402</v>
       </c>
-      <c r="G3" s="101" t="s">
+      <c r="G3" s="97" t="s">
         <v>403</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="101" t="s">
+      <c r="A4" s="97" t="s">
         <v>350</v>
       </c>
-      <c r="B4" s="110" t="s">
+      <c r="B4" s="105" t="s">
         <v>351</v>
       </c>
-      <c r="C4" s="112" t="str">
+      <c r="C4" s="107" t="str">
         <f t="shared" ref="C4:C42" si="0">""""&amp;A4&amp;""""&amp;" : "&amp;""""&amp;B4&amp;""""&amp;","</f>
         <v>"AESFIS" : "Fish Propagation (Aesthetics)",</v>
       </c>
-      <c r="D4" s="42"/>
-      <c r="E4" s="42"/>
-      <c r="F4" s="101" t="s">
+      <c r="D4" s="41"/>
+      <c r="E4" s="41"/>
+      <c r="F4" s="97" t="s">
         <v>404</v>
       </c>
-      <c r="G4" s="101" t="s">
+      <c r="G4" s="97" t="s">
         <v>405</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="101" t="s">
+      <c r="A5" s="97" t="s">
         <v>352</v>
       </c>
-      <c r="B5" s="110" t="s">
-        <v>476</v>
-      </c>
-      <c r="C5" s="112" t="str">
+      <c r="B5" s="105" t="s">
+        <v>473</v>
+      </c>
+      <c r="C5" s="107" t="str">
         <f t="shared" si="0"/>
         <v>"AESGWR" : "Ground Water Recharge (Aesthetics)",</v>
       </c>
-      <c r="D5" s="42"/>
-      <c r="E5" s="42"/>
-      <c r="F5" s="101" t="s">
+      <c r="D5" s="41"/>
+      <c r="E5" s="41"/>
+      <c r="F5" s="97" t="s">
         <v>406</v>
       </c>
-      <c r="G5" s="101" t="s">
+      <c r="G5" s="97" t="s">
         <v>407</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="101" t="s">
+      <c r="A6" s="97" t="s">
         <v>378</v>
       </c>
-      <c r="B6" s="110" t="s">
+      <c r="B6" s="105" t="s">
         <v>379</v>
       </c>
-      <c r="C6" s="112" t="str">
+      <c r="C6" s="107" t="str">
         <f t="shared" si="0"/>
         <v>"AESREC" : "Recreation (Aesthetics)",</v>
       </c>
-      <c r="D6" s="42"/>
-      <c r="E6" s="42"/>
-      <c r="F6" s="101" t="s">
+      <c r="D6" s="41"/>
+      <c r="E6" s="41"/>
+      <c r="F6" s="97" t="s">
         <v>408</v>
       </c>
-      <c r="G6" s="101" t="s">
+      <c r="G6" s="97" t="s">
         <v>409</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="101" t="s">
+      <c r="A7" s="97" t="s">
         <v>380</v>
       </c>
-      <c r="B7" s="110" t="s">
+      <c r="B7" s="105" t="s">
         <v>381</v>
       </c>
-      <c r="C7" s="112" t="str">
+      <c r="C7" s="107" t="str">
         <f t="shared" si="0"/>
         <v>"AESSTK" : "Stock (Aesthetics)",</v>
       </c>
-      <c r="D7" s="42"/>
-      <c r="E7" s="42"/>
-      <c r="F7" s="101" t="s">
+      <c r="D7" s="41"/>
+      <c r="E7" s="41"/>
+      <c r="F7" s="97" t="s">
         <v>410</v>
       </c>
-      <c r="G7" s="101" t="s">
+      <c r="G7" s="97" t="s">
         <v>411</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="101" t="s">
+      <c r="A8" s="97" t="s">
         <v>396</v>
       </c>
-      <c r="B8" s="110" t="s">
+      <c r="B8" s="105" t="s">
         <v>397</v>
       </c>
-      <c r="C8" s="112" t="str">
+      <c r="C8" s="107" t="str">
         <f t="shared" si="0"/>
         <v>"AESWET" : "Wetlands (Aesthetics)",</v>
       </c>
-      <c r="D8" s="42"/>
-      <c r="E8" s="42"/>
-      <c r="F8" s="101" t="s">
+      <c r="D8" s="41"/>
+      <c r="E8" s="41"/>
+      <c r="F8" s="97" t="s">
         <v>412</v>
       </c>
-      <c r="G8" s="101" t="s">
+      <c r="G8" s="97" t="s">
         <v>413</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="101" t="s">
+      <c r="A9" s="97" t="s">
         <v>398</v>
       </c>
-      <c r="B9" s="110" t="s">
+      <c r="B9" s="105" t="s">
         <v>399</v>
       </c>
-      <c r="C9" s="112" t="str">
+      <c r="C9" s="107" t="str">
         <f t="shared" si="0"/>
         <v>"AESWIL" : "Wildlife (Aesthetics)",</v>
       </c>
-      <c r="D9" s="42"/>
-      <c r="E9" s="42"/>
-      <c r="F9" s="101" t="s">
+      <c r="D9" s="41"/>
+      <c r="E9" s="41"/>
+      <c r="F9" s="97" t="s">
         <v>414</v>
       </c>
-      <c r="G9" s="101" t="s">
+      <c r="G9" s="97" t="s">
         <v>415</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="101" t="s">
+      <c r="A10" s="97" t="s">
         <v>332</v>
       </c>
-      <c r="B10" s="110" t="s">
+      <c r="B10" s="105" t="s">
         <v>333</v>
       </c>
-      <c r="C10" s="112" t="str">
+      <c r="C10" s="107" t="str">
         <f t="shared" si="0"/>
         <v>"AQU" : "Aquaculture",</v>
       </c>
-      <c r="D10" s="42"/>
-      <c r="E10" s="42"/>
-      <c r="F10" s="101" t="s">
+      <c r="D10" s="41"/>
+      <c r="E10" s="41"/>
+      <c r="F10" s="97" t="s">
         <v>416</v>
       </c>
-      <c r="G10" s="101" t="s">
+      <c r="G10" s="97" t="s">
         <v>417</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="101" t="s">
+      <c r="A11" s="97" t="s">
         <v>334</v>
       </c>
-      <c r="B11" s="110" t="s">
+      <c r="B11" s="105" t="s">
         <v>335</v>
       </c>
-      <c r="C11" s="112" t="str">
+      <c r="C11" s="107" t="str">
         <f t="shared" si="0"/>
         <v>"BOT" : "Bottling Water",</v>
       </c>
-      <c r="D11" s="42"/>
-      <c r="E11" s="42"/>
-      <c r="F11" s="101" t="s">
+      <c r="D11" s="41"/>
+      <c r="E11" s="41"/>
+      <c r="F11" s="97" t="s">
         <v>418</v>
       </c>
-      <c r="G11" s="101" t="s">
+      <c r="G11" s="97" t="s">
         <v>419</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="101" t="s">
+      <c r="A12" s="97" t="s">
         <v>320</v>
       </c>
-      <c r="B12" s="110" t="s">
-        <v>478</v>
-      </c>
-      <c r="C12" s="112" t="str">
+      <c r="B12" s="105" t="s">
+        <v>475</v>
+      </c>
+      <c r="C12" s="107" t="str">
         <f t="shared" si="0"/>
         <v>"CAG" : "Commercial Agriculture",</v>
       </c>
-      <c r="D12" s="42"/>
-      <c r="E12" s="42"/>
-      <c r="F12" s="101" t="s">
+      <c r="D12" s="41"/>
+      <c r="E12" s="41"/>
+      <c r="F12" s="97" t="s">
         <v>420</v>
       </c>
-      <c r="G12" s="101" t="s">
+      <c r="G12" s="97" t="s">
         <v>421</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="101" t="s">
+      <c r="A13" s="97" t="s">
         <v>275</v>
       </c>
-      <c r="B13" s="110" t="s">
-        <v>479</v>
-      </c>
-      <c r="C13" s="112" t="str">
+      <c r="B13" s="105" t="s">
+        <v>476</v>
+      </c>
+      <c r="C13" s="107" t="str">
         <f t="shared" si="0"/>
         <v>"CBM" : "Coal Bed Methane - Ground Water",</v>
       </c>
-      <c r="D13" s="42"/>
-      <c r="E13" s="42"/>
-      <c r="F13" s="101" t="s">
+      <c r="D13" s="41"/>
+      <c r="E13" s="41"/>
+      <c r="F13" s="97" t="s">
         <v>138</v>
       </c>
-      <c r="G13" s="101" t="s">
+      <c r="G13" s="97" t="s">
         <v>422</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="101" t="s">
+      <c r="A14" s="97" t="s">
         <v>336</v>
       </c>
-      <c r="B14" s="110" t="s">
+      <c r="B14" s="105" t="s">
         <v>337</v>
       </c>
-      <c r="C14" s="112" t="str">
+      <c r="C14" s="107" t="str">
         <f t="shared" si="0"/>
         <v>"CHE" : "Chemical",</v>
       </c>
-      <c r="D14" s="42"/>
-      <c r="E14" s="42"/>
-      <c r="F14" s="101" t="s">
+      <c r="D14" s="41"/>
+      <c r="E14" s="41"/>
+      <c r="F14" s="97" t="s">
         <v>423</v>
       </c>
-      <c r="G14" s="101" t="s">
+      <c r="G14" s="97" t="s">
         <v>424</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="101" t="s">
+      <c r="A15" s="97" t="s">
         <v>283</v>
       </c>
-      <c r="B15" s="110" t="s">
+      <c r="B15" s="105" t="s">
         <v>252</v>
       </c>
-      <c r="C15" s="112" t="str">
+      <c r="C15" s="107" t="str">
         <f t="shared" si="0"/>
         <v>"CIS" : "Consumptive Instream Flow",</v>
       </c>
-      <c r="D15" s="42"/>
-      <c r="E15" s="42"/>
-      <c r="F15" s="101" t="s">
+      <c r="D15" s="41"/>
+      <c r="E15" s="41"/>
+      <c r="F15" s="97" t="s">
         <v>425</v>
       </c>
-      <c r="G15" s="101" t="s">
+      <c r="G15" s="97" t="s">
         <v>426</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="101" t="s">
+      <c r="A16" s="97" t="s">
         <v>284</v>
       </c>
-      <c r="B16" s="110" t="s">
+      <c r="B16" s="105" t="s">
         <v>253</v>
       </c>
-      <c r="C16" s="112" t="str">
+      <c r="C16" s="107" t="str">
         <f t="shared" si="0"/>
         <v>"CMU" : "Combined Uses",</v>
       </c>
-      <c r="D16" s="42"/>
-      <c r="E16" s="42"/>
-      <c r="F16" s="101" t="s">
+      <c r="D16" s="41"/>
+      <c r="E16" s="41"/>
+      <c r="F16" s="97" t="s">
         <v>427</v>
       </c>
-      <c r="G16" s="101" t="s">
+      <c r="G16" s="97" t="s">
         <v>428</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="101" t="s">
+      <c r="A17" s="97" t="s">
         <v>285</v>
       </c>
-      <c r="B17" s="110" t="s">
+      <c r="B17" s="105" t="s">
         <v>254</v>
       </c>
-      <c r="C17" s="112" t="str">
+      <c r="C17" s="107" t="str">
         <f t="shared" si="0"/>
         <v>"CNG_SW" : "Coal Bed Natural Gas",</v>
       </c>
-      <c r="D17" s="42"/>
-      <c r="E17" s="42"/>
-      <c r="F17" s="101" t="s">
+      <c r="D17" s="41"/>
+      <c r="E17" s="41"/>
+      <c r="F17" s="97" t="s">
         <v>429</v>
       </c>
-      <c r="G17" s="101" t="s">
+      <c r="G17" s="97" t="s">
         <v>430</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="101" t="s">
+      <c r="A18" s="97" t="s">
         <v>286</v>
       </c>
-      <c r="B18" s="110" t="s">
+      <c r="B18" s="105" t="s">
         <v>255</v>
       </c>
-      <c r="C18" s="112" t="str">
+      <c r="C18" s="107" t="str">
         <f t="shared" si="0"/>
         <v>"COM" : "Commercial",</v>
       </c>
-      <c r="D18" s="42"/>
-      <c r="E18" s="42"/>
-      <c r="F18" s="101" t="s">
-        <v>38</v>
-      </c>
-      <c r="G18" s="101" t="s">
+      <c r="D18" s="41"/>
+      <c r="E18" s="41"/>
+      <c r="F18" s="97" t="s">
+        <v>38</v>
+      </c>
+      <c r="G18" s="97" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="101" t="s">
+      <c r="A19" s="97" t="s">
         <v>338</v>
       </c>
-      <c r="B19" s="110" t="s">
+      <c r="B19" s="105" t="s">
         <v>339</v>
       </c>
-      <c r="C19" s="112" t="str">
+      <c r="C19" s="107" t="str">
         <f t="shared" si="0"/>
         <v>"CUL" : "Culinary",</v>
       </c>
-      <c r="D19" s="42"/>
-      <c r="E19" s="42"/>
+      <c r="D19" s="41"/>
+      <c r="E19" s="41"/>
     </row>
     <row r="20" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="101" t="s">
+      <c r="A20" s="97" t="s">
         <v>340</v>
       </c>
-      <c r="B20" s="110" t="s">
+      <c r="B20" s="105" t="s">
         <v>341</v>
       </c>
-      <c r="C20" s="112" t="str">
+      <c r="C20" s="107" t="str">
         <f t="shared" si="0"/>
         <v>"DAI" : "Dairy",</v>
       </c>
-      <c r="D20" s="42"/>
-      <c r="E20" s="42"/>
+      <c r="D20" s="41"/>
+      <c r="E20" s="41"/>
     </row>
     <row r="21" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="101" t="s">
+      <c r="A21" s="97" t="s">
         <v>321</v>
       </c>
-      <c r="B21" s="110" t="s">
-        <v>480</v>
-      </c>
-      <c r="C21" s="112" t="str">
+      <c r="B21" s="105" t="s">
+        <v>477</v>
+      </c>
+      <c r="C21" s="107" t="str">
         <f t="shared" si="0"/>
         <v>"DEW" : "Mine Dewatering",</v>
       </c>
-      <c r="D21" s="42"/>
-      <c r="E21" s="42"/>
+      <c r="D21" s="41"/>
+      <c r="E21" s="41"/>
     </row>
     <row r="22" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="101" t="s">
+      <c r="A22" s="97" t="s">
         <v>276</v>
       </c>
-      <c r="B22" s="110" t="s">
-        <v>481</v>
-      </c>
-      <c r="C22" s="112" t="str">
+      <c r="B22" s="105" t="s">
+        <v>478</v>
+      </c>
+      <c r="C22" s="107" t="str">
         <f t="shared" si="0"/>
         <v>"DOM_GW" : "Domestic - Ground Water",</v>
       </c>
-      <c r="D22" s="42"/>
-      <c r="E22" s="42"/>
+      <c r="D22" s="41"/>
+      <c r="E22" s="41"/>
     </row>
     <row r="23" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="101" t="s">
+      <c r="A23" s="97" t="s">
         <v>287</v>
       </c>
-      <c r="B23" s="110" t="s">
-        <v>482</v>
-      </c>
-      <c r="C23" s="112" t="str">
+      <c r="B23" s="105" t="s">
+        <v>479</v>
+      </c>
+      <c r="C23" s="107" t="str">
         <f t="shared" si="0"/>
         <v>"DOM_SW" : "Domestic - Surface Water",</v>
       </c>
-      <c r="D23" s="42"/>
-      <c r="E23" s="42"/>
+      <c r="D23" s="41"/>
+      <c r="E23" s="41"/>
     </row>
     <row r="24" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="101" t="s">
+      <c r="A24" s="97" t="s">
         <v>288</v>
       </c>
-      <c r="B24" s="110" t="s">
-        <v>483</v>
-      </c>
-      <c r="C24" s="112" t="str">
+      <c r="B24" s="105" t="s">
+        <v>480</v>
+      </c>
+      <c r="C24" s="107" t="str">
         <f t="shared" si="0"/>
         <v>"DPA" : "Domestic (Phase 2 Award)",</v>
       </c>
-      <c r="D24" s="42"/>
-      <c r="E24" s="42"/>
+      <c r="D24" s="41"/>
+      <c r="E24" s="41"/>
     </row>
     <row r="25" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="101" t="s">
+      <c r="A25" s="97" t="s">
         <v>353</v>
       </c>
-      <c r="B25" s="110" t="s">
+      <c r="B25" s="105" t="s">
         <v>354</v>
       </c>
-      <c r="C25" s="112" t="str">
+      <c r="C25" s="107" t="str">
         <f t="shared" si="0"/>
         <v>"DRI" : "Drilling",</v>
       </c>
-      <c r="D25" s="42"/>
-      <c r="E25" s="42"/>
+      <c r="D25" s="41"/>
+      <c r="E25" s="41"/>
     </row>
     <row r="26" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="101" t="s">
+      <c r="A26" s="97" t="s">
         <v>289</v>
       </c>
-      <c r="B26" s="110" t="s">
+      <c r="B26" s="105" t="s">
         <v>256</v>
       </c>
-      <c r="C26" s="112" t="str">
+      <c r="C26" s="107" t="str">
         <f t="shared" si="0"/>
         <v>"DSP" : "Domestic Supply",</v>
       </c>
-      <c r="D26" s="42"/>
-      <c r="E26" s="42"/>
+      <c r="D26" s="41"/>
+      <c r="E26" s="41"/>
     </row>
     <row r="27" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="101" t="s">
+      <c r="A27" s="97" t="s">
         <v>382</v>
       </c>
-      <c r="B27" s="110" t="s">
+      <c r="B27" s="105" t="s">
         <v>383</v>
       </c>
-      <c r="C27" s="112" t="str">
+      <c r="C27" s="107" t="str">
         <f t="shared" si="0"/>
         <v>"DTA" : "Dust Abatement",</v>
       </c>
-      <c r="D27" s="42"/>
-      <c r="E27" s="42"/>
+      <c r="D27" s="41"/>
+      <c r="E27" s="41"/>
     </row>
     <row r="28" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="101" t="s">
+      <c r="A28" s="97" t="s">
         <v>290</v>
       </c>
-      <c r="B28" s="110" t="s">
+      <c r="B28" s="105" t="s">
         <v>257</v>
       </c>
-      <c r="C28" s="112" t="str">
+      <c r="C28" s="107" t="str">
         <f t="shared" si="0"/>
         <v>"ECAP" : "Existing Capacity",</v>
       </c>
-      <c r="D28" s="42"/>
-      <c r="E28" s="42"/>
+      <c r="D28" s="41"/>
+      <c r="E28" s="41"/>
     </row>
     <row r="29" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="101" t="s">
+      <c r="A29" s="97" t="s">
         <v>291</v>
       </c>
-      <c r="B29" s="110" t="s">
+      <c r="B29" s="105" t="s">
         <v>258</v>
       </c>
-      <c r="C29" s="112" t="str">
+      <c r="C29" s="107" t="str">
         <f t="shared" si="0"/>
         <v>"ERO" : "Erosion Control",</v>
       </c>
-      <c r="D29" s="42"/>
-      <c r="E29" s="42"/>
+      <c r="D29" s="41"/>
+      <c r="E29" s="41"/>
     </row>
     <row r="30" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="101" t="s">
+      <c r="A30" s="97" t="s">
         <v>292</v>
       </c>
-      <c r="B30" s="110" t="s">
+      <c r="B30" s="105" t="s">
         <v>259</v>
       </c>
-      <c r="C30" s="112" t="str">
+      <c r="C30" s="107" t="str">
         <f t="shared" si="0"/>
         <v>"FIR" : "Fire Protection",</v>
       </c>
-      <c r="D30" s="42"/>
-      <c r="E30" s="42"/>
+      <c r="D30" s="41"/>
+      <c r="E30" s="41"/>
     </row>
     <row r="31" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="101" t="s">
+      <c r="A31" s="97" t="s">
         <v>293</v>
       </c>
-      <c r="B31" s="110" t="s">
-        <v>484</v>
-      </c>
-      <c r="C31" s="112" t="str">
+      <c r="B31" s="105" t="s">
+        <v>481</v>
+      </c>
+      <c r="C31" s="107" t="str">
         <f t="shared" si="0"/>
         <v>"FIS" : "Fish Propagation",</v>
       </c>
-      <c r="D31" s="42"/>
-      <c r="E31" s="42"/>
+      <c r="D31" s="41"/>
+      <c r="E31" s="41"/>
     </row>
     <row r="32" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="101" t="s">
+      <c r="A32" s="97" t="s">
         <v>294</v>
       </c>
-      <c r="B32" s="110" t="s">
+      <c r="B32" s="105" t="s">
         <v>260</v>
       </c>
-      <c r="C32" s="112" t="str">
+      <c r="C32" s="107" t="str">
         <f t="shared" si="0"/>
         <v>"FLO" : "Flood Control",</v>
       </c>
-      <c r="D32" s="42"/>
-      <c r="E32" s="42"/>
+      <c r="D32" s="41"/>
+      <c r="E32" s="41"/>
     </row>
     <row r="33" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="101" t="s">
+      <c r="A33" s="97" t="s">
         <v>295</v>
       </c>
-      <c r="B33" s="110" t="s">
+      <c r="B33" s="105" t="s">
         <v>261</v>
       </c>
-      <c r="C33" s="112" t="str">
+      <c r="C33" s="107" t="str">
         <f t="shared" si="0"/>
         <v>"FTH" : "Flow Through",</v>
       </c>
-      <c r="D33" s="42"/>
-      <c r="E33" s="42"/>
+      <c r="D33" s="41"/>
+      <c r="E33" s="41"/>
     </row>
     <row r="34" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="101" t="s">
+      <c r="A34" s="97" t="s">
         <v>296</v>
       </c>
-      <c r="B34" s="110" t="s">
+      <c r="B34" s="105" t="s">
         <v>262</v>
       </c>
-      <c r="C34" s="112" t="str">
+      <c r="C34" s="107" t="str">
         <f t="shared" si="0"/>
         <v>"GWR" : "Ground Water Recharge",</v>
       </c>
-      <c r="D34" s="42"/>
-      <c r="E34" s="42"/>
+      <c r="D34" s="41"/>
+      <c r="E34" s="41"/>
     </row>
     <row r="35" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="101" t="s">
+      <c r="A35" s="97" t="s">
         <v>355</v>
       </c>
-      <c r="B35" s="110" t="s">
+      <c r="B35" s="105" t="s">
         <v>356</v>
       </c>
-      <c r="C35" s="112" t="str">
+      <c r="C35" s="107" t="str">
         <f t="shared" si="0"/>
         <v>"HEX" : "Heat Extraction",</v>
       </c>
-      <c r="D35" s="42"/>
-      <c r="E35" s="42"/>
+      <c r="D35" s="41"/>
+      <c r="E35" s="41"/>
     </row>
     <row r="36" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="101" t="s">
+      <c r="A36" s="97" t="s">
         <v>322</v>
       </c>
-      <c r="B36" s="110" t="s">
-        <v>485</v>
-      </c>
-      <c r="C36" s="112" t="str">
+      <c r="B36" s="105" t="s">
+        <v>482</v>
+      </c>
+      <c r="C36" s="107" t="str">
         <f t="shared" si="0"/>
         <v>"HWY" : "Highway Construction",</v>
       </c>
-      <c r="D36" s="42"/>
-      <c r="E36" s="42"/>
+      <c r="D36" s="41"/>
+      <c r="E36" s="41"/>
     </row>
     <row r="37" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="101" t="s">
+      <c r="A37" s="97" t="s">
         <v>297</v>
       </c>
-      <c r="B37" s="110" t="s">
+      <c r="B37" s="105" t="s">
         <v>263</v>
       </c>
-      <c r="C37" s="112" t="str">
+      <c r="C37" s="107" t="str">
         <f t="shared" si="0"/>
         <v>"HYD" : "Hydropower",</v>
       </c>
-      <c r="D37" s="42"/>
-      <c r="E37" s="42"/>
+      <c r="D37" s="41"/>
+      <c r="E37" s="41"/>
     </row>
     <row r="38" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="101" t="s">
+      <c r="A38" s="97" t="s">
         <v>384</v>
       </c>
-      <c r="B38" s="110" t="s">
+      <c r="B38" s="105" t="s">
         <v>385</v>
       </c>
-      <c r="C38" s="112" t="str">
+      <c r="C38" s="107" t="str">
         <f t="shared" si="0"/>
         <v>"HYT" : "Hydrostatic Testing",</v>
       </c>
-      <c r="D38" s="42"/>
-      <c r="E38" s="42"/>
+      <c r="D38" s="41"/>
+      <c r="E38" s="41"/>
     </row>
     <row r="39" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="101" t="s">
+      <c r="A39" s="97" t="s">
         <v>298</v>
       </c>
-      <c r="B39" s="110" t="s">
+      <c r="B39" s="105" t="s">
         <v>264</v>
       </c>
-      <c r="C39" s="112" t="str">
+      <c r="C39" s="107" t="str">
         <f t="shared" si="0"/>
         <v>"ICE" : "Ice Cutting",</v>
       </c>
-      <c r="D39" s="42"/>
-      <c r="E39" s="42"/>
+      <c r="D39" s="41"/>
+      <c r="E39" s="41"/>
     </row>
     <row r="40" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="101" t="s">
+      <c r="A40" s="97" t="s">
         <v>299</v>
       </c>
-      <c r="B40" s="110" t="s">
-        <v>486</v>
-      </c>
-      <c r="C40" s="112" t="str">
+      <c r="B40" s="105" t="s">
+        <v>483</v>
+      </c>
+      <c r="C40" s="107" t="str">
         <f t="shared" si="0"/>
         <v>"IFA" : "Instream Flow (Phase 2 Award)",</v>
       </c>
-      <c r="D40" s="42"/>
-      <c r="E40" s="42"/>
+      <c r="D40" s="41"/>
+      <c r="E40" s="41"/>
     </row>
     <row r="41" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="101" t="s">
+      <c r="A41" s="97" t="s">
         <v>277</v>
       </c>
-      <c r="B41" s="110" t="s">
-        <v>487</v>
-      </c>
-      <c r="C41" s="112" t="str">
+      <c r="B41" s="105" t="s">
+        <v>484</v>
+      </c>
+      <c r="C41" s="107" t="str">
         <f t="shared" si="0"/>
         <v>"IND_GW" : "Industrial - Ground Water",</v>
       </c>
-      <c r="D41" s="42"/>
-      <c r="E41" s="42"/>
+      <c r="D41" s="41"/>
+      <c r="E41" s="41"/>
     </row>
     <row r="42" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="101" t="s">
+      <c r="A42" s="97" t="s">
         <v>300</v>
       </c>
-      <c r="B42" s="110" t="s">
-        <v>488</v>
-      </c>
-      <c r="C42" s="112" t="str">
+      <c r="B42" s="105" t="s">
+        <v>485</v>
+      </c>
+      <c r="C42" s="107" t="str">
         <f t="shared" si="0"/>
         <v>"IND_SW" : "Industrial - Surface Water",</v>
       </c>
-      <c r="D42" s="42"/>
-      <c r="E42" s="42"/>
+      <c r="D42" s="41"/>
+      <c r="E42" s="41"/>
     </row>
     <row r="43" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="101" t="s">
+      <c r="A43" s="97" t="s">
         <v>278</v>
       </c>
-      <c r="B43" s="110" t="s">
-        <v>489</v>
-      </c>
-      <c r="C43" s="112" t="str">
+      <c r="B43" s="105" t="s">
+        <v>486</v>
+      </c>
+      <c r="C43" s="107" t="str">
         <f t="shared" ref="C43:C89" si="1">""""&amp;A43&amp;""""&amp;" : "&amp;""""&amp;B43&amp;""""&amp;","</f>
         <v>"IRR_GW" : "Irrigation - Ground Water",</v>
       </c>
-      <c r="D43" s="42"/>
-      <c r="E43" s="42"/>
-      <c r="G43" s="42"/>
+      <c r="D43" s="41"/>
+      <c r="E43" s="41"/>
+      <c r="G43" s="41"/>
       <c r="H43"/>
     </row>
     <row r="44" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="101" t="s">
+      <c r="A44" s="97" t="s">
         <v>301</v>
       </c>
-      <c r="B44" s="110" t="s">
-        <v>490</v>
-      </c>
-      <c r="C44" s="112" t="str">
+      <c r="B44" s="105" t="s">
+        <v>487</v>
+      </c>
+      <c r="C44" s="107" t="str">
         <f t="shared" si="1"/>
         <v>"IRR_SW" : "Irrigation - Surface Water",</v>
       </c>
-      <c r="D44" s="42"/>
-      <c r="E44" s="42"/>
-      <c r="G44" s="42"/>
+      <c r="D44" s="41"/>
+      <c r="E44" s="41"/>
+      <c r="G44" s="41"/>
       <c r="H44"/>
     </row>
     <row r="45" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="101" t="s">
+      <c r="A45" s="97" t="s">
         <v>302</v>
       </c>
-      <c r="B45" s="110" t="s">
+      <c r="B45" s="105" t="s">
         <v>417</v>
       </c>
-      <c r="C45" s="112" t="str">
+      <c r="C45" s="107" t="str">
         <f t="shared" si="1"/>
         <v>"ISF" : "Instream Flow",</v>
       </c>
-      <c r="D45" s="42"/>
-      <c r="E45" s="42"/>
-      <c r="G45" s="42"/>
+      <c r="D45" s="41"/>
+      <c r="E45" s="41"/>
+      <c r="G45" s="41"/>
       <c r="H45"/>
     </row>
     <row r="46" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="101" t="s">
+      <c r="A46" s="97" t="s">
         <v>303</v>
       </c>
-      <c r="B46" s="110" t="s">
-        <v>491</v>
-      </c>
-      <c r="C46" s="112" t="str">
+      <c r="B46" s="105" t="s">
+        <v>488</v>
+      </c>
+      <c r="C46" s="107" t="str">
         <f t="shared" si="1"/>
         <v>"LAK" : "Maintain Natural Lake Level (Phase 2 Award)",</v>
       </c>
-      <c r="D46" s="42"/>
-      <c r="E46" s="42"/>
-      <c r="G46" s="42"/>
+      <c r="D46" s="41"/>
+      <c r="E46" s="41"/>
+      <c r="G46" s="41"/>
       <c r="H46"/>
     </row>
     <row r="47" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="101" t="s">
+      <c r="A47" s="97" t="s">
         <v>323</v>
       </c>
-      <c r="B47" s="110" t="s">
-        <v>492</v>
-      </c>
-      <c r="C47" s="112" t="str">
+      <c r="B47" s="105" t="s">
+        <v>489</v>
+      </c>
+      <c r="C47" s="107" t="str">
         <f t="shared" si="1"/>
         <v>"LAW" : "Large Scale Landscape",</v>
       </c>
-      <c r="D47" s="42"/>
-      <c r="E47" s="42"/>
-      <c r="G47" s="42"/>
+      <c r="D47" s="41"/>
+      <c r="E47" s="41"/>
+      <c r="G47" s="41"/>
       <c r="H47"/>
     </row>
     <row r="48" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="101" t="s">
+      <c r="A48" s="97" t="s">
         <v>342</v>
       </c>
-      <c r="B48" s="110" t="s">
+      <c r="B48" s="105" t="s">
         <v>343</v>
       </c>
-      <c r="C48" s="112" t="str">
+      <c r="C48" s="107" t="str">
         <f t="shared" si="1"/>
         <v>"MAI" : "Maintenance (Equipment Washing)",</v>
       </c>
-      <c r="D48" s="42"/>
-      <c r="E48" s="42"/>
-      <c r="G48" s="42"/>
+      <c r="D48" s="41"/>
+      <c r="E48" s="41"/>
+      <c r="G48" s="41"/>
       <c r="H48"/>
     </row>
     <row r="49" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="101" t="s">
+      <c r="A49" s="97" t="s">
         <v>357</v>
       </c>
-      <c r="B49" s="110" t="s">
+      <c r="B49" s="105" t="s">
         <v>358</v>
       </c>
-      <c r="C49" s="112" t="str">
+      <c r="C49" s="107" t="str">
         <f t="shared" si="1"/>
         <v>"MAN" : "Manufacturing",</v>
       </c>
-      <c r="D49" s="42"/>
-      <c r="E49" s="42"/>
-      <c r="G49" s="42"/>
+      <c r="D49" s="41"/>
+      <c r="E49" s="41"/>
+      <c r="G49" s="41"/>
       <c r="H49"/>
     </row>
     <row r="50" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="101" t="s">
+      <c r="A50" s="97" t="s">
         <v>344</v>
       </c>
-      <c r="B50" s="110" t="s">
+      <c r="B50" s="105" t="s">
         <v>345</v>
       </c>
-      <c r="C50" s="112" t="str">
+      <c r="C50" s="107" t="str">
         <f t="shared" si="1"/>
         <v>"MEC" : "Mechanical ",</v>
       </c>
-      <c r="D50" s="42"/>
-      <c r="E50" s="42"/>
-      <c r="G50" s="42"/>
+      <c r="D50" s="41"/>
+      <c r="E50" s="41"/>
+      <c r="G50" s="41"/>
       <c r="H50"/>
     </row>
     <row r="51" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="101" t="s">
+      <c r="A51" s="97" t="s">
         <v>346</v>
       </c>
-      <c r="B51" s="110" t="s">
+      <c r="B51" s="105" t="s">
         <v>347</v>
       </c>
-      <c r="C51" s="112" t="str">
+      <c r="C51" s="107" t="str">
         <f t="shared" si="1"/>
         <v>"MED" : "Medicinal",</v>
       </c>
-      <c r="D51" s="42"/>
-      <c r="E51" s="42"/>
-      <c r="G51" s="42"/>
+      <c r="D51" s="41"/>
+      <c r="E51" s="41"/>
+      <c r="G51" s="41"/>
       <c r="H51"/>
     </row>
     <row r="52" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="101" t="s">
+      <c r="A52" s="97" t="s">
         <v>386</v>
       </c>
-      <c r="B52" s="110" t="s">
+      <c r="B52" s="105" t="s">
         <v>387</v>
       </c>
-      <c r="C52" s="112" t="str">
+      <c r="C52" s="107" t="str">
         <f t="shared" si="1"/>
         <v>"MEM" : "Municipal (Emergency)",</v>
       </c>
-      <c r="D52" s="42"/>
-      <c r="E52" s="42"/>
-      <c r="G52" s="42"/>
+      <c r="D52" s="41"/>
+      <c r="E52" s="41"/>
+      <c r="G52" s="41"/>
       <c r="H52"/>
     </row>
     <row r="53" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A53" s="101" t="s">
+      <c r="A53" s="97" t="s">
         <v>359</v>
       </c>
-      <c r="B53" s="110" t="s">
+      <c r="B53" s="105" t="s">
         <v>360</v>
       </c>
-      <c r="C53" s="112" t="str">
+      <c r="C53" s="107" t="str">
         <f t="shared" si="1"/>
         <v>"MIL" : "Milling",</v>
       </c>
-      <c r="D53" s="42"/>
-      <c r="E53" s="42"/>
-      <c r="G53" s="42"/>
+      <c r="D53" s="41"/>
+      <c r="E53" s="41"/>
+      <c r="G53" s="41"/>
       <c r="H53"/>
     </row>
     <row r="54" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A54" s="101" t="s">
+      <c r="A54" s="97" t="s">
         <v>361</v>
       </c>
-      <c r="B54" s="110" t="s">
+      <c r="B54" s="105" t="s">
         <v>362</v>
       </c>
-      <c r="C54" s="112" t="str">
+      <c r="C54" s="107" t="str">
         <f t="shared" si="1"/>
         <v>"MIN" : "Mining",</v>
       </c>
-      <c r="D54" s="42"/>
-      <c r="E54" s="42"/>
-      <c r="G54" s="42"/>
+      <c r="D54" s="41"/>
+      <c r="E54" s="41"/>
+      <c r="G54" s="41"/>
       <c r="H54"/>
     </row>
     <row r="55" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A55" s="101" t="s">
+      <c r="A55" s="97" t="s">
         <v>401</v>
       </c>
-      <c r="B55" s="110" t="s">
-        <v>493</v>
-      </c>
-      <c r="C55" s="112" t="str">
+      <c r="B55" s="105" t="s">
+        <v>490</v>
+      </c>
+      <c r="C55" s="107" t="str">
         <f t="shared" si="1"/>
         <v>"MIS" : "Miscellaneous - Ground Water",</v>
       </c>
-      <c r="D55" s="42"/>
-      <c r="E55" s="42"/>
-      <c r="G55" s="42"/>
+      <c r="D55" s="41"/>
+      <c r="E55" s="41"/>
+      <c r="G55" s="41"/>
       <c r="H55"/>
     </row>
     <row r="56" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A56" s="101" t="s">
+      <c r="A56" s="97" t="s">
         <v>279</v>
       </c>
-      <c r="B56" s="110" t="s">
-        <v>494</v>
-      </c>
-      <c r="C56" s="112" t="str">
+      <c r="B56" s="105" t="s">
+        <v>491</v>
+      </c>
+      <c r="C56" s="107" t="str">
         <f t="shared" si="1"/>
         <v>"MON" : "Monitor",</v>
       </c>
-      <c r="D56" s="42"/>
-      <c r="E56" s="42"/>
-      <c r="G56" s="42"/>
+      <c r="D56" s="41"/>
+      <c r="E56" s="41"/>
+      <c r="G56" s="41"/>
       <c r="H56"/>
     </row>
     <row r="57" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A57" s="101" t="s">
+      <c r="A57" s="97" t="s">
         <v>280</v>
       </c>
-      <c r="B57" s="110" t="s">
-        <v>495</v>
-      </c>
-      <c r="C57" s="112" t="str">
+      <c r="B57" s="105" t="s">
+        <v>492</v>
+      </c>
+      <c r="C57" s="107" t="str">
         <f t="shared" si="1"/>
         <v>"MUN_GW" : "Municipal - Ground Water",</v>
       </c>
-      <c r="D57" s="42"/>
-      <c r="E57" s="42"/>
-      <c r="G57" s="42"/>
+      <c r="D57" s="41"/>
+      <c r="E57" s="41"/>
+      <c r="G57" s="41"/>
       <c r="H57"/>
     </row>
     <row r="58" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="101" t="s">
+      <c r="A58" s="97" t="s">
         <v>304</v>
       </c>
-      <c r="B58" s="110" t="s">
-        <v>496</v>
-      </c>
-      <c r="C58" s="112" t="str">
+      <c r="B58" s="105" t="s">
+        <v>493</v>
+      </c>
+      <c r="C58" s="107" t="str">
         <f t="shared" si="1"/>
         <v>"MUN_SW" : "Municipal - Surface Water",</v>
       </c>
-      <c r="D58" s="42"/>
-      <c r="E58" s="42"/>
-      <c r="G58" s="42"/>
+      <c r="D58" s="41"/>
+      <c r="E58" s="41"/>
+      <c r="G58" s="41"/>
       <c r="H58"/>
     </row>
     <row r="59" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A59" s="101" t="s">
+      <c r="A59" s="97" t="s">
         <v>305</v>
       </c>
-      <c r="B59" s="110" t="s">
-        <v>497</v>
-      </c>
-      <c r="C59" s="112" t="str">
+      <c r="B59" s="105" t="s">
+        <v>494</v>
+      </c>
+      <c r="C59" s="107" t="str">
         <f t="shared" si="1"/>
         <v>"NAT" : "Natural Flow (Phase 2 Award)",</v>
       </c>
-      <c r="D59" s="42"/>
-      <c r="E59" s="42"/>
-      <c r="G59" s="42"/>
+      <c r="D59" s="41"/>
+      <c r="E59" s="41"/>
+      <c r="G59" s="41"/>
       <c r="H59"/>
     </row>
     <row r="60" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A60" s="101" t="s">
+      <c r="A60" s="97" t="s">
         <v>324</v>
       </c>
-      <c r="B60" s="110" t="s">
-        <v>498</v>
-      </c>
-      <c r="C60" s="112" t="str">
+      <c r="B60" s="105" t="s">
+        <v>495</v>
+      </c>
+      <c r="C60" s="107" t="str">
         <f t="shared" si="1"/>
         <v>"O&amp;G" : "Oil and Gas Well Drilling",</v>
       </c>
-      <c r="D60" s="42"/>
-      <c r="E60" s="42"/>
-      <c r="G60" s="42"/>
+      <c r="D60" s="41"/>
+      <c r="E60" s="41"/>
+      <c r="G60" s="41"/>
       <c r="H60"/>
     </row>
     <row r="61" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A61" s="101" t="s">
+      <c r="A61" s="97" t="s">
         <v>306</v>
       </c>
-      <c r="B61" s="110" t="s">
+      <c r="B61" s="105" t="s">
         <v>265</v>
       </c>
-      <c r="C61" s="112" t="str">
+      <c r="C61" s="107" t="str">
         <f t="shared" si="1"/>
         <v>"OTH" : "Other",</v>
       </c>
-      <c r="D61" s="42"/>
-      <c r="E61" s="42"/>
-      <c r="G61" s="42"/>
+      <c r="D61" s="41"/>
+      <c r="E61" s="41"/>
+      <c r="G61" s="41"/>
       <c r="H61"/>
     </row>
     <row r="62" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A62" s="101" t="s">
+      <c r="A62" s="97" t="s">
         <v>348</v>
       </c>
-      <c r="B62" s="110" t="s">
+      <c r="B62" s="105" t="s">
         <v>349</v>
       </c>
-      <c r="C62" s="112" t="str">
+      <c r="C62" s="107" t="str">
         <f t="shared" si="1"/>
         <v>"OTH_CM" : "Other - Commercial",</v>
       </c>
-      <c r="D62" s="42"/>
-      <c r="E62" s="42"/>
-      <c r="G62" s="42"/>
+      <c r="D62" s="41"/>
+      <c r="E62" s="41"/>
+      <c r="G62" s="41"/>
       <c r="H62"/>
     </row>
     <row r="63" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A63" s="101" t="s">
+      <c r="A63" s="97" t="s">
         <v>363</v>
       </c>
-      <c r="B63" s="110" t="s">
+      <c r="B63" s="105" t="s">
         <v>364</v>
       </c>
-      <c r="C63" s="112" t="str">
+      <c r="C63" s="107" t="str">
         <f t="shared" si="1"/>
         <v>"OTH_IN" : "Other - Industrial",</v>
       </c>
-      <c r="D63" s="42"/>
-      <c r="E63" s="42"/>
-      <c r="G63" s="42"/>
+      <c r="D63" s="41"/>
+      <c r="E63" s="41"/>
+      <c r="G63" s="41"/>
       <c r="H63"/>
     </row>
     <row r="64" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A64" s="101" t="s">
+      <c r="A64" s="97" t="s">
         <v>388</v>
       </c>
-      <c r="B64" s="110" t="s">
+      <c r="B64" s="105" t="s">
         <v>389</v>
       </c>
-      <c r="C64" s="112" t="str">
+      <c r="C64" s="107" t="str">
         <f t="shared" si="1"/>
         <v>"OTH_TM" : "Other - Temporary",</v>
       </c>
-      <c r="D64" s="42"/>
-      <c r="E64" s="42"/>
-      <c r="G64" s="42"/>
+      <c r="D64" s="41"/>
+      <c r="E64" s="41"/>
+      <c r="G64" s="41"/>
       <c r="H64"/>
     </row>
     <row r="65" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A65" s="101" t="s">
+      <c r="A65" s="97" t="s">
         <v>325</v>
       </c>
-      <c r="B65" s="110" t="s">
-        <v>499</v>
-      </c>
-      <c r="C65" s="112" t="str">
+      <c r="B65" s="105" t="s">
+        <v>496</v>
+      </c>
+      <c r="C65" s="107" t="str">
         <f t="shared" si="1"/>
         <v>"P&amp;S" : "Potable and Sanitary Supply",</v>
       </c>
-      <c r="D65" s="42"/>
-      <c r="E65" s="42"/>
-      <c r="G65" s="42"/>
+      <c r="D65" s="41"/>
+      <c r="E65" s="41"/>
+      <c r="G65" s="41"/>
       <c r="H65"/>
     </row>
     <row r="66" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A66" s="101" t="s">
+      <c r="A66" s="97" t="s">
         <v>365</v>
       </c>
-      <c r="B66" s="110" t="s">
+      <c r="B66" s="105" t="s">
         <v>366</v>
       </c>
-      <c r="C66" s="112" t="str">
+      <c r="C66" s="107" t="str">
         <f t="shared" si="1"/>
         <v>"PCT" : "Pollution Control",</v>
       </c>
-      <c r="D66" s="42"/>
-      <c r="E66" s="42"/>
-      <c r="G66" s="42"/>
+      <c r="D66" s="41"/>
+      <c r="E66" s="41"/>
+      <c r="G66" s="41"/>
       <c r="H66"/>
     </row>
     <row r="67" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A67" s="101" t="s">
+      <c r="A67" s="97" t="s">
         <v>367</v>
       </c>
-      <c r="B67" s="110" t="s">
+      <c r="B67" s="105" t="s">
         <v>368</v>
       </c>
-      <c r="C67" s="112" t="str">
+      <c r="C67" s="107" t="str">
         <f t="shared" si="1"/>
         <v>"POW" : "Power",</v>
       </c>
-      <c r="D67" s="42"/>
-      <c r="E67" s="42"/>
-      <c r="G67" s="42"/>
+      <c r="D67" s="41"/>
+      <c r="E67" s="41"/>
+      <c r="G67" s="41"/>
       <c r="H67"/>
     </row>
     <row r="68" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A68" s="101" t="s">
+      <c r="A68" s="97" t="s">
         <v>307</v>
       </c>
-      <c r="B68" s="110" t="s">
+      <c r="B68" s="105" t="s">
         <v>266</v>
       </c>
-      <c r="C68" s="112" t="str">
+      <c r="C68" s="107" t="str">
         <f t="shared" si="1"/>
         <v>"RAI" : "Railroad",</v>
       </c>
-      <c r="D68" s="42"/>
-      <c r="E68" s="42"/>
-      <c r="G68" s="42"/>
+      <c r="D68" s="41"/>
+      <c r="E68" s="41"/>
+      <c r="G68" s="41"/>
       <c r="H68"/>
     </row>
     <row r="69" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A69" s="101" t="s">
+      <c r="A69" s="97" t="s">
         <v>390</v>
       </c>
-      <c r="B69" s="110" t="s">
+      <c r="B69" s="105" t="s">
         <v>391</v>
       </c>
-      <c r="C69" s="112" t="str">
+      <c r="C69" s="107" t="str">
         <f t="shared" si="1"/>
         <v>"RDC" : "Road Construction",</v>
       </c>
-      <c r="D69" s="42"/>
-      <c r="E69" s="42"/>
-      <c r="G69" s="42"/>
+      <c r="D69" s="41"/>
+      <c r="E69" s="41"/>
+      <c r="G69" s="41"/>
       <c r="H69"/>
     </row>
     <row r="70" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A70" s="101" t="s">
+      <c r="A70" s="97" t="s">
         <v>308</v>
       </c>
-      <c r="B70" s="110" t="s">
+      <c r="B70" s="105" t="s">
         <v>267</v>
       </c>
-      <c r="C70" s="112" t="str">
+      <c r="C70" s="107" t="str">
         <f t="shared" si="1"/>
         <v>"REC" : "Recreation",</v>
       </c>
-      <c r="D70" s="42"/>
-      <c r="E70" s="42"/>
-      <c r="G70" s="42"/>
+      <c r="D70" s="41"/>
+      <c r="E70" s="41"/>
+      <c r="G70" s="41"/>
       <c r="H70"/>
     </row>
     <row r="71" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A71" s="101" t="s">
+      <c r="A71" s="97" t="s">
         <v>369</v>
       </c>
-      <c r="B71" s="110" t="s">
+      <c r="B71" s="105" t="s">
         <v>370</v>
       </c>
-      <c r="C71" s="112" t="str">
+      <c r="C71" s="107" t="str">
         <f t="shared" si="1"/>
         <v>"REF" : "Refining",</v>
       </c>
-      <c r="D71" s="42"/>
-      <c r="E71" s="42"/>
-      <c r="G71" s="42"/>
+      <c r="D71" s="41"/>
+      <c r="E71" s="41"/>
+      <c r="G71" s="41"/>
       <c r="H71"/>
     </row>
     <row r="72" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A72" s="101" t="s">
+      <c r="A72" s="97" t="s">
         <v>309</v>
       </c>
-      <c r="B72" s="110" t="s">
+      <c r="B72" s="105" t="s">
         <v>268</v>
       </c>
-      <c r="C72" s="112" t="str">
+      <c r="C72" s="107" t="str">
         <f t="shared" si="1"/>
         <v>"RES" : "Reservoir Supply",</v>
       </c>
-      <c r="D72" s="42"/>
-      <c r="E72" s="42"/>
-      <c r="G72" s="42"/>
+      <c r="D72" s="41"/>
+      <c r="E72" s="41"/>
+      <c r="G72" s="41"/>
       <c r="H72"/>
     </row>
     <row r="73" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A73" s="101" t="s">
+      <c r="A73" s="97" t="s">
         <v>371</v>
       </c>
-      <c r="B73" s="110" t="s">
+      <c r="B73" s="105" t="s">
         <v>372</v>
       </c>
-      <c r="C73" s="112" t="str">
+      <c r="C73" s="107" t="str">
         <f t="shared" si="1"/>
         <v>"REW" : "Reclamation Watering",</v>
       </c>
-      <c r="D73" s="42"/>
-      <c r="E73" s="42"/>
-      <c r="G73" s="42"/>
+      <c r="D73" s="41"/>
+      <c r="E73" s="41"/>
+      <c r="G73" s="41"/>
       <c r="H73"/>
     </row>
     <row r="74" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A74" s="101" t="s">
+      <c r="A74" s="97" t="s">
         <v>326</v>
       </c>
-      <c r="B74" s="110" t="s">
-        <v>500</v>
-      </c>
-      <c r="C74" s="112" t="str">
+      <c r="B74" s="105" t="s">
+        <v>497</v>
+      </c>
+      <c r="C74" s="107" t="str">
         <f t="shared" si="1"/>
         <v>"SDG" : "Gpm For Domestic or Stock",</v>
       </c>
-      <c r="D74" s="42"/>
-      <c r="E74" s="42"/>
-      <c r="G74" s="42"/>
+      <c r="D74" s="41"/>
+      <c r="E74" s="41"/>
+      <c r="G74" s="41"/>
       <c r="H74"/>
     </row>
     <row r="75" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A75" s="101" t="s">
+      <c r="A75" s="97" t="s">
         <v>377</v>
       </c>
-      <c r="B75" s="110" t="s">
-        <v>501</v>
-      </c>
-      <c r="C75" s="112" t="str">
+      <c r="B75" s="105" t="s">
+        <v>498</v>
+      </c>
+      <c r="C75" s="107" t="str">
         <f t="shared" si="1"/>
         <v>"SDU" : "Stock and Domestic",</v>
       </c>
-      <c r="D75" s="42"/>
-      <c r="E75" s="42"/>
-      <c r="G75" s="42"/>
+      <c r="D75" s="41"/>
+      <c r="E75" s="41"/>
+      <c r="G75" s="41"/>
       <c r="H75"/>
     </row>
     <row r="76" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A76" s="101" t="s">
+      <c r="A76" s="97" t="s">
         <v>373</v>
       </c>
-      <c r="B76" s="110" t="s">
+      <c r="B76" s="105" t="s">
         <v>374</v>
       </c>
-      <c r="C76" s="112" t="str">
+      <c r="C76" s="107" t="str">
         <f t="shared" si="1"/>
         <v>"SED" : "Sediment Control",</v>
       </c>
-      <c r="D76" s="42"/>
-      <c r="E76" s="42"/>
-      <c r="G76" s="42"/>
+      <c r="D76" s="41"/>
+      <c r="E76" s="41"/>
+      <c r="G76" s="41"/>
       <c r="H76"/>
     </row>
     <row r="77" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A77" s="101" t="s">
+      <c r="A77" s="97" t="s">
         <v>375</v>
       </c>
-      <c r="B77" s="110" t="s">
+      <c r="B77" s="105" t="s">
         <v>376</v>
       </c>
-      <c r="C77" s="112" t="str">
+      <c r="C77" s="107" t="str">
         <f t="shared" si="1"/>
         <v>"SNO" : "Snow Making",</v>
       </c>
-      <c r="D77" s="42"/>
-      <c r="E77" s="42"/>
-      <c r="G77" s="42"/>
+      <c r="D77" s="41"/>
+      <c r="E77" s="41"/>
+      <c r="G77" s="41"/>
       <c r="H77"/>
     </row>
     <row r="78" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A78" s="101" t="s">
+      <c r="A78" s="97" t="s">
         <v>310</v>
       </c>
-      <c r="B78" s="110" t="s">
+      <c r="B78" s="105" t="s">
         <v>269</v>
       </c>
-      <c r="C78" s="112" t="str">
+      <c r="C78" s="107" t="str">
         <f t="shared" si="1"/>
         <v>"STE" : "Stream",</v>
       </c>
-      <c r="D78" s="42"/>
-      <c r="E78" s="42"/>
-      <c r="G78" s="42"/>
+      <c r="D78" s="41"/>
+      <c r="E78" s="41"/>
+      <c r="G78" s="41"/>
       <c r="H78"/>
     </row>
     <row r="79" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A79" s="101" t="s">
+      <c r="A79" s="97" t="s">
         <v>281</v>
       </c>
-      <c r="B79" s="110" t="s">
+      <c r="B79" s="105" t="s">
         <v>250</v>
       </c>
-      <c r="C79" s="112" t="str">
+      <c r="C79" s="107" t="str">
         <f t="shared" si="1"/>
         <v>"STK" : "Stock Watering",</v>
       </c>
-      <c r="D79" s="42"/>
-      <c r="E79" s="42"/>
-      <c r="G79" s="42"/>
+      <c r="D79" s="41"/>
+      <c r="E79" s="41"/>
+      <c r="G79" s="41"/>
       <c r="H79"/>
     </row>
     <row r="80" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A80" s="101" t="s">
+      <c r="A80" s="97" t="s">
         <v>311</v>
       </c>
-      <c r="B80" s="110" t="s">
+      <c r="B80" s="105" t="s">
         <v>270</v>
       </c>
-      <c r="C80" s="112" t="str">
+      <c r="C80" s="107" t="str">
         <f t="shared" si="1"/>
         <v>"STO" : "Stock",</v>
       </c>
-      <c r="D80" s="42"/>
-      <c r="E80" s="42"/>
-      <c r="G80" s="42"/>
+      <c r="D80" s="41"/>
+      <c r="E80" s="41"/>
+      <c r="G80" s="41"/>
       <c r="H80"/>
     </row>
     <row r="81" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A81" s="101" t="s">
+      <c r="A81" s="97" t="s">
         <v>392</v>
       </c>
-      <c r="B81" s="110" t="s">
+      <c r="B81" s="105" t="s">
         <v>250</v>
       </c>
-      <c r="C81" s="112" t="str">
+      <c r="C81" s="107" t="str">
         <f t="shared" si="1"/>
         <v>"STW" : "Stock Watering",</v>
       </c>
-      <c r="D81" s="42"/>
-      <c r="E81" s="42"/>
-      <c r="G81" s="42"/>
+      <c r="D81" s="41"/>
+      <c r="E81" s="41"/>
+      <c r="G81" s="41"/>
       <c r="H81"/>
     </row>
     <row r="82" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A82" s="101" t="s">
+      <c r="A82" s="97" t="s">
         <v>327</v>
       </c>
-      <c r="B82" s="110" t="s">
-        <v>502</v>
-      </c>
-      <c r="C82" s="112" t="str">
+      <c r="B82" s="105" t="s">
+        <v>499</v>
+      </c>
+      <c r="C82" s="107" t="str">
         <f t="shared" si="1"/>
         <v>"SWD" : "Subdivision",</v>
       </c>
-      <c r="D82" s="42"/>
-      <c r="E82" s="42"/>
-      <c r="G82" s="42"/>
+      <c r="D82" s="41"/>
+      <c r="E82" s="41"/>
+      <c r="G82" s="41"/>
       <c r="H82"/>
     </row>
     <row r="83" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A83" s="101" t="s">
+      <c r="A83" s="97" t="s">
         <v>328</v>
       </c>
-      <c r="B83" s="110" t="s">
+      <c r="B83" s="105" t="s">
         <v>329</v>
       </c>
-      <c r="C83" s="112" t="str">
+      <c r="C83" s="107" t="str">
         <f t="shared" si="1"/>
         <v>"SWP" : "Stock Water Pipeline",</v>
       </c>
-      <c r="D83" s="42"/>
-      <c r="E83" s="42"/>
-      <c r="G83" s="42"/>
+      <c r="D83" s="41"/>
+      <c r="E83" s="41"/>
+      <c r="G83" s="41"/>
       <c r="H83"/>
     </row>
     <row r="84" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A84" s="101" t="s">
+      <c r="A84" s="97" t="s">
         <v>312</v>
       </c>
-      <c r="B84" s="110" t="s">
+      <c r="B84" s="105" t="s">
         <v>271</v>
       </c>
-      <c r="C84" s="112" t="str">
+      <c r="C84" s="107" t="str">
         <f t="shared" si="1"/>
         <v>"TEM" : "Temporary",</v>
       </c>
-      <c r="D84" s="42"/>
-      <c r="E84" s="42"/>
-      <c r="G84" s="42"/>
+      <c r="D84" s="41"/>
+      <c r="E84" s="41"/>
+      <c r="G84" s="41"/>
       <c r="H84"/>
     </row>
     <row r="85" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A85" s="101" t="s">
+      <c r="A85" s="97" t="s">
         <v>313</v>
       </c>
-      <c r="B85" s="110" t="s">
-        <v>477</v>
-      </c>
-      <c r="C85" s="112" t="str">
+      <c r="B85" s="105" t="s">
+        <v>474</v>
+      </c>
+      <c r="C85" s="107" t="str">
         <f t="shared" si="1"/>
         <v>"TENL" : "Total Enlargement",</v>
       </c>
-      <c r="D85" s="42"/>
-      <c r="E85" s="42"/>
-      <c r="G85" s="42"/>
+      <c r="D85" s="41"/>
+      <c r="E85" s="41"/>
+      <c r="G85" s="41"/>
       <c r="H85"/>
     </row>
     <row r="86" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A86" s="101" t="s">
+      <c r="A86" s="97" t="s">
         <v>314</v>
       </c>
-      <c r="B86" s="110" t="s">
+      <c r="B86" s="105" t="s">
         <v>272</v>
       </c>
-      <c r="C86" s="112" t="str">
+      <c r="C86" s="107" t="str">
         <f t="shared" si="1"/>
         <v>"TRA" : "Transportation",</v>
       </c>
-      <c r="D86" s="42"/>
-      <c r="E86" s="42"/>
-      <c r="G86" s="42"/>
+      <c r="D86" s="41"/>
+      <c r="E86" s="41"/>
+      <c r="G86" s="41"/>
       <c r="H86"/>
     </row>
     <row r="87" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A87" s="101" t="s">
+      <c r="A87" s="97" t="s">
         <v>282</v>
       </c>
-      <c r="B87" s="110" t="s">
+      <c r="B87" s="105" t="s">
         <v>251</v>
       </c>
-      <c r="C87" s="112" t="str">
+      <c r="C87" s="107" t="str">
         <f t="shared" si="1"/>
         <v>"TST" : "Test Well",</v>
       </c>
-      <c r="D87" s="42"/>
-      <c r="E87" s="42"/>
-      <c r="G87" s="42"/>
+      <c r="D87" s="41"/>
+      <c r="E87" s="41"/>
+      <c r="G87" s="41"/>
       <c r="H87"/>
     </row>
     <row r="88" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A88" s="101" t="s">
+      <c r="A88" s="97" t="s">
         <v>393</v>
       </c>
-      <c r="B88" s="110" t="s">
-        <v>503</v>
-      </c>
-      <c r="C88" s="112" t="str">
+      <c r="B88" s="105" t="s">
+        <v>500</v>
+      </c>
+      <c r="C88" s="107" t="str">
         <f t="shared" si="1"/>
         <v>"TWR" : "Tree Watering",</v>
       </c>
-      <c r="D88" s="42"/>
-      <c r="E88" s="42"/>
-      <c r="G88" s="42"/>
+      <c r="D88" s="41"/>
+      <c r="E88" s="41"/>
+      <c r="G88" s="41"/>
       <c r="H88"/>
     </row>
     <row r="89" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A89" s="101" t="s">
+      <c r="A89" s="97" t="s">
         <v>315</v>
       </c>
-      <c r="B89" s="110" t="s">
+      <c r="B89" s="105" t="s">
         <v>273</v>
       </c>
-      <c r="C89" s="112" t="str">
+      <c r="C89" s="107" t="str">
         <f t="shared" si="1"/>
         <v>"UTL" : "Utilities",</v>
       </c>
-      <c r="D89" s="42"/>
-      <c r="E89" s="42"/>
-      <c r="G89" s="42"/>
+      <c r="D89" s="41"/>
+      <c r="E89" s="41"/>
+      <c r="G89" s="41"/>
       <c r="H89"/>
     </row>
     <row r="90" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A90" s="101" t="s">
+      <c r="A90" s="97" t="s">
         <v>316</v>
       </c>
-      <c r="B90" s="110" t="s">
-        <v>504</v>
-      </c>
-      <c r="C90" s="112" t="str">
+      <c r="B90" s="105" t="s">
+        <v>501</v>
+      </c>
+      <c r="C90" s="107" t="str">
         <f t="shared" ref="C90:C94" si="2">""""&amp;A90&amp;""""&amp;" : "&amp;""""&amp;B90&amp;""""&amp;","</f>
         <v>"W&amp;S" : "Wild and Scenic",</v>
       </c>
-      <c r="D90" s="42"/>
-      <c r="E90" s="42"/>
-      <c r="G90" s="42"/>
+      <c r="D90" s="41"/>
+      <c r="E90" s="41"/>
+      <c r="G90" s="41"/>
       <c r="H90"/>
     </row>
     <row r="91" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A91" s="101" t="s">
+      <c r="A91" s="97" t="s">
         <v>394</v>
       </c>
-      <c r="B91" s="110" t="s">
+      <c r="B91" s="105" t="s">
         <v>395</v>
       </c>
-      <c r="C91" s="112" t="str">
+      <c r="C91" s="107" t="str">
         <f t="shared" si="2"/>
         <v>"WDR" : "Well Drilling",</v>
       </c>
-      <c r="D91" s="42"/>
-      <c r="E91" s="42"/>
-      <c r="G91" s="42"/>
+      <c r="D91" s="41"/>
+      <c r="E91" s="41"/>
+      <c r="G91" s="41"/>
       <c r="H91"/>
     </row>
     <row r="92" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A92" s="101" t="s">
+      <c r="A92" s="97" t="s">
         <v>317</v>
       </c>
-      <c r="B92" s="110" t="s">
+      <c r="B92" s="105" t="s">
         <v>274</v>
       </c>
-      <c r="C92" s="112" t="str">
+      <c r="C92" s="107" t="str">
         <f t="shared" si="2"/>
         <v>"WET" : "Wetlands",</v>
       </c>
-      <c r="D92" s="42"/>
-      <c r="E92" s="42"/>
-      <c r="G92" s="42"/>
+      <c r="D92" s="41"/>
+      <c r="E92" s="41"/>
+      <c r="G92" s="41"/>
       <c r="H92"/>
     </row>
     <row r="93" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A93" s="101" t="s">
+      <c r="A93" s="97" t="s">
         <v>330</v>
       </c>
-      <c r="B93" s="110" t="s">
-        <v>505</v>
-      </c>
-      <c r="C93" s="112" t="str">
+      <c r="B93" s="105" t="s">
+        <v>502</v>
+      </c>
+      <c r="C93" s="107" t="str">
         <f t="shared" si="2"/>
         <v>"WHL" : "Water Hauls",</v>
       </c>
-      <c r="D93" s="42"/>
-      <c r="E93" s="42"/>
-      <c r="G93" s="42"/>
+      <c r="D93" s="41"/>
+      <c r="E93" s="41"/>
+      <c r="G93" s="41"/>
       <c r="H93"/>
     </row>
     <row r="94" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A94" s="101" t="s">
+      <c r="A94" s="97" t="s">
         <v>318</v>
       </c>
-      <c r="B94" s="110" t="s">
+      <c r="B94" s="105" t="s">
         <v>249</v>
       </c>
-      <c r="C94" s="112" t="str">
+      <c r="C94" s="107" t="str">
         <f t="shared" si="2"/>
         <v>"WL" : "Wildlife",</v>
       </c>
-      <c r="D94" s="42"/>
-      <c r="E94" s="42"/>
-      <c r="G94" s="42"/>
+      <c r="D94" s="41"/>
+      <c r="E94" s="41"/>
+      <c r="G94" s="41"/>
       <c r="H94"/>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A95" s="102"/>
-      <c r="B95" s="102"/>
-      <c r="G95" s="42"/>
+      <c r="A95"/>
+      <c r="B95"/>
+      <c r="G95" s="41"/>
       <c r="H95"/>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A96" s="102"/>
-      <c r="B96" s="102"/>
-      <c r="G96" s="42"/>
+      <c r="A96"/>
+      <c r="B96"/>
+      <c r="G96" s="41"/>
       <c r="H96"/>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A97" s="102"/>
-      <c r="B97" s="102"/>
-      <c r="G97" s="42"/>
+      <c r="A97"/>
+      <c r="B97"/>
+      <c r="G97" s="41"/>
       <c r="H97"/>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A98" s="102"/>
-      <c r="B98" s="102"/>
+      <c r="A98"/>
+      <c r="B98"/>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A99" s="102"/>
-      <c r="B99" s="102"/>
+      <c r="A99"/>
+      <c r="B99"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:B94">
@@ -8702,11 +8692,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="113" t="s">
-        <v>506</v>
-      </c>
-      <c r="E1" s="113"/>
-      <c r="H1" s="113"/>
+      <c r="A1" s="108" t="s">
+        <v>503</v>
+      </c>
+      <c r="E1" s="108"/>
+      <c r="H1" s="108"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
@@ -8904,64 +8894,64 @@
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A41" s="115" t="s">
+      <c r="A41" s="110" t="s">
+        <v>504</v>
+      </c>
+      <c r="B41" s="110" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="C41" s="110"/>
+      <c r="D41" s="110" t="s">
+        <v>509</v>
+      </c>
+      <c r="E41" s="110"/>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A42" s="110"/>
+      <c r="B42" s="110"/>
+      <c r="C42" s="110"/>
+      <c r="D42" s="110"/>
+      <c r="E42" s="110"/>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A43" s="109" t="s">
+        <v>508</v>
+      </c>
+      <c r="B43" s="109" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="D43" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A44" s="109" t="s">
+        <v>505</v>
+      </c>
+      <c r="B44" s="109" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="D44" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A45" s="109" t="s">
         <v>507</v>
       </c>
-      <c r="B41" s="115" t="e">
+      <c r="B45" s="109" t="e">
         <v>#N/A</v>
       </c>
-      <c r="C41" s="115"/>
-      <c r="D41" s="115" t="s">
-        <v>512</v>
-      </c>
-      <c r="E41" s="115"/>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A42" s="115"/>
-      <c r="B42" s="115"/>
-      <c r="C42" s="115"/>
-      <c r="D42" s="115"/>
-      <c r="E42" s="115"/>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A43" s="114" t="s">
-        <v>511</v>
-      </c>
-      <c r="B43" s="114" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D43" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A44" s="114" t="s">
-        <v>508</v>
-      </c>
-      <c r="B44" s="114" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D44" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A45" s="114" t="s">
+      <c r="C45" s="110"/>
+      <c r="D45" t="s">
         <v>510</v>
       </c>
-      <c r="B45" s="114" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C45" s="115"/>
-      <c r="D45" t="s">
-        <v>513</v>
-      </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A46" s="114" t="s">
-        <v>509</v>
-      </c>
-      <c r="B46" s="114" t="e">
+      <c r="A46" s="109" t="s">
+        <v>506</v>
+      </c>
+      <c r="B46" s="109" t="e">
         <v>#N/A</v>
       </c>
       <c r="D46" t="s">
@@ -8969,8 +8959,8 @@
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A47" s="114"/>
-      <c r="B47" s="114"/>
+      <c r="A47" s="109"/>
+      <c r="B47" s="109"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B2331">
